--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z239"/>
+  <dimension ref="A1:Z242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45135</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44327</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45720.54828703704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44454</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,14 +1140,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 62152-2025</t>
+          <t>A 6043-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>46006.48502314815</v>
+        <v>45336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1187,135 +1187,135 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Grönpyrola
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 6043-2024 artfynd.xlsx", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 6043-2024 karta.png", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 6043-2024 karta knärot.png", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 6043-2024 FSC-klagomål.docx", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 6043-2024 FSC-klagomål mail.docx", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 6043-2024 tillsynsbegäran.docx", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 6043-2024 tillsynsbegäran mail.docx", "A 6043-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 62152-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>46006.48502314815</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa
 Revlummer</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 62152-2025 artfynd.xlsx", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 62152-2025 karta.png", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 62152-2025 FSC-klagomål.docx", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 62152-2025 FSC-klagomål mail.docx", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 62152-2025 tillsynsbegäran.docx", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 62152-2025 tillsynsbegäran mail.docx", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 62152-2025 prioriterade fågelarter.docx", "A 62152-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 6043-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45336</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Grönpyrola
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 6043-2024 artfynd.xlsx", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 6043-2024 karta.png", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 6043-2024 karta knärot.png", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 6043-2024 FSC-klagomål.docx", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 6043-2024 FSC-klagomål mail.docx", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 6043-2024 tillsynsbegäran.docx", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 6043-2024 tillsynsbegäran mail.docx", "A 6043-2024")</f>
         <v/>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,14 +1408,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 4173-2022</t>
+          <t>A 48687-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44588</v>
+        <v>45936.60298611111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1462,226 +1462,226 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Backstarr
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 48687-2025 artfynd.xlsx", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 48687-2025 karta.png", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 48687-2025 FSC-klagomål.docx", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 48687-2025 FSC-klagomål mail.docx", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 48687-2025 tillsynsbegäran.docx", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 48687-2025 tillsynsbegäran mail.docx", "A 48687-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 50437-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45944.71523148148</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 50437-2025 artfynd.xlsx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 50437-2025 karta.png", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 50437-2025 FSC-klagomål.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 50437-2025 FSC-klagomål mail.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 50437-2025 tillsynsbegäran.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 50437-2025 tillsynsbegäran mail.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 50437-2025 prioriterade fågelarter.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 8291-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 4173-2022 artfynd.xlsx", "A 4173-2022")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 4173-2022 karta.png", "A 4173-2022")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 4173-2022 FSC-klagomål.docx", "A 4173-2022")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 4173-2022 FSC-klagomål mail.docx", "A 4173-2022")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 4173-2022 tillsynsbegäran.docx", "A 4173-2022")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 4173-2022 tillsynsbegäran mail.docx", "A 4173-2022")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 4173-2022 prioriterade fågelarter.docx", "A 4173-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 48687-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45936.60298611111</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Backstarr
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 48687-2025 artfynd.xlsx", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 48687-2025 karta.png", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 48687-2025 FSC-klagomål.docx", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 48687-2025 FSC-klagomål mail.docx", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 48687-2025 tillsynsbegäran.docx", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 48687-2025 tillsynsbegäran mail.docx", "A 48687-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 50437-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45944.71523148148</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 50437-2025 artfynd.xlsx", "A 50437-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 8291-2023 artfynd.xlsx", "A 8291-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 50437-2025 karta.png", "A 50437-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 8291-2023 karta.png", "A 8291-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 50437-2025 FSC-klagomål.docx", "A 50437-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 8291-2023 FSC-klagomål.docx", "A 8291-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 50437-2025 FSC-klagomål mail.docx", "A 50437-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 8291-2023 FSC-klagomål mail.docx", "A 8291-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 50437-2025 tillsynsbegäran.docx", "A 50437-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 8291-2023 tillsynsbegäran.docx", "A 8291-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 50437-2025 tillsynsbegäran mail.docx", "A 50437-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 8291-2023 tillsynsbegäran mail.docx", "A 8291-2023")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 50437-2025 prioriterade fågelarter.docx", "A 50437-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 8291-2023 prioriterade fågelarter.docx", "A 8291-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 59406-2024</t>
+          <t>A 4173-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45638.38912037037</v>
+        <v>44588</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,13 +1693,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>11.9</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
@@ -1708,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1723,132 +1718,137 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>2</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 4173-2022 artfynd.xlsx", "A 4173-2022")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 4173-2022 karta.png", "A 4173-2022")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 4173-2022 FSC-klagomål.docx", "A 4173-2022")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 4173-2022 FSC-klagomål mail.docx", "A 4173-2022")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 4173-2022 tillsynsbegäran.docx", "A 4173-2022")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 4173-2022 tillsynsbegäran mail.docx", "A 4173-2022")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 4173-2022 prioriterade fågelarter.docx", "A 4173-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 59406-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45638.38912037037</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Hasselsnok
 Sandödla</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 59406-2024 artfynd.xlsx", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 59406-2024 karta.png", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 59406-2024 FSC-klagomål.docx", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 59406-2024 FSC-klagomål mail.docx", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 59406-2024 tillsynsbegäran.docx", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 59406-2024 tillsynsbegäran mail.docx", "A 59406-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 8291-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44974</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 8291-2023 artfynd.xlsx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 8291-2023 karta.png", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 8291-2023 FSC-klagomål.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 8291-2023 FSC-klagomål mail.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 8291-2023 tillsynsbegäran.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 8291-2023 tillsynsbegäran mail.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 8291-2023 prioriterade fågelarter.docx", "A 8291-2023")</f>
         <v/>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44571</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44252</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,14 +2114,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 53485-2023</t>
+          <t>A 9001-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45230</v>
+        <v>45713</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2161,56 +2161,56 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 53485-2023 artfynd.xlsx", "A 53485-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9001-2025 artfynd.xlsx", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 53485-2023 karta.png", "A 53485-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9001-2025 karta.png", "A 9001-2025")</f>
+        <v/>
+      </c>
+      <c r="U19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9001-2025 karta knärot.png", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 53485-2023 FSC-klagomål.docx", "A 53485-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9001-2025 FSC-klagomål.docx", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 53485-2023 FSC-klagomål mail.docx", "A 53485-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9001-2025 FSC-klagomål mail.docx", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 53485-2023 tillsynsbegäran.docx", "A 53485-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9001-2025 tillsynsbegäran.docx", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 53485-2023 tillsynsbegäran mail.docx", "A 53485-2023")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 53485-2023 prioriterade fågelarter.docx", "A 53485-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9001-2025 tillsynsbegäran mail.docx", "A 9001-2025")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 56318-2025</t>
+          <t>A 7778-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45974</v>
+        <v>44242</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,16 +2223,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2257,49 +2257,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 56318-2025 artfynd.xlsx", "A 56318-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 7778-2021 artfynd.xlsx", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 56318-2025 karta.png", "A 56318-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 7778-2021 karta.png", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 56318-2025 FSC-klagomål.docx", "A 56318-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 7778-2021 FSC-klagomål.docx", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 56318-2025 FSC-klagomål mail.docx", "A 56318-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 7778-2021 FSC-klagomål mail.docx", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 56318-2025 tillsynsbegäran.docx", "A 56318-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 7778-2021 tillsynsbegäran.docx", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 56318-2025 tillsynsbegäran mail.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 56318-2025 prioriterade fågelarter.docx", "A 56318-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 7778-2021 tillsynsbegäran mail.docx", "A 7778-2021")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 7778-2021</t>
+          <t>A 53485-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44242</v>
+        <v>45230</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2312,17 +2308,17 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.5</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
@@ -2336,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2346,45 +2342,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 7778-2021 artfynd.xlsx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 53485-2023 artfynd.xlsx", "A 53485-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 7778-2021 karta.png", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 53485-2023 karta.png", "A 53485-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 7778-2021 FSC-klagomål.docx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 53485-2023 FSC-klagomål.docx", "A 53485-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 7778-2021 FSC-klagomål mail.docx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 53485-2023 FSC-klagomål mail.docx", "A 53485-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 7778-2021 tillsynsbegäran.docx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 53485-2023 tillsynsbegäran.docx", "A 53485-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 7778-2021 tillsynsbegäran mail.docx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 53485-2023 tillsynsbegäran mail.docx", "A 53485-2023")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 53485-2023 prioriterade fågelarter.docx", "A 53485-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 9947-2021</t>
+          <t>A 56318-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44252</v>
+        <v>45974</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2406,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2424,56 +2424,56 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 56318-2025 artfynd.xlsx", "A 56318-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="U22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 56318-2025 karta.png", "A 56318-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 56318-2025 FSC-klagomål.docx", "A 56318-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 56318-2025 FSC-klagomål mail.docx", "A 56318-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 56318-2025 tillsynsbegäran.docx", "A 56318-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 56318-2025 tillsynsbegäran mail.docx", "A 56318-2025")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 56318-2025 prioriterade fågelarter.docx", "A 56318-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 9001-2025</t>
+          <t>A 9947-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45713</v>
+        <v>44252</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2524,31 +2524,31 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9001-2025 artfynd.xlsx", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9001-2025 karta.png", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9001-2025 karta knärot.png", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9001-2025 FSC-klagomål.docx", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9001-2025 FSC-klagomål mail.docx", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9001-2025 tillsynsbegäran.docx", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9001-2025 tillsynsbegäran mail.docx", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
         <v/>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
         <v>44651</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44865.65704861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44242</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44533</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>44585</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44865.43612268518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44256</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>44511.56693287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44499</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44457</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44606</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44848.46362268519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44318</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44865</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3586,14 +3586,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 14549-2021</t>
+          <t>A 30731-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44279</v>
+        <v>44764.40619212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3643,14 +3643,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 30731-2022</t>
+          <t>A 14549-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44764.40619212963</v>
+        <v>44279</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3707,7 +3707,7 @@
         <v>44510</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44526</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44851</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44722</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44384.73966435185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44343.32159722222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44298</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44256</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4270,14 +4270,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 2982-2025</t>
+          <t>A 70164-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45678.51011574074</v>
+        <v>44533</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4327,14 +4327,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20476-2023</t>
+          <t>A 59917-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45057.34075231481</v>
+        <v>44494</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4384,14 +4384,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 19134-2025</t>
+          <t>A 25790-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45764</v>
+        <v>44343.83640046296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4441,14 +4441,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 16223-2025</t>
+          <t>A 25795-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45750.63945601852</v>
+        <v>44343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>7.2</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4498,14 +4498,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 50261-2023</t>
+          <t>A 4395-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45216.37878472222</v>
+        <v>44588</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4555,14 +4555,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 70164-2021</t>
+          <t>A 53761-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44533</v>
+        <v>45615.50958333333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 50401-2021</t>
+          <t>A 61626-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44459</v>
+        <v>45646.66194444444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>7.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4669,14 +4669,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 25790-2021</t>
+          <t>A 52262-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44343.83640046296</v>
+        <v>45217</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4726,14 +4726,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 25795-2021</t>
+          <t>A 3178-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44343</v>
+        <v>45316</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4745,8 +4745,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>8.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4783,14 +4788,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 59917-2021</t>
+          <t>A 12945-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44494</v>
+        <v>45385.47545138889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4808,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.6</v>
+        <v>6.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4840,14 +4845,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 37311-2025</t>
+          <t>A 16989-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45876.59644675926</v>
+        <v>45033</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4859,8 +4864,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4897,14 +4907,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 4395-2022</t>
+          <t>A 33772-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44588</v>
+        <v>45133</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4927,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4954,14 +4964,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 11897-2025</t>
+          <t>A 44883-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45728.46913194445</v>
+        <v>44438.61731481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5011,14 +5021,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 30701-2022</t>
+          <t>A 55712-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44763</v>
+        <v>44885</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5041,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5068,14 +5078,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31388-2022</t>
+          <t>A 10470-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44774.62195601852</v>
+        <v>45366.38853009259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5098,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5125,14 +5135,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 22560-2023</t>
+          <t>A 19492-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45071.44758101852</v>
+        <v>44312</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5155,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5182,14 +5192,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 50034-2022</t>
+          <t>A 11897-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44865.45782407407</v>
+        <v>45728.46913194445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5212,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5239,14 +5249,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 50234-2024</t>
+          <t>A 29329-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45600.55275462963</v>
+        <v>45483.44387731481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5269,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5296,14 +5306,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 12945-2024</t>
+          <t>A 61252-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45385.47545138889</v>
+        <v>45645.69790509259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5326,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5353,14 +5363,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 994-2024</t>
+          <t>A 39001-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45301.62427083333</v>
+        <v>45548.42012731481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5383,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5410,14 +5420,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 15667-2024</t>
+          <t>A 30701-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45404</v>
+        <v>44763</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5440,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5467,14 +5477,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 57989-2022</t>
+          <t>A 49554-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44892</v>
+        <v>45596.4672337963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5487,7 +5497,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5524,14 +5534,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3187-2024</t>
+          <t>A 52950-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45316.65596064815</v>
+        <v>44875.65717592592</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,13 +5553,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5586,14 +5591,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 18043-2021</t>
+          <t>A 40369-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44301</v>
+        <v>45555.39053240741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5606,7 +5611,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.1</v>
+        <v>14.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5643,14 +5648,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 55712-2022</t>
+          <t>A 26233-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44885</v>
+        <v>45805.5666087963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5662,8 +5667,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5700,14 +5710,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40430-2025</t>
+          <t>A 26270-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45895</v>
+        <v>45805.59357638889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5720,7 +5730,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5757,14 +5767,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40383-2025</t>
+          <t>A 18043-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45895</v>
+        <v>44301</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5777,7 +5787,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>6.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5814,14 +5824,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 10764-2024</t>
+          <t>A 15552-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45369.56681712963</v>
+        <v>45018</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5834,7 +5844,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>8.300000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5871,14 +5881,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 17525-2025</t>
+          <t>A 13890-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45757.5817824074</v>
+        <v>44649</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5891,7 +5901,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5928,14 +5938,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 40652-2024</t>
+          <t>A 44529-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45557</v>
+        <v>45189</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5948,7 +5958,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5985,14 +5995,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46371-2022</t>
+          <t>A 57989-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44848</v>
+        <v>44892</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6004,13 +6014,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6047,14 +6052,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 42239-2024</t>
+          <t>A 16216-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45562.56358796296</v>
+        <v>45750.63079861111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6067,7 +6072,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6104,14 +6109,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 37092-2024</t>
+          <t>A 55733-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45539.49989583333</v>
+        <v>45232</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6124,7 +6129,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6161,14 +6166,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 54374-2022</t>
+          <t>A 35113-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44879</v>
+        <v>44384.37240740741</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6218,14 +6223,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24514-2024</t>
+          <t>A 40383-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45458</v>
+        <v>45895</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6238,7 +6243,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6275,14 +6280,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 42736-2025</t>
+          <t>A 40430-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45908</v>
+        <v>45895</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6295,7 +6300,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6332,14 +6337,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42823-2025</t>
+          <t>A 42239-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45908.57429398148</v>
+        <v>45562.56358796296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6352,7 +6357,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6389,14 +6394,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 58226-2025</t>
+          <t>A 9590-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45985.37508101852</v>
+        <v>44251</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6409,7 +6414,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6446,14 +6451,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 58251-2025</t>
+          <t>A 37092-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45985.39645833334</v>
+        <v>45539.49989583333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6466,7 +6471,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6503,14 +6508,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 39001-2024</t>
+          <t>A 52852-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45548.42012731481</v>
+        <v>45610.60664351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6523,7 +6528,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6560,14 +6565,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 880-2026</t>
+          <t>A 28586-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46029</v>
+        <v>45819.5812037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6580,7 +6585,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>7.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6617,14 +6622,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43550-2025</t>
+          <t>A 40652-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45911.61836805556</v>
+        <v>45557</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6642,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6674,14 +6679,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 44319-2025</t>
+          <t>A 25884-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45916</v>
+        <v>45085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6731,14 +6736,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 72625-2021</t>
+          <t>A 29308-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44546.55005787037</v>
+        <v>45824.46103009259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6751,7 +6756,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6788,14 +6793,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 1608-2026</t>
+          <t>A 42823-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46034.46770833333</v>
+        <v>45908.57429398148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6808,7 +6813,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6845,14 +6850,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 2322-2026</t>
+          <t>A 29300-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46036.60327546296</v>
+        <v>45824.45552083333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6865,7 +6870,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6902,14 +6907,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 2324-2026</t>
+          <t>A 50603-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46036.60572916667</v>
+        <v>45600</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6922,7 +6927,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6959,14 +6964,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 38983-2024</t>
+          <t>A 42736-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45548.39829861111</v>
+        <v>45908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6979,7 +6984,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7016,14 +7021,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 1945-2026</t>
+          <t>A 43550-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46035.59709490741</v>
+        <v>45911.61836805556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7036,7 +7041,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7073,14 +7078,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 59902-2025</t>
+          <t>A 44319-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45993.34480324074</v>
+        <v>45916</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7093,7 +7098,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7130,14 +7135,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 45540-2025</t>
+          <t>A 20476-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45922.61466435185</v>
+        <v>45057.34075231481</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7150,7 +7155,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7187,14 +7192,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 44408-2021</t>
+          <t>A 45540-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44435</v>
+        <v>45922.61466435185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7207,7 +7212,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7244,14 +7249,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 29327-2024</t>
+          <t>A 15667-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45483.43834490741</v>
+        <v>45404</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7264,7 +7269,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7301,14 +7306,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 41991-2022</t>
+          <t>A 50401-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44830.44231481481</v>
+        <v>44459</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7321,7 +7326,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7358,14 +7363,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 44523-2023</t>
+          <t>A 56024-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45189.4774537037</v>
+        <v>45240</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7378,7 +7383,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7415,14 +7420,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 12238-2025</t>
+          <t>A 31917-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45729.58333333334</v>
+        <v>45834</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7435,7 +7440,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>10.6</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7472,14 +7477,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46907-2025</t>
+          <t>A 50601-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45929.40480324074</v>
+        <v>45600</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7492,7 +7497,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7529,14 +7534,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 57663-2025</t>
+          <t>A 46907-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45981.42303240741</v>
+        <v>45929.40480324074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7549,7 +7554,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7586,14 +7591,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 47882-2025</t>
+          <t>A 41991-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45932.46203703704</v>
+        <v>44830.44231481481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7606,7 +7611,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7643,14 +7648,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 61413-2025</t>
+          <t>A 64707-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46000</v>
+        <v>45281</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7662,8 +7667,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>4.3</v>
+        <v>11.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7696,18 +7706,38 @@
         <v>0</v>
       </c>
       <c r="R113" s="2" t="inlineStr"/>
+      <c r="U113">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 64707-2023 karta knärot.png", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="V113">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 64707-2023 FSC-klagomål.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="W113">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 64707-2023 FSC-klagomål mail.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="X113">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 64707-2023 tillsynsbegäran.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="Y113">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 64707-2023 tillsynsbegäran mail.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 48688-2025</t>
+          <t>A 3187-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45936.60555555556</v>
+        <v>45316.65596064815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7719,8 +7749,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7757,14 +7792,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 13109-2023</t>
+          <t>A 47882-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45002</v>
+        <v>45932.46203703704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7777,7 +7812,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7814,14 +7849,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 61898-2025</t>
+          <t>A 33559-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46003.46565972222</v>
+        <v>45841.57549768518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7834,7 +7869,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7871,14 +7906,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 50432-2025</t>
+          <t>A 33566-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45944.69248842593</v>
+        <v>45841.58208333333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7891,7 +7926,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7928,14 +7963,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 50057-2025</t>
+          <t>A 33560-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45942</v>
+        <v>45841.57739583333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7948,7 +7983,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7985,14 +8020,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 33118-2023</t>
+          <t>A 48688-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45126.59351851852</v>
+        <v>45936.60555555556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8005,7 +8040,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8042,14 +8077,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 33131-2023</t>
+          <t>A 33564-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45126</v>
+        <v>45841.57973379629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8062,7 +8097,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8099,14 +8134,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 50626-2025</t>
+          <t>A 33569-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45945.63623842593</v>
+        <v>45841.58334490741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,13 +8153,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8161,14 +8191,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 50579-2025</t>
+          <t>A 33586-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45945.58449074074</v>
+        <v>45841.59465277778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8211,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8218,14 +8248,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 50589-2025</t>
+          <t>A 46371-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45945.600625</v>
+        <v>44848</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,8 +8267,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8275,14 +8310,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 50606-2025</t>
+          <t>A 59383-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45945.6171412037</v>
+        <v>45638.35758101852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8294,8 +8329,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>6.7</v>
+        <v>2.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8332,14 +8372,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 50607-2025</t>
+          <t>A 33745-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45945.61997685185</v>
+        <v>45133.39075231482</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8352,7 +8392,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>14.5</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8389,14 +8429,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 56130-2022</t>
+          <t>A 33555-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44886</v>
+        <v>45841.57423611111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8409,7 +8449,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8446,14 +8486,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 50578-2025</t>
+          <t>A 33536-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45945.58215277778</v>
+        <v>45841.55890046297</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8466,7 +8506,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.8</v>
+        <v>6.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8503,14 +8543,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 50797-2025</t>
+          <t>A 28430-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45946.48350694445</v>
+        <v>45477</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8560,14 +8600,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 51427-2025</t>
+          <t>A 33580-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45949</v>
+        <v>45841.59407407408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8580,7 +8620,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8617,14 +8657,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 51429-2025</t>
+          <t>A 26277-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45949</v>
+        <v>45805.60436342593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8637,7 +8677,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8674,14 +8714,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 33747-2023</t>
+          <t>A 5326-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45133.39594907407</v>
+        <v>45331.41356481481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8694,7 +8734,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8731,14 +8771,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 51432-2025</t>
+          <t>A 50057-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45949</v>
+        <v>45942</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8751,7 +8791,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8788,14 +8828,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 15695-2025</t>
+          <t>A 50626-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45748.46914351852</v>
+        <v>45945.63623842593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8807,8 +8847,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>14</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8845,14 +8890,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 6128-2026</t>
+          <t>A 50432-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46054.29585648148</v>
+        <v>45944.69248842593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8865,7 +8910,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8902,14 +8947,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 6379-2026</t>
+          <t>A 10764-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46055</v>
+        <v>45369.56681712963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8922,7 +8967,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8959,14 +9004,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45578-2024</t>
+          <t>A 50579-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45578</v>
+        <v>45945.58449074074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8979,7 +9024,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9016,14 +9061,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 21333-2024</t>
+          <t>A 50589-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45440</v>
+        <v>45945.600625</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9036,7 +9081,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9073,14 +9118,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 52833-2025</t>
+          <t>A 50606-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45957.47081018519</v>
+        <v>45945.6171412037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9093,7 +9138,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>6.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9130,14 +9175,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 13325-2022</t>
+          <t>A 50607-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44645.34487268519</v>
+        <v>45945.61997685185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9150,7 +9195,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.7</v>
+        <v>14.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9187,14 +9232,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 9590-2021</t>
+          <t>A 50578-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44251</v>
+        <v>45945.58215277778</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9244,14 +9289,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 54126-2025</t>
+          <t>A 50797-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45964.45715277778</v>
+        <v>45946.48350694445</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9264,7 +9309,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9301,14 +9346,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 29195-2024</t>
+          <t>A 51427-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45482</v>
+        <v>45949</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9321,7 +9366,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9358,14 +9403,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 59383-2024</t>
+          <t>A 51432-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45638.35758101852</v>
+        <v>45949</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9377,13 +9422,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9420,14 +9460,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52902-2024</t>
+          <t>A 51429-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45610.68715277778</v>
+        <v>45949</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9440,7 +9480,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>6.8</v>
+        <v>2.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9477,14 +9517,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56602-2023</t>
+          <t>A 2982-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45243.6625</v>
+        <v>45678.51011574074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9497,7 +9537,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9534,14 +9574,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 10457-2023</t>
+          <t>A 60768-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44987</v>
+        <v>44907</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9554,7 +9594,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9591,14 +9631,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 61247-2024</t>
+          <t>A 52833-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45645.69128472222</v>
+        <v>45957.47081018519</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9611,7 +9651,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9648,14 +9688,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 55830-2025</t>
+          <t>A 16223-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45972</v>
+        <v>45750.63945601852</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9668,7 +9708,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9705,14 +9745,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 56211-2025</t>
+          <t>A 20888-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45974.47729166667</v>
+        <v>44701</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9725,7 +9765,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9762,14 +9802,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 56208-2025</t>
+          <t>A 18043-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45974.47333333334</v>
+        <v>44301</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9782,7 +9822,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.3</v>
+        <v>6.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9819,14 +9859,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 56196-2025</t>
+          <t>A 37311-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45974.45112268518</v>
+        <v>45876.59644675926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9839,7 +9879,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>6.3</v>
+        <v>3.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9876,14 +9916,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 7136-2022</t>
+          <t>A 45617-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44603</v>
+        <v>45579.45523148148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9896,7 +9936,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9933,14 +9973,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 18043-2021</t>
+          <t>A 54126-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44301</v>
+        <v>45964.45715277778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9953,7 +9993,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9990,14 +10030,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 53761-2024</t>
+          <t>A 17525-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45615.50958333333</v>
+        <v>45757.5817824074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10010,7 +10050,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10047,14 +10087,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 50601-2024</t>
+          <t>A 9983-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45600</v>
+        <v>44621.43550925926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10067,7 +10107,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10104,14 +10144,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 67875-2021</t>
+          <t>A 33131-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44525</v>
+        <v>45126</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10124,7 +10164,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>15.5</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10161,14 +10201,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 16363-2024</t>
+          <t>A 55830-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45407.59325231481</v>
+        <v>45972</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10181,7 +10221,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10218,14 +10258,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 16989-2023</t>
+          <t>A 24514-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45033</v>
+        <v>45458</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10237,13 +10277,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10280,14 +10315,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 44529-2023</t>
+          <t>A 31388-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45189</v>
+        <v>44774.62195601852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10300,7 +10335,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10337,14 +10372,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 33745-2023</t>
+          <t>A 56196-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45133.39075231482</v>
+        <v>45974.45112268518</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10357,7 +10392,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>6.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10394,14 +10429,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 41072-2023</t>
+          <t>A 56211-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45170</v>
+        <v>45974.47729166667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10414,7 +10449,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>7.8</v>
+        <v>2.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10451,14 +10486,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 10470-2024</t>
+          <t>A 56208-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45366.38853009259</v>
+        <v>45974.47333333334</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10471,7 +10506,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10508,14 +10543,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 40369-2024</t>
+          <t>A 29195-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45555.39053240741</v>
+        <v>45482</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10528,7 +10563,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>14.5</v>
+        <v>2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10565,14 +10600,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 48071-2024</t>
+          <t>A 994-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45589</v>
+        <v>45301.62427083333</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10585,7 +10620,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10622,14 +10657,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 29329-2024</t>
+          <t>A 58226-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45483.44387731481</v>
+        <v>45985.37508101852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10642,7 +10677,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10679,14 +10714,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 16216-2025</t>
+          <t>A 44408-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45750.63079861111</v>
+        <v>44435</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10699,7 +10734,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10736,14 +10771,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 52262-2023</t>
+          <t>A 58251-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45217</v>
+        <v>45985.39645833334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10793,14 +10828,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 38818-2024</t>
+          <t>A 880-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45547.55392361111</v>
+        <v>46029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10813,7 +10848,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10850,14 +10885,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 8047-2024</t>
+          <t>A 10457-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45351.32293981482</v>
+        <v>44987</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10870,7 +10905,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.9</v>
+        <v>6.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10907,14 +10942,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 33772-2023</t>
+          <t>A 50034-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45133</v>
+        <v>44865.45782407407</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10927,7 +10962,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10964,14 +10999,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 25884-2023</t>
+          <t>A 1945-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45085</v>
+        <v>46035.59709490741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10984,7 +11019,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11021,14 +11056,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 54007-2024</t>
+          <t>A 57768-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45615</v>
+        <v>44892</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11041,7 +11076,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11078,14 +11113,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 20888-2022</t>
+          <t>A 59902-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44701</v>
+        <v>45993.34480324074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11098,7 +11133,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11135,14 +11170,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 54792-2023</t>
+          <t>A 1608-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45236</v>
+        <v>46034.46770833333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11155,7 +11190,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>5.9</v>
+        <v>0.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11192,14 +11227,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 11891-2025</t>
+          <t>A 2322-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45728.46309027778</v>
+        <v>46036.60327546296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11212,7 +11247,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11249,14 +11284,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 3391-2024</t>
+          <t>A 2324-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45318</v>
+        <v>46036.60572916667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11268,13 +11303,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11311,14 +11341,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 21061-2022</t>
+          <t>A 2231-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44704</v>
+        <v>44942</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11331,7 +11361,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11368,14 +11398,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 55733-2023</t>
+          <t>A 16363-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45232</v>
+        <v>45407.59325231481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11388,7 +11418,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11425,14 +11455,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 28430-2024</t>
+          <t>A 15704-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45477</v>
+        <v>45748.4815162037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11445,7 +11475,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11482,14 +11512,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 64707-2023</t>
+          <t>A 72625-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45281</v>
+        <v>44546.55005787037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11501,13 +11531,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>11.9</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11540,38 +11565,18 @@
         <v>0</v>
       </c>
       <c r="R180" s="2" t="inlineStr"/>
-      <c r="U180">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 64707-2023 karta knärot.png", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="V180">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 64707-2023 FSC-klagomål.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="W180">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 64707-2023 FSC-klagomål mail.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="X180">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 64707-2023 tillsynsbegäran.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="Y180">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 64707-2023 tillsynsbegäran mail.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 989-2024</t>
+          <t>A 19134-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45301</v>
+        <v>45764</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11621,14 +11626,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 50259-2023</t>
+          <t>A 61413-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45216.3775</v>
+        <v>46000</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11641,7 +11646,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11678,14 +11683,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 29192-2024</t>
+          <t>A 33118-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45482</v>
+        <v>45126.59351851852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11698,7 +11703,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11735,14 +11740,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 57768-2022</t>
+          <t>A 57663-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44892</v>
+        <v>45981.42303240741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11755,7 +11760,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11792,14 +11797,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 19492-2021</t>
+          <t>A 38988-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44312</v>
+        <v>45548.40613425926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11812,7 +11817,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11849,14 +11854,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 2231-2023</t>
+          <t>A 60220-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44942</v>
+        <v>44903</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11869,7 +11874,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11906,14 +11911,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 15559-2023</t>
+          <t>A 11891-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45019</v>
+        <v>45728.46309027778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11926,7 +11931,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11963,14 +11968,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 9983-2022</t>
+          <t>A 61898-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44621.43550925926</v>
+        <v>46003.46565972222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11983,7 +11988,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12020,14 +12025,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 20968-2023</t>
+          <t>A 48071-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45061</v>
+        <v>45589</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12040,7 +12045,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12077,14 +12082,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 60220-2022</t>
+          <t>A 15559-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44903</v>
+        <v>45019</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12097,7 +12102,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>8.300000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12134,14 +12139,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 45617-2024</t>
+          <t>A 54007-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45579.45523148148</v>
+        <v>45615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12154,7 +12159,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12191,14 +12196,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 61252-2024</t>
+          <t>A 33747-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45645.69790509259</v>
+        <v>45133.39594907407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12211,7 +12216,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12248,14 +12253,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 56024-2023</t>
+          <t>A 6128-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45240</v>
+        <v>46054.29585648148</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12268,7 +12273,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12305,14 +12310,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 5326-2024</t>
+          <t>A 44523-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45331.41356481481</v>
+        <v>45189.4774537037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12325,7 +12330,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12362,14 +12367,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 56677-2023</t>
+          <t>A 6379-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45243.9177199074</v>
+        <v>46055</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12387,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12419,14 +12424,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 35113-2021</t>
+          <t>A 59396-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44384.37240740741</v>
+        <v>45638.37623842592</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12438,8 +12443,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>5.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12476,14 +12486,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 44883-2021</t>
+          <t>A 7448-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44438.61731481482</v>
+        <v>46059.46386574074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12495,8 +12505,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12533,14 +12548,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 60768-2022</t>
+          <t>A 7466-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44907</v>
+        <v>46059.48324074074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12552,8 +12567,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12590,14 +12610,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 52950-2022</t>
+          <t>A 7545-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44875.65717592592</v>
+        <v>46059.65075231482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12610,7 +12630,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12647,14 +12667,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 52852-2024</t>
+          <t>A 61247-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45610.60664351852</v>
+        <v>45645.69128472222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12667,7 +12687,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12704,14 +12724,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 15704-2025</t>
+          <t>A 8047-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45748.4815162037</v>
+        <v>45351.32293981482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12724,7 +12744,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12761,14 +12781,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 61626-2024</t>
+          <t>A 13109-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45646.66194444444</v>
+        <v>45002</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12781,7 +12801,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>7.3</v>
+        <v>2.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12818,14 +12838,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 3178-2024</t>
+          <t>A 21333-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45316</v>
+        <v>45440</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12837,13 +12857,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>8.6</v>
+        <v>2.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12880,14 +12895,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 61249-2024</t>
+          <t>A 29192-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45645.69321759259</v>
+        <v>45482</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12915,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12937,14 +12952,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 38988-2024</t>
+          <t>A 67875-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45548.40613425926</v>
+        <v>44525</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12957,7 +12972,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4.2</v>
+        <v>15.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12994,14 +13009,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 45632-2024</t>
+          <t>A 50261-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45579.47123842593</v>
+        <v>45216.37878472222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13013,13 +13028,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>9.5</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13056,14 +13066,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 50603-2024</t>
+          <t>A 38983-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45600</v>
+        <v>45548.39829861111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13076,7 +13086,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13113,14 +13123,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 61250-2024</t>
+          <t>A 29327-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45645.69521990741</v>
+        <v>45483.43834490741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13133,7 +13143,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13170,14 +13180,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 59396-2024</t>
+          <t>A 56602-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45638.37623842592</v>
+        <v>45243.6625</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13189,13 +13199,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13232,14 +13237,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 24991-2023</t>
+          <t>A 12238-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45085</v>
+        <v>45729.58333333334</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13252,7 +13257,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>10.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13289,14 +13294,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 46532-2024</t>
+          <t>A 41072-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45582.63861111111</v>
+        <v>45170</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13309,7 +13314,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13346,14 +13351,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 49551-2024</t>
+          <t>A 3391-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45596.4597337963</v>
+        <v>45318</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13365,8 +13370,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13403,14 +13413,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 23012-2025</t>
+          <t>A 52902-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45790</v>
+        <v>45610.68715277778</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13423,7 +13433,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13460,14 +13470,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 9695-2025</t>
+          <t>A 20968-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45716.37232638889</v>
+        <v>45061</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13480,7 +13490,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13517,14 +13527,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 14079-2025</t>
+          <t>A 22560-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45739</v>
+        <v>45071.44758101852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13537,7 +13547,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13574,14 +13584,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 12779-2025</t>
+          <t>A 54792-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45733.59574074074</v>
+        <v>45236</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13594,7 +13604,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>10.1</v>
+        <v>5.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13631,14 +13641,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 9698-2025</t>
+          <t>A 45578-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45716.37402777778</v>
+        <v>45578</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13651,7 +13661,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13688,14 +13698,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 11931-2025</t>
+          <t>A 61249-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45728.5212962963</v>
+        <v>45645.69321759259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13708,7 +13718,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13745,14 +13755,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 14087-2025</t>
+          <t>A 38818-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45739</v>
+        <v>45547.55392361111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13765,7 +13775,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13802,14 +13812,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 24348-2025</t>
+          <t>A 45632-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45797</v>
+        <v>45579.47123842593</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13821,8 +13831,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13859,14 +13874,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 49554-2024</t>
+          <t>A 7136-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45596.4672337963</v>
+        <v>44603</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13879,7 +13894,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13916,14 +13931,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 26233-2025</t>
+          <t>A 24991-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45805.5666087963</v>
+        <v>45085</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13933,11 +13948,6 @@
       <c r="E222" t="inlineStr">
         <is>
           <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G222" t="n">
@@ -13978,14 +13988,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 26270-2025</t>
+          <t>A 989-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45805.59357638889</v>
+        <v>45301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13998,7 +14008,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14035,14 +14045,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 13890-2022</t>
+          <t>A 61250-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44649</v>
+        <v>45645.69521990741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14055,7 +14065,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14092,14 +14102,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 15552-2023</t>
+          <t>A 13325-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45018</v>
+        <v>44645.34487268519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14122,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14149,14 +14159,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 28586-2025</t>
+          <t>A 50234-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45819.5812037037</v>
+        <v>45600.55275462963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14169,7 +14179,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14206,14 +14216,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 29300-2025</t>
+          <t>A 56677-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45824.45552083333</v>
+        <v>45243.9177199074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14226,7 +14236,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14263,14 +14273,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 29308-2025</t>
+          <t>A 56130-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45824.46103009259</v>
+        <v>44886</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14283,7 +14293,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14320,14 +14330,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 31917-2025</t>
+          <t>A 21061-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45834</v>
+        <v>44704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14340,7 +14350,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14377,14 +14387,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 33559-2025</t>
+          <t>A 54374-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45841.57549768518</v>
+        <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14397,7 +14407,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14434,14 +14444,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 33560-2025</t>
+          <t>A 50259-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45841.57739583333</v>
+        <v>45216.3775</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14454,7 +14464,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14491,14 +14501,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 33555-2025</t>
+          <t>A 15695-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45841.57423611111</v>
+        <v>45748.46914351852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14511,7 +14521,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14548,14 +14558,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 33566-2025</t>
+          <t>A 49551-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45841.58208333333</v>
+        <v>45596.4597337963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14568,7 +14578,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14605,14 +14615,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 33564-2025</t>
+          <t>A 46532-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45841.57973379629</v>
+        <v>45582.63861111111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14625,7 +14635,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14662,14 +14672,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 33569-2025</t>
+          <t>A 12779-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45841.58334490741</v>
+        <v>45733.59574074074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14682,7 +14692,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.5</v>
+        <v>10.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14719,14 +14729,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 33586-2025</t>
+          <t>A 11931-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45841.59465277778</v>
+        <v>45728.5212962963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14739,7 +14749,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14776,14 +14786,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 33580-2025</t>
+          <t>A 14087-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45841.59407407408</v>
+        <v>45739</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14796,7 +14806,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14833,14 +14843,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 26277-2025</t>
+          <t>A 9698-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45805.60436342593</v>
+        <v>45716.37402777778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14853,7 +14863,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14887,17 +14897,17 @@
       </c>
       <c r="R238" s="2" t="inlineStr"/>
     </row>
-    <row r="239">
+    <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 33536-2025</t>
+          <t>A 9695-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45841.55890046297</v>
+        <v>45716.37232638889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14910,7 +14920,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>6.3</v>
+        <v>1.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14943,6 +14953,177 @@
         <v>0</v>
       </c>
       <c r="R239" s="2" t="inlineStr"/>
+    </row>
+    <row r="240" ht="15" customHeight="1">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>A 23012-2025</t>
+        </is>
+      </c>
+      <c r="B240" s="1" t="n">
+        <v>45790</v>
+      </c>
+      <c r="C240" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" s="2" t="inlineStr"/>
+    </row>
+    <row r="241" ht="15" customHeight="1">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>A 14079-2025</t>
+        </is>
+      </c>
+      <c r="B241" s="1" t="n">
+        <v>45739</v>
+      </c>
+      <c r="C241" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" s="2" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>A 24348-2025</t>
+        </is>
+      </c>
+      <c r="B242" s="1" t="n">
+        <v>45797</v>
+      </c>
+      <c r="C242" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R242" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45135</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44327</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45720.54828703704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44454</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>46006.48502314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45936.60298611111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>45944.71523148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>44588</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45638.38912037037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44571</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44252</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45713</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44242</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45230</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>45974</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44252</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44651</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44865.65704861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44242</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44533</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>44585</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44865.43612268518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44256</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>44511.56693287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44499</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44457</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44606</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44848.46362268519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44318</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44865</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44764.40619212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44279</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44510</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44526</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44851</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44722</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44384.73966435185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44343.32159722222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44298</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44256</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44533</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44494</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44343.83640046296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>44343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44588</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>45615.50958333333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>45646.66194444444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>45217</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>45316</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>45385.47545138889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45033</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45133</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44438.61731481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>44885</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45366.38853009259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44312</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45728.46913194445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45483.44387731481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45645.69790509259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45548.42012731481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44763</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45596.4672337963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44875.65717592592</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45555.39053240741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45805.5666087963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45805.59357638889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44301</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45018</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44649</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45189</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44892</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45750.63079861111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45232</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44384.37240740741</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45895</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>45895</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>45562.56358796296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44251</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>45539.49989583333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>45610.60664351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45819.5812037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>45557</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45824.46103009259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45908.57429398148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45824.45552083333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45600</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45911.61836805556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45916</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45057.34075231481</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45922.61466435185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45404</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44459</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>45240</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>45834</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45600</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45929.40480324074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44830.44231481481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45281</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>45316.65596064815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>45932.46203703704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>45841.57549768518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>45841.58208333333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>45841.57739583333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>45936.60555555556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>45841.57973379629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>45841.58334490741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>45841.59465277778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>44848</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>45638.35758101852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>45133.39075231482</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>45841.57423611111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>45841.55890046297</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>45477</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45841.59407407408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>45805.60436342593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>45331.41356481481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>45942</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>45945.63623842593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45944.69248842593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>45369.56681712963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>45945.58449074074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45945.600625</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>45945.6171412037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>45945.61997685185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>45945.58215277778</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>45946.48350694445</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>45949</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>45949</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45949</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45678.51011574074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44907</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45957.47081018519</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45750.63945601852</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44701</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44301</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45876.59644675926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45579.45523148148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45964.45715277778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45757.5817824074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44621.43550925926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45126</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45972</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45458</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44774.62195601852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45974.45112268518</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45974.47729166667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45974.47333333334</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45482</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45301.62427083333</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>45985.37508101852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44435</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>45985.39645833334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>46029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44987</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44865.45782407407</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>46035.59709490741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44892</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>45993.34480324074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>46034.46770833333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>46036.60327546296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>46036.60572916667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>44942</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45407.59325231481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>45748.4815162037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44546.55005787037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>45764</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>46000</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>45126.59351851852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>45981.42303240741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>45548.40613425926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>44903</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>45728.46309027778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>46003.46565972222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>45589</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>45019</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>45615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>45133.39594907407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>46054.29585648148</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>45189.4774537037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>46055</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>45638.37623842592</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>46059.46386574074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>46059.48324074074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>46059.65075231482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>45645.69128472222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>45351.32293981482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>45002</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>45440</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>45482</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44525</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45216.37878472222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45548.39829861111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45483.43834490741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45243.6625</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45729.58333333334</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45170</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45318</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>45610.68715277778</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>45061</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>45071.44758101852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>45236</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>45578</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>45645.69321759259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>45547.55392361111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>45579.47123842593</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44603</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45085</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>45301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>45645.69521990741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44645.34487268519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>45600.55275462963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>45243.9177199074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44886</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>45216.3775</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>45748.46914351852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>45596.4597337963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45582.63861111111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45733.59574074074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45728.5212962963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45739</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45716.37402777778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45716.37232638889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>45790</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>45739</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>45797</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45135</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44327</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45720.54828703704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44454</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>46006.48502314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45936.60298611111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>45944.71523148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>44588</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45638.38912037037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44571</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44252</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45713</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44242</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45230</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>45974</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44252</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44651</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44865.65704861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44242</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44533</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>44585</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44865.43612268518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44256</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>44511.56693287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44499</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44457</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44606</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44848.46362268519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44318</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44865</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44764.40619212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44279</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44510</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44526</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44851</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44722</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44384.73966435185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44343.32159722222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44298</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44256</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44533</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44494</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44343.83640046296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>44343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44588</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>45615.50958333333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>45646.66194444444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>45217</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>45316</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>45385.47545138889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45033</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45133</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44438.61731481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>44885</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45366.38853009259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44312</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45728.46913194445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45483.44387731481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45645.69790509259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45548.42012731481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44763</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45596.4672337963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44875.65717592592</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45555.39053240741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45805.5666087963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45805.59357638889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44301</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45018</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44649</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45189</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44892</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45750.63079861111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45232</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44384.37240740741</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45895</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>45895</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>45562.56358796296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44251</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>45539.49989583333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>45610.60664351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45819.5812037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>45557</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45085</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45824.46103009259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45908.57429398148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45824.45552083333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45600</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45911.61836805556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45916</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45057.34075231481</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45922.61466435185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45404</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44459</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>45240</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>45834</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45600</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45929.40480324074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44830.44231481481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45281</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>45316.65596064815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>45932.46203703704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>45841.57549768518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>45841.58208333333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>45841.57739583333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>45936.60555555556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>45841.57973379629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>45841.58334490741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>45841.59465277778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>44848</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>45638.35758101852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>45133.39075231482</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>45841.57423611111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>45841.55890046297</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>45477</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45841.59407407408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>45805.60436342593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>45331.41356481481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>45942</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>45945.63623842593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45944.69248842593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>45369.56681712963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>45945.58449074074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45945.600625</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>45945.6171412037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>45945.61997685185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>45945.58215277778</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>45946.48350694445</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>45949</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>45949</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45949</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45678.51011574074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44907</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45957.47081018519</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45750.63945601852</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44701</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44301</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45876.59644675926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45579.45523148148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45964.45715277778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45757.5817824074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44621.43550925926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45126</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45972</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45458</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44774.62195601852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45974.45112268518</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45974.47729166667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45974.47333333334</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>45482</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45301.62427083333</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>45985.37508101852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>44435</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>45985.39645833334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>46029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44987</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44865.45782407407</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>46035.59709490741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44892</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>45993.34480324074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>46034.46770833333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>46036.60327546296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>46036.60572916667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>44942</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45407.59325231481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>45748.4815162037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44546.55005787037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>45764</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>46000</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>45126.59351851852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>45981.42303240741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>45548.40613425926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>44903</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>45728.46309027778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>46003.46565972222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>45589</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>45019</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>45615</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>45133.39594907407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>46054.29585648148</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>45189.4774537037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>46055</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>45638.37623842592</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>46059.46386574074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>46059.48324074074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>46059.65075231482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>45645.69128472222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>45351.32293981482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>45002</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>45440</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>45482</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44525</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45216.37878472222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45548.39829861111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45483.43834490741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45243.6625</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45729.58333333334</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45170</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>45318</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>45610.68715277778</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>45061</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>45071.44758101852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>45236</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>45578</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>45645.69321759259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>45547.55392361111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>45579.47123842593</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44603</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45085</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>45301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>45645.69521990741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44645.34487268519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>45600.55275462963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>45243.9177199074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44886</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44879</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>45216.3775</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>45748.46914351852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>45596.4597337963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45582.63861111111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45733.59574074074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45728.5212962963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45739</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45716.37402777778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45716.37232638889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>45790</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>45739</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>45797</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45135</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44327</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45720.54828703704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44454</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,14 +1140,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 6043-2024</t>
+          <t>A 62152-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45336</v>
+        <v>46006.48502314815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1187,135 +1187,135 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 62152-2025 artfynd.xlsx", "A 62152-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 62152-2025 karta.png", "A 62152-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 62152-2025 FSC-klagomål.docx", "A 62152-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 62152-2025 FSC-klagomål mail.docx", "A 62152-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 62152-2025 tillsynsbegäran.docx", "A 62152-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 62152-2025 tillsynsbegäran mail.docx", "A 62152-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 62152-2025 prioriterade fågelarter.docx", "A 62152-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 6043-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Grönpyrola
 Revlummer</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 6043-2024 artfynd.xlsx", "A 6043-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 6043-2024 karta.png", "A 6043-2024")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 6043-2024 karta knärot.png", "A 6043-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 6043-2024 FSC-klagomål.docx", "A 6043-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 6043-2024 FSC-klagomål mail.docx", "A 6043-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 6043-2024 tillsynsbegäran.docx", "A 6043-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 6043-2024 tillsynsbegäran mail.docx", "A 6043-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 62152-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>46006.48502314815</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 62152-2025 artfynd.xlsx", "A 62152-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 62152-2025 karta.png", "A 62152-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 62152-2025 FSC-klagomål.docx", "A 62152-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 62152-2025 FSC-klagomål mail.docx", "A 62152-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 62152-2025 tillsynsbegäran.docx", "A 62152-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 62152-2025 tillsynsbegäran mail.docx", "A 62152-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 62152-2025 prioriterade fågelarter.docx", "A 62152-2025")</f>
         <v/>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,14 +1408,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 48687-2025</t>
+          <t>A 4173-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45936.60298611111</v>
+        <v>44588</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1462,393 +1462,393 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 4173-2022 artfynd.xlsx", "A 4173-2022")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 4173-2022 karta.png", "A 4173-2022")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 4173-2022 FSC-klagomål.docx", "A 4173-2022")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 4173-2022 FSC-klagomål mail.docx", "A 4173-2022")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 4173-2022 tillsynsbegäran.docx", "A 4173-2022")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 4173-2022 tillsynsbegäran mail.docx", "A 4173-2022")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 4173-2022 prioriterade fågelarter.docx", "A 4173-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 59406-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45638.38912037037</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Hasselsnok
+Sandödla</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 59406-2024 artfynd.xlsx", "A 59406-2024")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 59406-2024 karta.png", "A 59406-2024")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 59406-2024 FSC-klagomål.docx", "A 59406-2024")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 59406-2024 FSC-klagomål mail.docx", "A 59406-2024")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 59406-2024 tillsynsbegäran.docx", "A 59406-2024")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 59406-2024 tillsynsbegäran mail.docx", "A 59406-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 48687-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45936.60298611111</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Backstarr
 Blåsippa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 48687-2025 artfynd.xlsx", "A 48687-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 48687-2025 karta.png", "A 48687-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 48687-2025 FSC-klagomål.docx", "A 48687-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 48687-2025 FSC-klagomål mail.docx", "A 48687-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 48687-2025 tillsynsbegäran.docx", "A 48687-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 48687-2025 tillsynsbegäran mail.docx", "A 48687-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 50437-2025</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>45944.71523148148</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C14" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>3.6</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 50437-2025 artfynd.xlsx", "A 50437-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 50437-2025 karta.png", "A 50437-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 50437-2025 FSC-klagomål.docx", "A 50437-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 50437-2025 FSC-klagomål mail.docx", "A 50437-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 50437-2025 tillsynsbegäran.docx", "A 50437-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 50437-2025 tillsynsbegäran mail.docx", "A 50437-2025")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 50437-2025 prioriterade fågelarter.docx", "A 50437-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 8291-2023</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44974</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>17.3</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 8291-2023 artfynd.xlsx", "A 8291-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 8291-2023 karta.png", "A 8291-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 8291-2023 FSC-klagomål.docx", "A 8291-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 8291-2023 FSC-klagomål mail.docx", "A 8291-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 8291-2023 tillsynsbegäran.docx", "A 8291-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 8291-2023 tillsynsbegäran mail.docx", "A 8291-2023")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 8291-2023 prioriterade fågelarter.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 4173-2022</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44588</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 4173-2022 artfynd.xlsx", "A 4173-2022")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 4173-2022 karta.png", "A 4173-2022")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 4173-2022 FSC-klagomål.docx", "A 4173-2022")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 4173-2022 FSC-klagomål mail.docx", "A 4173-2022")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 4173-2022 tillsynsbegäran.docx", "A 4173-2022")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 4173-2022 tillsynsbegäran mail.docx", "A 4173-2022")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 4173-2022 prioriterade fågelarter.docx", "A 4173-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 59406-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45638.38912037037</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Hasselsnok
-Sandödla</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 59406-2024 artfynd.xlsx", "A 59406-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 59406-2024 karta.png", "A 59406-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 59406-2024 FSC-klagomål.docx", "A 59406-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 59406-2024 FSC-klagomål mail.docx", "A 59406-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 59406-2024 tillsynsbegäran.docx", "A 59406-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 59406-2024 tillsynsbegäran mail.docx", "A 59406-2024")</f>
         <v/>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44571</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,14 +2025,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 9947-2021</t>
+          <t>A 7778-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44252</v>
+        <v>44242</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2045,19 +2045,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2069,59 +2069,55 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 7778-2021 artfynd.xlsx", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 7778-2021 karta.png", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 7778-2021 FSC-klagomål.docx", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 7778-2021 FSC-klagomål mail.docx", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 7778-2021 tillsynsbegäran.docx", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 7778-2021 tillsynsbegäran mail.docx", "A 7778-2021")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 9001-2025</t>
+          <t>A 9947-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45713</v>
+        <v>44252</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2134,7 +2130,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2172,45 +2168,45 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9001-2025 artfynd.xlsx", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9001-2025 karta.png", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9001-2025 karta knärot.png", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9001-2025 FSC-klagomål.docx", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9001-2025 FSC-klagomål mail.docx", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9001-2025 tillsynsbegäran.docx", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9001-2025 tillsynsbegäran mail.docx", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 7778-2021</t>
+          <t>A 9947-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44242</v>
+        <v>44252</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,20 +2219,20 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
@@ -2247,41 +2243,45 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 7778-2021 artfynd.xlsx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 7778-2021 karta.png", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="U20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 7778-2021 FSC-klagomål.docx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 7778-2021 FSC-klagomål mail.docx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 7778-2021 tillsynsbegäran.docx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 7778-2021 tillsynsbegäran mail.docx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
         <v/>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
         <v>45230</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>45974</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,14 +2466,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 9947-2021</t>
+          <t>A 9001-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44252</v>
+        <v>45713</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2524,31 +2524,31 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9001-2025 artfynd.xlsx", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9001-2025 karta.png", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9001-2025 karta knärot.png", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9001-2025 FSC-klagomål.docx", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9001-2025 FSC-klagomål mail.docx", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9001-2025 tillsynsbegäran.docx", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9001-2025 tillsynsbegäran mail.docx", "A 9001-2025")</f>
         <v/>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
         <v>44651</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44865.65704861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44242</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44533</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>44585</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44865.43612268518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44256</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>44511.56693287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44499</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44457</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44606</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44848.46362268519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44318</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3529,14 +3529,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 50020-2022</t>
+          <t>A 30731-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44865</v>
+        <v>44764.40619212963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3586,14 +3586,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30731-2022</t>
+          <t>A 50020-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44764.40619212963</v>
+        <v>44865</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>44279</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44510</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44526</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44851</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44722</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44384.73966435185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44343.32159722222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44298</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44256</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44533</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44494</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44343.83640046296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>44343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44588</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4555,14 +4555,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 53761-2024</t>
+          <t>A 31388-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45615.50958333333</v>
+        <v>44774.62195601852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 61626-2024</t>
+          <t>A 30701-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45646.66194444444</v>
+        <v>44763</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.3</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4669,14 +4669,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 52262-2023</t>
+          <t>A 15667-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45217</v>
+        <v>45404</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4726,14 +4726,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 3178-2024</t>
+          <t>A 57989-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45316</v>
+        <v>44892</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4745,13 +4745,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>8.6</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4788,14 +4783,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 12945-2024</t>
+          <t>A 55712-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45385.47545138889</v>
+        <v>44885</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4808,7 +4803,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6.1</v>
+        <v>2.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4845,14 +4840,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 16989-2023</t>
+          <t>A 10764-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45033</v>
+        <v>45369.56681712963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4864,13 +4859,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>2.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4907,14 +4897,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33772-2023</t>
+          <t>A 46371-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45133</v>
+        <v>44848</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4926,8 +4916,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4964,14 +4959,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 44883-2021</t>
+          <t>A 42239-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44438.61731481482</v>
+        <v>45562.56358796296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4984,7 +4979,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5021,14 +5016,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 55712-2022</t>
+          <t>A 54374-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44885</v>
+        <v>44879</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5041,7 +5036,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5078,14 +5073,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 10470-2024</t>
+          <t>A 24514-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45366.38853009259</v>
+        <v>45458</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5098,7 +5093,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5135,14 +5130,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 19492-2021</t>
+          <t>A 72625-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44312</v>
+        <v>44546.55005787037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5155,7 +5150,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5192,14 +5187,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11897-2025</t>
+          <t>A 44408-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45728.46913194445</v>
+        <v>44435</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5212,7 +5207,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5249,14 +5244,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 29329-2024</t>
+          <t>A 44523-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45483.44387731481</v>
+        <v>45189.4774537037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5269,7 +5264,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5306,14 +5301,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 61252-2024</t>
+          <t>A 29327-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45645.69790509259</v>
+        <v>45483.43834490741</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5326,7 +5321,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5363,14 +5358,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 39001-2024</t>
+          <t>A 41991-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45548.42012731481</v>
+        <v>44830.44231481481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5383,7 +5378,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5420,14 +5415,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 30701-2022</t>
+          <t>A 12238-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44763</v>
+        <v>45729.58333333334</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5440,7 +5435,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.8</v>
+        <v>10.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5477,14 +5472,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 49554-2024</t>
+          <t>A 28586-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45596.4672337963</v>
+        <v>45819.5812037037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5497,7 +5492,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>7.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5534,14 +5529,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 52950-2022</t>
+          <t>A 33118-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44875.65717592592</v>
+        <v>45126.59351851852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5549,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5591,14 +5586,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 40369-2024</t>
+          <t>A 33131-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45555.39053240741</v>
+        <v>45126</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5611,7 +5606,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>14.5</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5648,14 +5643,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 26233-2025</t>
+          <t>A 29300-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45805.5666087963</v>
+        <v>45824.45552083333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5667,13 +5662,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5710,14 +5700,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 26270-2025</t>
+          <t>A 29308-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45805.59357638889</v>
+        <v>45824.46103009259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5720,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5767,14 +5757,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 18043-2021</t>
+          <t>A 15695-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44301</v>
+        <v>45748.46914351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5787,7 +5777,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.1</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5824,14 +5814,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15552-2023</t>
+          <t>A 45578-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45018</v>
+        <v>45578</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5844,7 +5834,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5881,14 +5871,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 13890-2022</t>
+          <t>A 31917-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44649</v>
+        <v>45834</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5901,7 +5891,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5938,14 +5928,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 44529-2023</t>
+          <t>A 13325-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45189</v>
+        <v>44645.34487268519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5958,7 +5948,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5995,14 +5985,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 57989-2022</t>
+          <t>A 9590-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44892</v>
+        <v>44251</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6015,7 +6005,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6052,14 +6042,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 16216-2025</t>
+          <t>A 33559-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45750.63079861111</v>
+        <v>45841.57549768518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6072,7 +6062,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6109,14 +6099,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 55733-2023</t>
+          <t>A 33560-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45232</v>
+        <v>45841.57739583333</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6129,7 +6119,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6166,14 +6156,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 35113-2021</t>
+          <t>A 40430-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44384.37240740741</v>
+        <v>45895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6186,7 +6176,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6230,7 +6220,7 @@
         <v>45895</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6280,14 +6270,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 40430-2025</t>
+          <t>A 33555-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45895</v>
+        <v>45841.57423611111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6300,7 +6290,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6337,14 +6327,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42239-2024</t>
+          <t>A 33566-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45562.56358796296</v>
+        <v>45841.58208333333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6357,7 +6347,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6394,14 +6384,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9590-2021</t>
+          <t>A 33564-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44251</v>
+        <v>45841.57973379629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6414,7 +6404,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6451,14 +6441,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 37092-2024</t>
+          <t>A 33569-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45539.49989583333</v>
+        <v>45841.58334490741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6471,7 +6461,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6508,14 +6498,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 52852-2024</t>
+          <t>A 33586-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45610.60664351852</v>
+        <v>45841.59465277778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6528,7 +6518,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6565,14 +6555,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28586-2025</t>
+          <t>A 33580-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45819.5812037037</v>
+        <v>45841.59407407408</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6585,7 +6575,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>7.1</v>
+        <v>2.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6629,7 +6619,7 @@
         <v>45557</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6679,14 +6669,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25884-2023</t>
+          <t>A 26277-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45085</v>
+        <v>45805.60436342593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6689,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6736,14 +6726,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29308-2025</t>
+          <t>A 33536-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45824.46103009259</v>
+        <v>45841.55890046297</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6746,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>6.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6793,14 +6783,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42823-2025</t>
+          <t>A 37092-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45908.57429398148</v>
+        <v>45539.49989583333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6813,7 +6803,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6850,14 +6840,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 29300-2025</t>
+          <t>A 59383-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45824.45552083333</v>
+        <v>45638.35758101852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,8 +6859,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6907,14 +6902,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 50603-2024</t>
+          <t>A 52902-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45600</v>
+        <v>45610.68715277778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6927,7 +6922,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.4</v>
+        <v>6.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6964,14 +6959,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 42736-2025</t>
+          <t>A 10457-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45908</v>
+        <v>44987</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6984,7 +6979,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7021,14 +7016,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43550-2025</t>
+          <t>A 61247-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45911.61836805556</v>
+        <v>45645.69128472222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7041,7 +7036,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7078,14 +7073,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 44319-2025</t>
+          <t>A 42736-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45916</v>
+        <v>45908</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7098,7 +7093,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7135,14 +7130,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 20476-2023</t>
+          <t>A 42823-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45057.34075231481</v>
+        <v>45908.57429398148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7155,7 +7150,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7192,14 +7187,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 45540-2025</t>
+          <t>A 18043-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45922.61466435185</v>
+        <v>44301</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7212,7 +7207,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7249,14 +7244,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 15667-2024</t>
+          <t>A 53761-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45404</v>
+        <v>45615.50958333333</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7269,7 +7264,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7306,14 +7301,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 50401-2021</t>
+          <t>A 43550-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44459</v>
+        <v>45911.61836805556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7326,7 +7321,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7363,14 +7358,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 56024-2023</t>
+          <t>A 16223-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45240</v>
+        <v>45750.63945601852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7383,7 +7378,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7420,14 +7415,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 31917-2025</t>
+          <t>A 44319-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45834</v>
+        <v>45916</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7440,7 +7435,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7477,14 +7472,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 50601-2024</t>
+          <t>A 16989-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45600</v>
+        <v>45033</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7496,8 +7491,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7534,14 +7534,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46907-2025</t>
+          <t>A 37311-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45929.40480324074</v>
+        <v>45876.59644675926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7591,14 +7591,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 41991-2022</t>
+          <t>A 44529-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44830.44231481481</v>
+        <v>45189</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7648,14 +7648,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 64707-2023</t>
+          <t>A 45540-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45281</v>
+        <v>45922.61466435185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7667,13 +7667,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>11.9</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7706,38 +7701,18 @@
         <v>0</v>
       </c>
       <c r="R113" s="2" t="inlineStr"/>
-      <c r="U113">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 64707-2023 karta knärot.png", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="V113">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 64707-2023 FSC-klagomål.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="W113">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 64707-2023 FSC-klagomål mail.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="X113">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 64707-2023 tillsynsbegäran.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="Y113">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 64707-2023 tillsynsbegäran mail.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 3187-2024</t>
+          <t>A 33745-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45316.65596064815</v>
+        <v>45133.39075231482</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,13 +7724,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7792,14 +7762,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 47882-2025</t>
+          <t>A 18043-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45932.46203703704</v>
+        <v>44301</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7782,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7849,14 +7819,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 33559-2025</t>
+          <t>A 29329-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45841.57549768518</v>
+        <v>45483.44387731481</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7839,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7906,14 +7876,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 33566-2025</t>
+          <t>A 16216-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45841.58208333333</v>
+        <v>45750.63079861111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7896,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7963,14 +7933,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 33560-2025</t>
+          <t>A 46907-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45841.57739583333</v>
+        <v>45929.40480324074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7953,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8020,14 +7990,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 48688-2025</t>
+          <t>A 17525-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45936.60555555556</v>
+        <v>45757.5817824074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8040,7 +8010,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8077,14 +8047,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 33564-2025</t>
+          <t>A 2982-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45841.57973379629</v>
+        <v>45678.51011574074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8097,7 +8067,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8134,14 +8104,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 33569-2025</t>
+          <t>A 20476-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45841.58334490741</v>
+        <v>45057.34075231481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8191,14 +8161,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 33586-2025</t>
+          <t>A 19134-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45841.59465277778</v>
+        <v>45764</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8211,7 +8181,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8248,14 +8218,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 46371-2022</t>
+          <t>A 47882-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44848</v>
+        <v>45932.46203703704</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8267,13 +8237,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8310,14 +8275,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 59383-2024</t>
+          <t>A 50261-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45638.35758101852</v>
+        <v>45216.37878472222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8329,13 +8294,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8372,14 +8332,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 33745-2023</t>
+          <t>A 50401-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45133.39075231482</v>
+        <v>44459</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8392,7 +8352,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8429,14 +8389,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 33555-2025</t>
+          <t>A 48688-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45841.57423611111</v>
+        <v>45936.60555555556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8449,7 +8409,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8486,14 +8446,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 33536-2025</t>
+          <t>A 11897-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45841.55890046297</v>
+        <v>45728.46913194445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8506,7 +8466,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8543,14 +8503,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 28430-2024</t>
+          <t>A 22560-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45477</v>
+        <v>45071.44758101852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8563,7 +8523,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8600,14 +8560,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 33580-2025</t>
+          <t>A 50432-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45841.59407407408</v>
+        <v>45944.69248842593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8620,7 +8580,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8657,14 +8617,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 26277-2025</t>
+          <t>A 50057-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45805.60436342593</v>
+        <v>45942</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8637,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8714,14 +8674,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 5326-2024</t>
+          <t>A 50034-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45331.41356481481</v>
+        <v>44865.45782407407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8694,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8771,14 +8731,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 50057-2025</t>
+          <t>A 50626-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45942</v>
+        <v>45945.63623842593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8790,8 +8750,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1.9</v>
+        <v>14</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8828,14 +8793,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 50626-2025</t>
+          <t>A 50579-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45945.63623842593</v>
+        <v>45945.58449074074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8847,13 +8812,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>14</v>
+        <v>2.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8890,14 +8850,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 50432-2025</t>
+          <t>A 50589-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45944.69248842593</v>
+        <v>45945.600625</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8910,7 +8870,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8947,14 +8907,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 10764-2024</t>
+          <t>A 50606-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45369.56681712963</v>
+        <v>45945.6171412037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8967,7 +8927,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>8.300000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9004,14 +8964,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 50579-2025</t>
+          <t>A 50607-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45945.58449074074</v>
+        <v>45945.61997685185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9024,7 +8984,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.2</v>
+        <v>14.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9061,14 +9021,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 50589-2025</t>
+          <t>A 50578-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45945.600625</v>
+        <v>45945.58215277778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9081,7 +9041,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9118,14 +9078,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 50606-2025</t>
+          <t>A 50797-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45945.6171412037</v>
+        <v>45946.48350694445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9138,7 +9098,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.7</v>
+        <v>0.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9175,14 +9135,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 50607-2025</t>
+          <t>A 51427-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45945.61997685185</v>
+        <v>45949</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9195,7 +9155,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>14.5</v>
+        <v>1.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9232,14 +9192,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 50578-2025</t>
+          <t>A 51429-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45945.58215277778</v>
+        <v>45949</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9212,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9289,14 +9249,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 50797-2025</t>
+          <t>A 50234-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45946.48350694445</v>
+        <v>45600.55275462963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9309,7 +9269,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>7.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9346,14 +9306,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 51427-2025</t>
+          <t>A 51432-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
         <v>45949</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9366,7 +9326,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9403,14 +9363,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 51432-2025</t>
+          <t>A 12945-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45949</v>
+        <v>45385.47545138889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9423,7 +9383,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9460,14 +9420,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 51429-2025</t>
+          <t>A 994-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45949</v>
+        <v>45301.62427083333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9480,7 +9440,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9517,14 +9477,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 2982-2025</t>
+          <t>A 3187-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45678.51011574074</v>
+        <v>45316.65596064815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9536,8 +9496,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9574,14 +9539,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 60768-2022</t>
+          <t>A 52833-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44907</v>
+        <v>45957.47081018519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9594,7 +9559,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9631,14 +9596,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 52833-2025</t>
+          <t>A 39001-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45957.47081018519</v>
+        <v>45548.42012731481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9651,7 +9616,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9688,14 +9653,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 16223-2025</t>
+          <t>A 38983-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45750.63945601852</v>
+        <v>45548.39829861111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9708,7 +9673,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>7.2</v>
+        <v>1.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9745,14 +9710,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 20888-2022</t>
+          <t>A 54126-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44701</v>
+        <v>45964.45715277778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9765,7 +9730,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9802,14 +9767,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 18043-2021</t>
+          <t>A 13109-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44301</v>
+        <v>45002</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9822,7 +9787,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>6.1</v>
+        <v>2.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9859,14 +9824,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 37311-2025</t>
+          <t>A 56130-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45876.59644675926</v>
+        <v>44886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9879,7 +9844,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9916,14 +9881,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 45617-2024</t>
+          <t>A 33747-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45579.45523148148</v>
+        <v>45133.39594907407</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9936,7 +9901,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9973,14 +9938,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 54126-2025</t>
+          <t>A 21333-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45964.45715277778</v>
+        <v>45440</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9958,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10030,14 +9995,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 17525-2025</t>
+          <t>A 55830-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45757.5817824074</v>
+        <v>45972</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10015,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10087,14 +10052,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 9983-2022</t>
+          <t>A 56211-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44621.43550925926</v>
+        <v>45974.47729166667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10072,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10144,14 +10109,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 33131-2023</t>
+          <t>A 56208-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45126</v>
+        <v>45974.47333333334</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10129,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10201,14 +10166,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 55830-2025</t>
+          <t>A 29195-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45972</v>
+        <v>45482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10186,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10258,14 +10223,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 24514-2024</t>
+          <t>A 56196-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45458</v>
+        <v>45974.45112268518</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10243,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.8</v>
+        <v>6.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10315,14 +10280,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 31388-2022</t>
+          <t>A 56602-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44774.62195601852</v>
+        <v>45243.6625</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10300,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10372,14 +10337,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 56196-2025</t>
+          <t>A 7136-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45974.45112268518</v>
+        <v>44603</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10357,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10429,14 +10394,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 56211-2025</t>
+          <t>A 50601-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45974.47729166667</v>
+        <v>45600</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10414,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10486,14 +10451,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 56208-2025</t>
+          <t>A 67875-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45974.47333333334</v>
+        <v>44525</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10471,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.3</v>
+        <v>15.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10543,14 +10508,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 29195-2024</t>
+          <t>A 16363-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45482</v>
+        <v>45407.59325231481</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10528,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10600,14 +10565,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 994-2024</t>
+          <t>A 58226-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45301.62427083333</v>
+        <v>45985.37508101852</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10585,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10657,14 +10622,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 58226-2025</t>
+          <t>A 58251-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45985.37508101852</v>
+        <v>45985.39645833334</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10642,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10714,14 +10679,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 44408-2021</t>
+          <t>A 41072-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44435</v>
+        <v>45170</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10734,7 +10699,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.2</v>
+        <v>7.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10771,14 +10736,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 58251-2025</t>
+          <t>A 10470-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45985.39645833334</v>
+        <v>45366.38853009259</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10791,7 +10756,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10835,7 +10800,7 @@
         <v>46029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10885,14 +10850,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 10457-2023</t>
+          <t>A 40369-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44987</v>
+        <v>45555.39053240741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10905,7 +10870,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>6.6</v>
+        <v>14.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10942,14 +10907,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 50034-2022</t>
+          <t>A 48071-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44865.45782407407</v>
+        <v>45589</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10962,7 +10927,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10999,14 +10964,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 1945-2026</t>
+          <t>A 1608-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46035.59709490741</v>
+        <v>46034.46770833333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11019,7 +10984,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11056,14 +11021,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 57768-2022</t>
+          <t>A 2322-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44892</v>
+        <v>46036.60327546296</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11076,7 +11041,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11113,14 +11078,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 59902-2025</t>
+          <t>A 2324-2026</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45993.34480324074</v>
+        <v>46036.60572916667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11133,7 +11098,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11170,14 +11135,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 1608-2026</t>
+          <t>A 1945-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46034.46770833333</v>
+        <v>46035.59709490741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11190,7 +11155,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11227,14 +11192,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 2322-2026</t>
+          <t>A 59902-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46036.60327546296</v>
+        <v>45993.34480324074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11247,7 +11212,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11284,14 +11249,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 2324-2026</t>
+          <t>A 52262-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46036.60572916667</v>
+        <v>45217</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11304,7 +11269,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11341,14 +11306,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 2231-2023</t>
+          <t>A 38818-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44942</v>
+        <v>45547.55392361111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11361,7 +11326,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11398,14 +11363,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 16363-2024</t>
+          <t>A 8047-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45407.59325231481</v>
+        <v>45351.32293981482</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11418,7 +11383,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11455,14 +11420,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 15704-2025</t>
+          <t>A 33772-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45748.4815162037</v>
+        <v>45133</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11475,7 +11440,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11512,14 +11477,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 72625-2021</t>
+          <t>A 25884-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44546.55005787037</v>
+        <v>45085</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11532,7 +11497,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11569,14 +11534,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 19134-2025</t>
+          <t>A 54007-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45764</v>
+        <v>45615</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11589,7 +11554,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11626,14 +11591,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 61413-2025</t>
+          <t>A 57663-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46000</v>
+        <v>45981.42303240741</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11646,7 +11611,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11683,14 +11648,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 33118-2023</t>
+          <t>A 20888-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45126.59351851852</v>
+        <v>44701</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11703,7 +11668,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11740,14 +11705,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 57663-2025</t>
+          <t>A 61413-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45981.42303240741</v>
+        <v>46000</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11760,7 +11725,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11797,14 +11762,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 38988-2024</t>
+          <t>A 61898-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45548.40613425926</v>
+        <v>46003.46565972222</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11817,7 +11782,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11854,14 +11819,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 60220-2022</t>
+          <t>A 54792-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44903</v>
+        <v>45236</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11874,7 +11839,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>8.300000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11918,7 +11883,7 @@
         <v>45728.46309027778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11968,14 +11933,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 61898-2025</t>
+          <t>A 3391-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46003.46565972222</v>
+        <v>45318</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11987,8 +11952,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12025,14 +11995,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 48071-2024</t>
+          <t>A 21061-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45589</v>
+        <v>44704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12045,7 +12015,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12082,14 +12052,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 15559-2023</t>
+          <t>A 55733-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45019</v>
+        <v>45232</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12102,7 +12072,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12139,14 +12109,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 54007-2024</t>
+          <t>A 6128-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45615</v>
+        <v>46054.29585648148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12159,7 +12129,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12196,14 +12166,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 33747-2023</t>
+          <t>A 6379-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45133.39594907407</v>
+        <v>46055</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12216,7 +12186,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12253,14 +12223,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 6128-2026</t>
+          <t>A 28430-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46054.29585648148</v>
+        <v>45477</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12273,7 +12243,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12310,14 +12280,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 44523-2023</t>
+          <t>A 64707-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45189.4774537037</v>
+        <v>45281</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12329,8 +12299,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>3.6</v>
+        <v>11.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12363,18 +12338,38 @@
         <v>0</v>
       </c>
       <c r="R194" s="2" t="inlineStr"/>
+      <c r="U194">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 64707-2023 karta knärot.png", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="V194">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 64707-2023 FSC-klagomål.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="W194">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 64707-2023 FSC-klagomål mail.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="X194">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 64707-2023 tillsynsbegäran.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="Y194">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 64707-2023 tillsynsbegäran mail.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 6379-2026</t>
+          <t>A 989-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46055</v>
+        <v>45301</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12387,7 +12382,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12424,14 +12419,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 59396-2024</t>
+          <t>A 7545-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45638.37623842592</v>
+        <v>46059.65075231482</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12443,13 +12438,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12486,14 +12476,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 7448-2026</t>
+          <t>A 50259-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46059.46386574074</v>
+        <v>45216.3775</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12503,11 +12493,6 @@
       <c r="E197" t="inlineStr">
         <is>
           <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G197" t="n">
@@ -12555,7 +12540,7 @@
         <v>46059.48324074074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12610,14 +12595,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 7545-2026</t>
+          <t>A 7448-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46059.65075231482</v>
+        <v>46059.46386574074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12629,8 +12614,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12667,14 +12657,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 61247-2024</t>
+          <t>A 29192-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45645.69128472222</v>
+        <v>45482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12687,7 +12677,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12724,14 +12714,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 8047-2024</t>
+          <t>A 57768-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45351.32293981482</v>
+        <v>44892</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12744,7 +12734,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12781,14 +12771,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 13109-2023</t>
+          <t>A 19492-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45002</v>
+        <v>44312</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12801,7 +12791,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12838,14 +12828,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 21333-2024</t>
+          <t>A 2231-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45440</v>
+        <v>44942</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12858,7 +12848,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12895,14 +12885,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 29192-2024</t>
+          <t>A 15559-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45482</v>
+        <v>45019</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12915,7 +12905,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12952,14 +12942,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 67875-2021</t>
+          <t>A 9983-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44525</v>
+        <v>44621.43550925926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12972,7 +12962,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>15.5</v>
+        <v>0.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13009,14 +12999,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 50261-2023</t>
+          <t>A 20968-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45216.37878472222</v>
+        <v>45061</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13029,7 +13019,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13066,14 +13056,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 38983-2024</t>
+          <t>A 60220-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45548.39829861111</v>
+        <v>44903</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13086,7 +13076,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13123,14 +13113,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 29327-2024</t>
+          <t>A 45617-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45483.43834490741</v>
+        <v>45579.45523148148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13180,14 +13170,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 56602-2023</t>
+          <t>A 61252-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45243.6625</v>
+        <v>45645.69790509259</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13200,7 +13190,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13237,14 +13227,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 12238-2025</t>
+          <t>A 56024-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45729.58333333334</v>
+        <v>45240</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13257,7 +13247,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>10.6</v>
+        <v>3.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13294,14 +13284,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 41072-2023</t>
+          <t>A 5326-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45170</v>
+        <v>45331.41356481481</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13314,7 +13304,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>7.8</v>
+        <v>1.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13351,14 +13341,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 3391-2024</t>
+          <t>A 56677-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45318</v>
+        <v>45243.9177199074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13370,13 +13360,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13413,14 +13398,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 52902-2024</t>
+          <t>A 35113-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45610.68715277778</v>
+        <v>44384.37240740741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13433,7 +13418,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>6.8</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13470,14 +13455,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 20968-2023</t>
+          <t>A 44883-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45061</v>
+        <v>44438.61731481482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13490,7 +13475,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13527,14 +13512,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 22560-2023</t>
+          <t>A 60768-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45071.44758101852</v>
+        <v>44907</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13547,7 +13532,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13584,14 +13569,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 54792-2023</t>
+          <t>A 52950-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45236</v>
+        <v>44875.65717592592</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13604,7 +13589,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>5.9</v>
+        <v>1.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13641,14 +13626,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 45578-2024</t>
+          <t>A 52852-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45578</v>
+        <v>45610.60664351852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13661,7 +13646,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13698,14 +13683,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 61249-2024</t>
+          <t>A 15704-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45645.69321759259</v>
+        <v>45748.4815162037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13718,7 +13703,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13755,14 +13740,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 38818-2024</t>
+          <t>A 61626-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45547.55392361111</v>
+        <v>45646.66194444444</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13775,7 +13760,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.9</v>
+        <v>7.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13812,14 +13797,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 45632-2024</t>
+          <t>A 3178-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45579.47123842593</v>
+        <v>45316</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,11 +13818,11 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13874,14 +13859,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 7136-2022</t>
+          <t>A 61249-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44603</v>
+        <v>45645.69321759259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13894,7 +13879,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13931,14 +13916,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 24991-2023</t>
+          <t>A 38988-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45085</v>
+        <v>45548.40613425926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13951,7 +13936,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13988,14 +13973,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 989-2024</t>
+          <t>A 45632-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45301</v>
+        <v>45579.47123842593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14007,8 +13992,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14045,14 +14035,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 61250-2024</t>
+          <t>A 50603-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45645.69521990741</v>
+        <v>45600</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14065,7 +14055,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14102,14 +14092,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 13325-2022</t>
+          <t>A 61250-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44645.34487268519</v>
+        <v>45645.69521990741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14122,7 +14112,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14159,14 +14149,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 50234-2024</t>
+          <t>A 59396-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45600.55275462963</v>
+        <v>45638.37623842592</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14178,8 +14168,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14216,14 +14211,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 56677-2023</t>
+          <t>A 24991-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45243.9177199074</v>
+        <v>45085</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14231,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14273,14 +14268,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 56130-2022</t>
+          <t>A 46532-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44886</v>
+        <v>45582.63861111111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14288,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14330,14 +14325,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 21061-2022</t>
+          <t>A 49551-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44704</v>
+        <v>45596.4597337963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14350,7 +14345,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14387,14 +14382,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 54374-2022</t>
+          <t>A 23012-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44879</v>
+        <v>45790</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14407,7 +14402,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14444,14 +14439,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 50259-2023</t>
+          <t>A 9695-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45216.3775</v>
+        <v>45716.37232638889</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14464,7 +14459,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14501,14 +14496,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 15695-2025</t>
+          <t>A 14079-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45748.46914351852</v>
+        <v>45739</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14521,7 +14516,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14558,14 +14553,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 49551-2024</t>
+          <t>A 12779-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45596.4597337963</v>
+        <v>45733.59574074074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14578,7 +14573,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.6</v>
+        <v>10.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14615,14 +14610,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 46532-2024</t>
+          <t>A 9698-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45582.63861111111</v>
+        <v>45716.37402777778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14635,7 +14630,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14672,14 +14667,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 12779-2025</t>
+          <t>A 11931-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45733.59574074074</v>
+        <v>45728.5212962963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14692,7 +14687,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>10.1</v>
+        <v>1.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14729,14 +14724,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 11931-2025</t>
+          <t>A 14087-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45728.5212962963</v>
+        <v>45739</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14749,7 +14744,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14786,14 +14781,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 14087-2025</t>
+          <t>A 24348-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45739</v>
+        <v>45797</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14806,7 +14801,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14843,14 +14838,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 9698-2025</t>
+          <t>A 49554-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45716.37402777778</v>
+        <v>45596.4672337963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14863,7 +14858,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14900,14 +14895,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 9695-2025</t>
+          <t>A 26233-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45716.37232638889</v>
+        <v>45805.5666087963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14919,8 +14914,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14957,14 +14957,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 23012-2025</t>
+          <t>A 26270-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45790</v>
+        <v>45805.59357638889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>6.6</v>
+        <v>2.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15014,14 +15014,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 14079-2025</t>
+          <t>A 13890-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45739</v>
+        <v>44649</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15071,14 +15071,14 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 24348-2025</t>
+          <t>A 15552-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45797</v>
+        <v>45018</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45135</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44327</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45720.54828703704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44454</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,14 +1140,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 62152-2025</t>
+          <t>A 6043-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>46006.48502314815</v>
+        <v>45336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1187,135 +1187,135 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Grönpyrola
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 6043-2024 artfynd.xlsx", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 6043-2024 karta.png", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 6043-2024 karta knärot.png", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 6043-2024 FSC-klagomål.docx", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 6043-2024 FSC-klagomål mail.docx", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 6043-2024 tillsynsbegäran.docx", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 6043-2024 tillsynsbegäran mail.docx", "A 6043-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 62152-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>46006.48502314815</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa
 Revlummer</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 62152-2025 artfynd.xlsx", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 62152-2025 karta.png", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 62152-2025 FSC-klagomål.docx", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 62152-2025 FSC-klagomål mail.docx", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 62152-2025 tillsynsbegäran.docx", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 62152-2025 tillsynsbegäran mail.docx", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 62152-2025 prioriterade fågelarter.docx", "A 62152-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 6043-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45336</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Grönpyrola
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 6043-2024 artfynd.xlsx", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 6043-2024 karta.png", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 6043-2024 karta knärot.png", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 6043-2024 FSC-klagomål.docx", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 6043-2024 FSC-klagomål mail.docx", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 6043-2024 tillsynsbegäran.docx", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 6043-2024 tillsynsbegäran mail.docx", "A 6043-2024")</f>
         <v/>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,14 +1408,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 4173-2022</t>
+          <t>A 48687-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44588</v>
+        <v>45936.60298611111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1462,393 +1462,393 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Backstarr
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 48687-2025 artfynd.xlsx", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 48687-2025 karta.png", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 48687-2025 FSC-klagomål.docx", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 48687-2025 FSC-klagomål mail.docx", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 48687-2025 tillsynsbegäran.docx", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 48687-2025 tillsynsbegäran mail.docx", "A 48687-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 50437-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45944.71523148148</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 50437-2025 artfynd.xlsx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 50437-2025 karta.png", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 50437-2025 FSC-klagomål.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 50437-2025 FSC-klagomål mail.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 50437-2025 tillsynsbegäran.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 50437-2025 tillsynsbegäran mail.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 50437-2025 prioriterade fågelarter.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 8291-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 8291-2023 artfynd.xlsx", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 8291-2023 karta.png", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 8291-2023 FSC-klagomål.docx", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 8291-2023 FSC-klagomål mail.docx", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 8291-2023 tillsynsbegäran.docx", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 8291-2023 tillsynsbegäran mail.docx", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 8291-2023 prioriterade fågelarter.docx", "A 8291-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 4173-2022</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 4173-2022 artfynd.xlsx", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 4173-2022 karta.png", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 4173-2022 FSC-klagomål.docx", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 4173-2022 FSC-klagomål mail.docx", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 4173-2022 tillsynsbegäran.docx", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 4173-2022 tillsynsbegäran mail.docx", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 4173-2022 prioriterade fågelarter.docx", "A 4173-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 59406-2024</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45638.38912037037</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G15" t="n">
         <v>11.9</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>2</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>2</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P15" t="n">
         <v>2</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q15" t="n">
         <v>2</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Hasselsnok
 Sandödla</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 59406-2024 artfynd.xlsx", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 59406-2024 karta.png", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 59406-2024 FSC-klagomål.docx", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 59406-2024 FSC-klagomål mail.docx", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 59406-2024 tillsynsbegäran.docx", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 59406-2024 tillsynsbegäran mail.docx", "A 59406-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 48687-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45936.60298611111</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Backstarr
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 48687-2025 artfynd.xlsx", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 48687-2025 karta.png", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 48687-2025 FSC-klagomål.docx", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 48687-2025 FSC-klagomål mail.docx", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 48687-2025 tillsynsbegäran.docx", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 48687-2025 tillsynsbegäran mail.docx", "A 48687-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 50437-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45944.71523148148</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 50437-2025 artfynd.xlsx", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 50437-2025 karta.png", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 50437-2025 FSC-klagomål.docx", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 50437-2025 FSC-klagomål mail.docx", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 50437-2025 tillsynsbegäran.docx", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 50437-2025 tillsynsbegäran mail.docx", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 50437-2025 prioriterade fågelarter.docx", "A 50437-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 8291-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44974</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 8291-2023 artfynd.xlsx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 8291-2023 karta.png", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 8291-2023 FSC-klagomål.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 8291-2023 FSC-klagomål mail.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 8291-2023 tillsynsbegäran.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 8291-2023 tillsynsbegäran mail.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 8291-2023 prioriterade fågelarter.docx", "A 8291-2023")</f>
         <v/>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44571</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,14 +2025,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 7778-2021</t>
+          <t>A 9947-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44242</v>
+        <v>44252</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2045,20 +2045,20 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
@@ -2069,55 +2069,59 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 7778-2021 artfynd.xlsx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 7778-2021 karta.png", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="U18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 7778-2021 FSC-klagomål.docx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 7778-2021 FSC-klagomål mail.docx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 7778-2021 tillsynsbegäran.docx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 7778-2021 tillsynsbegäran mail.docx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 9947-2021</t>
+          <t>A 9001-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44252</v>
+        <v>45713</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2130,7 +2134,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2168,45 +2172,45 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9001-2025 artfynd.xlsx", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9001-2025 karta.png", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9001-2025 karta knärot.png", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9001-2025 FSC-klagomål.docx", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9001-2025 FSC-klagomål mail.docx", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9001-2025 tillsynsbegäran.docx", "A 9001-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9001-2025 tillsynsbegäran mail.docx", "A 9001-2025")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 9947-2021</t>
+          <t>A 7778-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44252</v>
+        <v>44242</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2219,19 +2223,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2243,45 +2247,41 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 7778-2021 artfynd.xlsx", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 7778-2021 karta.png", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 7778-2021 FSC-klagomål.docx", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 7778-2021 FSC-klagomål mail.docx", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 7778-2021 tillsynsbegäran.docx", "A 7778-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 7778-2021 tillsynsbegäran mail.docx", "A 7778-2021")</f>
         <v/>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
         <v>45230</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>45974</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,14 +2466,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 9001-2025</t>
+          <t>A 9947-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45713</v>
+        <v>44252</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2524,31 +2524,31 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9001-2025 artfynd.xlsx", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9001-2025 karta.png", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9001-2025 karta knärot.png", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9001-2025 FSC-klagomål.docx", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9001-2025 FSC-klagomål mail.docx", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9001-2025 tillsynsbegäran.docx", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9001-2025 tillsynsbegäran mail.docx", "A 9001-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
         <v/>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
         <v>44651</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44865.65704861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44242</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44533</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>44585</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44865.43612268518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44256</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>44511.56693287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44499</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44457</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>44606</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44848.46362268519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44318</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3529,14 +3529,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 30731-2022</t>
+          <t>A 14549-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44764.40619212963</v>
+        <v>44279</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3586,14 +3586,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 50020-2022</t>
+          <t>A 30731-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44865</v>
+        <v>44764.40619212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3643,14 +3643,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 14549-2021</t>
+          <t>A 50020-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44279</v>
+        <v>44865</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3707,7 +3707,7 @@
         <v>44510</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44526</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44851</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44722</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44384.73966435185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44343.32159722222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44298</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44256</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44533</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4327,14 +4327,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59917-2021</t>
+          <t>A 25790-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44494</v>
+        <v>44343.83640046296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4384,14 +4384,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 25790-2021</t>
+          <t>A 25795-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44343.83640046296</v>
+        <v>44343</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4441,14 +4441,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 25795-2021</t>
+          <t>A 59917-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44343</v>
+        <v>44494</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>44588</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4555,14 +4555,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 31388-2022</t>
+          <t>A 40383-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44774.62195601852</v>
+        <v>45895</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30701-2022</t>
+          <t>A 40430-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44763</v>
+        <v>45895</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4669,14 +4669,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 15667-2024</t>
+          <t>A 7136-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45404</v>
+        <v>44603</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4726,14 +4726,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 57989-2022</t>
+          <t>A 53761-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44892</v>
+        <v>45615.50958333333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4783,14 +4783,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 55712-2022</t>
+          <t>A 24991-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44885</v>
+        <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4840,14 +4840,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 10764-2024</t>
+          <t>A 61626-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45369.56681712963</v>
+        <v>45646.66194444444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4897,14 +4897,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 46371-2022</t>
+          <t>A 52262-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44848</v>
+        <v>45217</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4916,13 +4916,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4959,14 +4954,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 42239-2024</t>
+          <t>A 989-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45562.56358796296</v>
+        <v>45301</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4979,7 +4974,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5016,14 +5011,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 54374-2022</t>
+          <t>A 61250-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44879</v>
+        <v>45645.69521990741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5036,7 +5031,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5073,14 +5068,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 24514-2024</t>
+          <t>A 3178-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45458</v>
+        <v>45316</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5092,8 +5087,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>8.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5130,14 +5130,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 72625-2021</t>
+          <t>A 12945-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44546.55005787037</v>
+        <v>45385.47545138889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>6.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5187,14 +5187,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 44408-2021</t>
+          <t>A 13325-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44435</v>
+        <v>44645.34487268519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5244,14 +5244,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 44523-2023</t>
+          <t>A 37092-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45189.4774537037</v>
+        <v>45539.49989583333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5301,14 +5301,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 29327-2024</t>
+          <t>A 18043-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45483.43834490741</v>
+        <v>44301</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5358,14 +5358,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 41991-2022</t>
+          <t>A 33772-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44830.44231481481</v>
+        <v>45133</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5415,14 +5415,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 12238-2025</t>
+          <t>A 16989-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45729.58333333334</v>
+        <v>45033</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5434,8 +5434,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>10.6</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5472,14 +5477,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28586-2025</t>
+          <t>A 10470-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45819.5812037037</v>
+        <v>45366.38853009259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5497,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>7.1</v>
+        <v>4.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5529,14 +5534,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 33118-2023</t>
+          <t>A 44883-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45126.59351851852</v>
+        <v>44438.61731481482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5549,7 +5554,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5586,14 +5591,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 33131-2023</t>
+          <t>A 50234-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45126</v>
+        <v>45600.55275462963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5606,7 +5611,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5643,14 +5648,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29300-2025</t>
+          <t>A 55712-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45824.45552083333</v>
+        <v>44885</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5663,7 +5668,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5700,14 +5705,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29308-2025</t>
+          <t>A 40652-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45824.46103009259</v>
+        <v>45557</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5720,7 +5725,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5757,14 +5762,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 15695-2025</t>
+          <t>A 56677-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45748.46914351852</v>
+        <v>45243.9177199074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5777,7 +5782,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5814,14 +5819,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 45578-2024</t>
+          <t>A 56130-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45578</v>
+        <v>44886</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5834,7 +5839,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5871,14 +5876,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 31917-2025</t>
+          <t>A 21061-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45834</v>
+        <v>44704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5891,7 +5896,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5928,14 +5933,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 13325-2022</t>
+          <t>A 54374-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44645.34487268519</v>
+        <v>44879</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5948,7 +5953,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5985,14 +5990,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 9590-2021</t>
+          <t>A 50259-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44251</v>
+        <v>45216.3775</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6005,7 +6010,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6042,14 +6047,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 33559-2025</t>
+          <t>A 15695-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45841.57549768518</v>
+        <v>45748.46914351852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6062,7 +6067,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6099,14 +6104,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 33560-2025</t>
+          <t>A 19492-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45841.57739583333</v>
+        <v>44312</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6119,7 +6124,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6156,14 +6161,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 40430-2025</t>
+          <t>A 42823-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45895</v>
+        <v>45908.57429398148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6213,14 +6218,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 40383-2025</t>
+          <t>A 49551-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45895</v>
+        <v>45596.4597337963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6233,7 +6238,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6270,14 +6275,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 33555-2025</t>
+          <t>A 46532-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45841.57423611111</v>
+        <v>45582.63861111111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6290,7 +6295,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6327,14 +6332,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 33566-2025</t>
+          <t>A 42736-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45841.58208333333</v>
+        <v>45908</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6347,7 +6352,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6384,14 +6389,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 33564-2025</t>
+          <t>A 11897-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45841.57973379629</v>
+        <v>45728.46913194445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6404,7 +6409,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6441,14 +6446,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 33569-2025</t>
+          <t>A 29329-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45841.58334490741</v>
+        <v>45483.44387731481</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6461,7 +6466,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6498,14 +6503,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 33586-2025</t>
+          <t>A 61252-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45841.59465277778</v>
+        <v>45645.69790509259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6518,7 +6523,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6555,14 +6560,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 33580-2025</t>
+          <t>A 39001-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45841.59407407408</v>
+        <v>45548.42012731481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6580,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6612,14 +6617,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 40652-2024</t>
+          <t>A 30701-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45557</v>
+        <v>44763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6632,7 +6637,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6669,14 +6674,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 26277-2025</t>
+          <t>A 43550-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45805.60436342593</v>
+        <v>45911.61836805556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6689,7 +6694,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6726,14 +6731,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 33536-2025</t>
+          <t>A 12779-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45841.55890046297</v>
+        <v>45733.59574074074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6746,7 +6751,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.3</v>
+        <v>10.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6783,14 +6788,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 37092-2024</t>
+          <t>A 11931-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45539.49989583333</v>
+        <v>45728.5212962963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6803,7 +6808,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6840,14 +6845,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 59383-2024</t>
+          <t>A 14087-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45638.35758101852</v>
+        <v>45739</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6859,13 +6864,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6902,14 +6902,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 52902-2024</t>
+          <t>A 9698-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45610.68715277778</v>
+        <v>45716.37402777778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6.8</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6959,14 +6959,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 10457-2023</t>
+          <t>A 9695-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44987</v>
+        <v>45716.37232638889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7016,14 +7016,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 61247-2024</t>
+          <t>A 23012-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45645.69128472222</v>
+        <v>45790</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7073,14 +7073,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 42736-2025</t>
+          <t>A 14079-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45908</v>
+        <v>45739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7130,14 +7130,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42823-2025</t>
+          <t>A 52950-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45908.57429398148</v>
+        <v>44875.65717592592</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7187,14 +7187,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 18043-2021</t>
+          <t>A 40369-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44301</v>
+        <v>45555.39053240741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>6.1</v>
+        <v>14.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7244,14 +7244,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 53761-2024</t>
+          <t>A 44319-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45615.50958333333</v>
+        <v>45916</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7301,14 +7301,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43550-2025</t>
+          <t>A 24348-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45911.61836805556</v>
+        <v>45797</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7358,14 +7358,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 16223-2025</t>
+          <t>A 49554-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45750.63945601852</v>
+        <v>45596.4672337963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>7.2</v>
+        <v>2.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7415,14 +7415,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 44319-2025</t>
+          <t>A 44529-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45916</v>
+        <v>45189</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7472,14 +7472,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 16989-2023</t>
+          <t>A 57989-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45033</v>
+        <v>44892</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7491,13 +7491,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7534,14 +7529,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 37311-2025</t>
+          <t>A 16216-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45876.59644675926</v>
+        <v>45750.63079861111</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7554,7 +7549,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7591,14 +7586,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 44529-2023</t>
+          <t>A 55733-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45189</v>
+        <v>45232</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7611,7 +7606,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7648,14 +7643,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 45540-2025</t>
+          <t>A 35113-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45922.61466435185</v>
+        <v>44384.37240740741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7668,7 +7663,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7705,14 +7700,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 33745-2023</t>
+          <t>A 26233-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45133.39075231482</v>
+        <v>45805.5666087963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7724,8 +7719,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7762,14 +7762,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 18043-2021</t>
+          <t>A 26270-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44301</v>
+        <v>45805.59357638889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>6.1</v>
+        <v>2.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7819,14 +7819,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 29329-2024</t>
+          <t>A 45540-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45483.44387731481</v>
+        <v>45922.61466435185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7876,14 +7876,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 16216-2025</t>
+          <t>A 42239-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45750.63079861111</v>
+        <v>45562.56358796296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7933,14 +7933,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 46907-2025</t>
+          <t>A 9590-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45929.40480324074</v>
+        <v>44251</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7990,14 +7990,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 17525-2025</t>
+          <t>A 15552-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45757.5817824074</v>
+        <v>45018</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8047,14 +8047,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 2982-2025</t>
+          <t>A 13890-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45678.51011574074</v>
+        <v>44649</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8104,14 +8104,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 20476-2023</t>
+          <t>A 52852-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45057.34075231481</v>
+        <v>45610.60664351852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8161,14 +8161,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 19134-2025</t>
+          <t>A 25884-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45764</v>
+        <v>45085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8218,14 +8218,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 47882-2025</t>
+          <t>A 50603-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45932.46203703704</v>
+        <v>45600</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8275,14 +8275,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 50261-2023</t>
+          <t>A 46907-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45216.37878472222</v>
+        <v>45929.40480324074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8332,14 +8332,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 50401-2021</t>
+          <t>A 28586-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44459</v>
+        <v>45819.5812037037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8389,14 +8389,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 48688-2025</t>
+          <t>A 29308-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45936.60555555556</v>
+        <v>45824.46103009259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8446,14 +8446,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 11897-2025</t>
+          <t>A 29300-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45728.46913194445</v>
+        <v>45824.45552083333</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8503,14 +8503,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 22560-2023</t>
+          <t>A 20476-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45071.44758101852</v>
+        <v>45057.34075231481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8560,14 +8560,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 50432-2025</t>
+          <t>A 15667-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45944.69248842593</v>
+        <v>45404</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8617,14 +8617,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 50057-2025</t>
+          <t>A 50401-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45942</v>
+        <v>44459</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8674,14 +8674,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 50034-2022</t>
+          <t>A 56024-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44865.45782407407</v>
+        <v>45240</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8731,14 +8731,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 50626-2025</t>
+          <t>A 31917-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45945.63623842593</v>
+        <v>45834</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8750,13 +8750,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>14</v>
+        <v>1.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8793,14 +8788,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 50579-2025</t>
+          <t>A 50601-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45945.58449074074</v>
+        <v>45600</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8813,7 +8808,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8850,14 +8845,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 50589-2025</t>
+          <t>A 47882-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45945.600625</v>
+        <v>45932.46203703704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8870,7 +8865,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8907,14 +8902,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 50606-2025</t>
+          <t>A 33559-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45945.6171412037</v>
+        <v>45841.57549768518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8927,7 +8922,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.7</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8964,14 +8959,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 50607-2025</t>
+          <t>A 33566-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45945.61997685185</v>
+        <v>45841.58208333333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8984,7 +8979,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>14.5</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9021,14 +9016,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 50578-2025</t>
+          <t>A 33560-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45945.58215277778</v>
+        <v>45841.57739583333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9041,7 +9036,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9078,14 +9073,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 50797-2025</t>
+          <t>A 41991-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45946.48350694445</v>
+        <v>44830.44231481481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9098,7 +9093,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9135,14 +9130,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 51427-2025</t>
+          <t>A 33564-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45949</v>
+        <v>45841.57973379629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9155,7 +9150,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9192,14 +9187,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 51429-2025</t>
+          <t>A 33569-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45949</v>
+        <v>45841.58334490741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9212,7 +9207,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9249,14 +9244,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 50234-2024</t>
+          <t>A 33586-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45600.55275462963</v>
+        <v>45841.59465277778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9269,7 +9264,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>7.6</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9306,14 +9301,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 51432-2025</t>
+          <t>A 48688-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45949</v>
+        <v>45936.60555555556</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9326,7 +9321,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9363,14 +9358,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 12945-2024</t>
+          <t>A 64707-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45385.47545138889</v>
+        <v>45281</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9382,8 +9377,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>6.1</v>
+        <v>11.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9416,18 +9416,38 @@
         <v>0</v>
       </c>
       <c r="R143" s="2" t="inlineStr"/>
+      <c r="U143">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 64707-2023 karta knärot.png", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="V143">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 64707-2023 FSC-klagomål.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="W143">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 64707-2023 FSC-klagomål mail.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="X143">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 64707-2023 tillsynsbegäran.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="Y143">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 64707-2023 tillsynsbegäran mail.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 994-2024</t>
+          <t>A 3187-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45301.62427083333</v>
+        <v>45316.65596064815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9439,8 +9459,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9477,14 +9502,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 3187-2024</t>
+          <t>A 33555-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45316.65596064815</v>
+        <v>45841.57423611111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9496,13 +9521,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9539,14 +9559,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 52833-2025</t>
+          <t>A 33536-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45957.47081018519</v>
+        <v>45841.55890046297</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9559,7 +9579,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>6.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9596,14 +9616,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 39001-2024</t>
+          <t>A 33580-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45548.42012731481</v>
+        <v>45841.59407407408</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9616,7 +9636,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9653,14 +9673,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 38983-2024</t>
+          <t>A 26277-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45548.39829861111</v>
+        <v>45805.60436342593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9673,7 +9693,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9710,14 +9730,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 54126-2025</t>
+          <t>A 46371-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45964.45715277778</v>
+        <v>44848</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9729,8 +9749,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9767,14 +9792,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 13109-2023</t>
+          <t>A 59383-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45002</v>
+        <v>45638.35758101852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9784,6 +9809,11 @@
       <c r="E150" t="inlineStr">
         <is>
           <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -9824,14 +9854,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 56130-2022</t>
+          <t>A 33745-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44886</v>
+        <v>45133.39075231482</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9844,7 +9874,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9881,14 +9911,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 33747-2023</t>
+          <t>A 28430-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45133.39594907407</v>
+        <v>45477</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9938,14 +9968,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 21333-2024</t>
+          <t>A 5326-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45440</v>
+        <v>45331.41356481481</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9958,7 +9988,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9995,14 +10025,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 55830-2025</t>
+          <t>A 10764-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45972</v>
+        <v>45369.56681712963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10015,7 +10045,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>5.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10052,14 +10082,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 56211-2025</t>
+          <t>A 50057-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45974.47729166667</v>
+        <v>45942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10072,7 +10102,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10109,14 +10139,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 56208-2025</t>
+          <t>A 50626-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45974.47333333334</v>
+        <v>45945.63623842593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10128,8 +10158,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.3</v>
+        <v>14</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10166,14 +10201,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 29195-2024</t>
+          <t>A 50432-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45482</v>
+        <v>45944.69248842593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10186,7 +10221,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10223,14 +10258,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 56196-2025</t>
+          <t>A 50579-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45974.45112268518</v>
+        <v>45945.58449074074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10243,7 +10278,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>6.3</v>
+        <v>2.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10280,14 +10315,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 56602-2023</t>
+          <t>A 50589-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45243.6625</v>
+        <v>45945.600625</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10300,7 +10335,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10337,14 +10372,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 7136-2022</t>
+          <t>A 50606-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44603</v>
+        <v>45945.6171412037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10357,7 +10392,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.9</v>
+        <v>6.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10394,14 +10429,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 50601-2024</t>
+          <t>A 50607-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45600</v>
+        <v>45945.61997685185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10414,7 +10449,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.5</v>
+        <v>14.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10451,14 +10486,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 67875-2021</t>
+          <t>A 50578-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44525</v>
+        <v>45945.58215277778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10471,7 +10506,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>15.5</v>
+        <v>2.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10508,14 +10543,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 16363-2024</t>
+          <t>A 16223-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45407.59325231481</v>
+        <v>45750.63945601852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10528,7 +10563,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.9</v>
+        <v>7.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10565,14 +10600,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 58226-2025</t>
+          <t>A 2982-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45985.37508101852</v>
+        <v>45678.51011574074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10585,7 +10620,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10622,14 +10657,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 58251-2025</t>
+          <t>A 50797-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45985.39645833334</v>
+        <v>45946.48350694445</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10642,7 +10677,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10679,14 +10714,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 41072-2023</t>
+          <t>A 60768-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45170</v>
+        <v>44907</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10699,7 +10734,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10736,14 +10771,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 10470-2024</t>
+          <t>A 37311-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45366.38853009259</v>
+        <v>45876.59644675926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10756,7 +10791,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10793,14 +10828,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 880-2026</t>
+          <t>A 20888-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46029</v>
+        <v>44701</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10813,7 +10848,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10850,14 +10885,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 40369-2024</t>
+          <t>A 18043-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45555.39053240741</v>
+        <v>44301</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10870,7 +10905,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>14.5</v>
+        <v>6.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10907,14 +10942,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 48071-2024</t>
+          <t>A 51427-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45589</v>
+        <v>45949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10927,7 +10962,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10964,14 +10999,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 1608-2026</t>
+          <t>A 17525-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46034.46770833333</v>
+        <v>45757.5817824074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10984,7 +11019,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11021,14 +11056,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 2322-2026</t>
+          <t>A 51432-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46036.60327546296</v>
+        <v>45949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11041,7 +11076,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11078,14 +11113,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 2324-2026</t>
+          <t>A 51429-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46036.60572916667</v>
+        <v>45949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11098,7 +11133,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11135,14 +11170,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 1945-2026</t>
+          <t>A 45617-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46035.59709490741</v>
+        <v>45579.45523148148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11155,7 +11190,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11192,14 +11227,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 59902-2025</t>
+          <t>A 52833-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45993.34480324074</v>
+        <v>45957.47081018519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11249,14 +11284,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 52262-2023</t>
+          <t>A 9983-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45217</v>
+        <v>44621.43550925926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11269,7 +11304,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11306,14 +11341,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 38818-2024</t>
+          <t>A 33131-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45547.55392361111</v>
+        <v>45126</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11326,7 +11361,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11363,14 +11398,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 8047-2024</t>
+          <t>A 24514-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45351.32293981482</v>
+        <v>45458</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11383,7 +11418,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11420,14 +11455,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 33772-2023</t>
+          <t>A 31388-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45133</v>
+        <v>44774.62195601852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11440,7 +11475,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11477,14 +11512,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 25884-2023</t>
+          <t>A 29195-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45085</v>
+        <v>45482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11497,7 +11532,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11534,14 +11569,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 54007-2024</t>
+          <t>A 994-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45615</v>
+        <v>45301.62427083333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11554,7 +11589,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11591,14 +11626,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 57663-2025</t>
+          <t>A 54126-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45981.42303240741</v>
+        <v>45964.45715277778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11611,7 +11646,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11648,14 +11683,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 20888-2022</t>
+          <t>A 55830-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44701</v>
+        <v>45972</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11668,7 +11703,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11705,14 +11740,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 61413-2025</t>
+          <t>A 56196-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46000</v>
+        <v>45974.45112268518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11725,7 +11760,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11762,14 +11797,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 61898-2025</t>
+          <t>A 56211-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46003.46565972222</v>
+        <v>45974.47729166667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11782,7 +11817,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11819,14 +11854,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 54792-2023</t>
+          <t>A 56208-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45236</v>
+        <v>45974.47333333334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11839,7 +11874,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11876,14 +11911,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 11891-2025</t>
+          <t>A 44408-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45728.46309027778</v>
+        <v>44435</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11896,7 +11931,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11933,14 +11968,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 3391-2024</t>
+          <t>A 58226-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45318</v>
+        <v>45985.37508101852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11952,13 +11987,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11995,14 +12025,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 21061-2022</t>
+          <t>A 10457-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44704</v>
+        <v>44987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12015,7 +12045,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>6.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12052,14 +12082,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 55733-2023</t>
+          <t>A 58251-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45232</v>
+        <v>45985.39645833334</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12072,7 +12102,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12109,14 +12139,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 6128-2026</t>
+          <t>A 50034-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46054.29585648148</v>
+        <v>44865.45782407407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12129,7 +12159,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12166,14 +12196,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 6379-2026</t>
+          <t>A 880-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46055</v>
+        <v>46029</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12186,7 +12216,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12223,14 +12253,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 28430-2024</t>
+          <t>A 57768-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45477</v>
+        <v>44892</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12243,7 +12273,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12280,14 +12310,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 64707-2023</t>
+          <t>A 1945-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45281</v>
+        <v>46035.59709490741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12299,13 +12329,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>11.9</v>
+        <v>0.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12338,38 +12363,18 @@
         <v>0</v>
       </c>
       <c r="R194" s="2" t="inlineStr"/>
-      <c r="U194">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 64707-2023 karta knärot.png", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="V194">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 64707-2023 FSC-klagomål.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="W194">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 64707-2023 FSC-klagomål mail.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="X194">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 64707-2023 tillsynsbegäran.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="Y194">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 64707-2023 tillsynsbegäran mail.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 989-2024</t>
+          <t>A 59902-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45301</v>
+        <v>45993.34480324074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12382,7 +12387,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12419,14 +12424,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 7545-2026</t>
+          <t>A 1608-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46059.65075231482</v>
+        <v>46034.46770833333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12439,7 +12444,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12476,14 +12481,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 50259-2023</t>
+          <t>A 2322-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45216.3775</v>
+        <v>46036.60327546296</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12496,7 +12501,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12533,14 +12538,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 7466-2026</t>
+          <t>A 2324-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46059.48324074074</v>
+        <v>46036.60572916667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12552,13 +12557,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>6.4</v>
+        <v>2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12595,14 +12595,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 7448-2026</t>
+          <t>A 2231-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46059.46386574074</v>
+        <v>44942</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12614,13 +12614,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12657,14 +12652,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 29192-2024</t>
+          <t>A 16363-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45482</v>
+        <v>45407.59325231481</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12677,7 +12672,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12714,14 +12709,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 57768-2022</t>
+          <t>A 15704-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44892</v>
+        <v>45748.4815162037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12734,7 +12729,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12771,14 +12766,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 19492-2021</t>
+          <t>A 72625-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44312</v>
+        <v>44546.55005787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12791,7 +12786,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12828,14 +12823,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 2231-2023</t>
+          <t>A 19134-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44942</v>
+        <v>45764</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12848,7 +12843,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12885,14 +12880,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 15559-2023</t>
+          <t>A 33118-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45019</v>
+        <v>45126.59351851852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12905,7 +12900,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12942,14 +12937,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 9983-2022</t>
+          <t>A 38988-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44621.43550925926</v>
+        <v>45548.40613425926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12962,7 +12957,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12999,14 +12994,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 20968-2023</t>
+          <t>A 61413-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45061</v>
+        <v>46000</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13019,7 +13014,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13063,7 +13058,7 @@
         <v>44903</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13113,14 +13108,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 45617-2024</t>
+          <t>A 11891-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45579.45523148148</v>
+        <v>45728.46309027778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13133,7 +13128,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13170,14 +13165,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 61252-2024</t>
+          <t>A 57663-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45645.69790509259</v>
+        <v>45981.42303240741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13190,7 +13185,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13227,14 +13222,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 56024-2023</t>
+          <t>A 48071-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45240</v>
+        <v>45589</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13247,7 +13242,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13284,14 +13279,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 5326-2024</t>
+          <t>A 15559-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45331.41356481481</v>
+        <v>45019</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13304,7 +13299,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13341,14 +13336,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 56677-2023</t>
+          <t>A 54007-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45243.9177199074</v>
+        <v>45615</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13398,14 +13393,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 35113-2021</t>
+          <t>A 61898-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44384.37240740741</v>
+        <v>46003.46565972222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13418,7 +13413,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13455,14 +13450,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 44883-2021</t>
+          <t>A 33747-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44438.61731481482</v>
+        <v>45133.39594907407</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13475,7 +13470,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13512,14 +13507,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 60768-2022</t>
+          <t>A 44523-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44907</v>
+        <v>45189.4774537037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13532,7 +13527,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13569,14 +13564,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 52950-2022</t>
+          <t>A 6128-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44875.65717592592</v>
+        <v>46054.29585648148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13589,7 +13584,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13626,14 +13621,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 52852-2024</t>
+          <t>A 59396-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45610.60664351852</v>
+        <v>45638.37623842592</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13645,8 +13640,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13683,14 +13683,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 15704-2025</t>
+          <t>A 61247-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45748.4815162037</v>
+        <v>45645.69128472222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13740,14 +13740,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 61626-2024</t>
+          <t>A 8047-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45646.66194444444</v>
+        <v>45351.32293981482</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>7.3</v>
+        <v>0.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13797,14 +13797,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 3178-2024</t>
+          <t>A 13109-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45316</v>
+        <v>45002</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13816,13 +13816,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>8.6</v>
+        <v>2.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13859,14 +13854,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 61249-2024</t>
+          <t>A 21333-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45645.69321759259</v>
+        <v>45440</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13879,7 +13874,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13916,14 +13911,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 38988-2024</t>
+          <t>A 6379-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45548.40613425926</v>
+        <v>46055</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13936,7 +13931,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13973,14 +13968,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 45632-2024</t>
+          <t>A 7448-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45579.47123842593</v>
+        <v>46059.46386574074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13994,11 +13989,11 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14035,14 +14030,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 50603-2024</t>
+          <t>A 7466-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45600</v>
+        <v>46059.48324074074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14054,8 +14049,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>0.4</v>
+        <v>6.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14092,14 +14092,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 61250-2024</t>
+          <t>A 7545-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45645.69521990741</v>
+        <v>46059.65075231482</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14149,14 +14149,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 59396-2024</t>
+          <t>A 29192-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45638.37623842592</v>
+        <v>45482</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14168,13 +14168,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14211,14 +14206,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 24991-2023</t>
+          <t>A 67875-2021</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45085</v>
+        <v>44525</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14231,7 +14226,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>15.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14268,14 +14263,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 46532-2024</t>
+          <t>A 50261-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45582.63861111111</v>
+        <v>45216.37878472222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14288,7 +14283,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14325,14 +14320,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 49551-2024</t>
+          <t>A 38983-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45596.4597337963</v>
+        <v>45548.39829861111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14345,7 +14340,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14382,14 +14377,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 23012-2025</t>
+          <t>A 29327-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45790</v>
+        <v>45483.43834490741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14402,7 +14397,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14439,14 +14434,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 9695-2025</t>
+          <t>A 56602-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45716.37232638889</v>
+        <v>45243.6625</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14459,7 +14454,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14496,14 +14491,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 14079-2025</t>
+          <t>A 12238-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45739</v>
+        <v>45729.58333333334</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14516,7 +14511,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.5</v>
+        <v>10.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14553,14 +14548,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 12779-2025</t>
+          <t>A 41072-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45733.59574074074</v>
+        <v>45170</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14573,7 +14568,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>10.1</v>
+        <v>7.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14610,14 +14605,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 9698-2025</t>
+          <t>A 3391-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45716.37402777778</v>
+        <v>45318</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14629,8 +14624,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14667,14 +14667,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 11931-2025</t>
+          <t>A 52902-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45728.5212962963</v>
+        <v>45610.68715277778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.9</v>
+        <v>6.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14724,14 +14724,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 14087-2025</t>
+          <t>A 20968-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45739</v>
+        <v>45061</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14781,14 +14781,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 24348-2025</t>
+          <t>A 22560-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45797</v>
+        <v>45071.44758101852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14838,14 +14838,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 49554-2024</t>
+          <t>A 54792-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45596.4672337963</v>
+        <v>45236</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.3</v>
+        <v>5.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14895,14 +14895,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 26233-2025</t>
+          <t>A 45578-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45805.5666087963</v>
+        <v>45578</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14914,13 +14914,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14957,14 +14952,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 26270-2025</t>
+          <t>A 61249-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45805.59357638889</v>
+        <v>45645.69321759259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14977,7 +14972,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15014,14 +15009,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 13890-2022</t>
+          <t>A 38818-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44649</v>
+        <v>45547.55392361111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15034,7 +15029,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15071,14 +15066,14 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 15552-2023</t>
+          <t>A 45632-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45018</v>
+        <v>45579.47123842593</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15090,8 +15085,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z242"/>
+  <dimension ref="A1:Z245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45135</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44327</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45720.54828703704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44454</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>46006.48502314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,14 +1408,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 48687-2025</t>
+          <t>A 4173-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45936.60298611111</v>
+        <v>44588</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1462,46 +1462,50 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Backstarr
-Blåsippa</t>
+          <t>Spillkråka
+Revlummer</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 48687-2025 artfynd.xlsx", "A 48687-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 4173-2022 artfynd.xlsx", "A 4173-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 48687-2025 karta.png", "A 48687-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 4173-2022 karta.png", "A 4173-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 48687-2025 FSC-klagomål.docx", "A 48687-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 4173-2022 FSC-klagomål.docx", "A 4173-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 48687-2025 FSC-klagomål mail.docx", "A 48687-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 4173-2022 FSC-klagomål mail.docx", "A 4173-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 48687-2025 tillsynsbegäran.docx", "A 48687-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 4173-2022 tillsynsbegäran.docx", "A 4173-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 48687-2025 tillsynsbegäran mail.docx", "A 48687-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 4173-2022 tillsynsbegäran mail.docx", "A 4173-2022")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 4173-2022 prioriterade fågelarter.docx", "A 4173-2022")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 50437-2025</t>
+          <t>A 59406-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45944.71523148148</v>
+        <v>45638.38912037037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1513,20 +1517,25 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>11.9</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1538,46 +1547,42 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
         <v>2</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Blåmossa</t>
+          <t>Hasselsnok
+Sandödla</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 50437-2025 artfynd.xlsx", "A 50437-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 59406-2024 artfynd.xlsx", "A 59406-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 50437-2025 karta.png", "A 50437-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 59406-2024 karta.png", "A 59406-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 50437-2025 FSC-klagomål.docx", "A 50437-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 59406-2024 FSC-klagomål.docx", "A 59406-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 50437-2025 FSC-klagomål mail.docx", "A 50437-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 59406-2024 FSC-klagomål mail.docx", "A 59406-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 50437-2025 tillsynsbegäran.docx", "A 50437-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 59406-2024 tillsynsbegäran.docx", "A 59406-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 50437-2025 tillsynsbegäran mail.docx", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 50437-2025 prioriterade fågelarter.docx", "A 50437-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 59406-2024 tillsynsbegäran mail.docx", "A 59406-2024")</f>
         <v/>
       </c>
     </row>
@@ -1591,7 +1596,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,14 +1679,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 4173-2022</t>
+          <t>A 48687-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44588</v>
+        <v>45936.60298611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,10 +1699,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1728,50 +1733,46 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Revlummer</t>
+          <t>Backstarr
+Blåsippa</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 4173-2022 artfynd.xlsx", "A 4173-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 48687-2025 artfynd.xlsx", "A 48687-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 4173-2022 karta.png", "A 4173-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 48687-2025 karta.png", "A 48687-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 4173-2022 FSC-klagomål.docx", "A 4173-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 48687-2025 FSC-klagomål.docx", "A 48687-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 4173-2022 FSC-klagomål mail.docx", "A 4173-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 48687-2025 FSC-klagomål mail.docx", "A 48687-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 4173-2022 tillsynsbegäran.docx", "A 4173-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 48687-2025 tillsynsbegäran.docx", "A 48687-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 4173-2022 tillsynsbegäran mail.docx", "A 4173-2022")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 4173-2022 prioriterade fågelarter.docx", "A 4173-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 48687-2025 tillsynsbegäran mail.docx", "A 48687-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 59406-2024</t>
+          <t>A 50437-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45638.38912037037</v>
+        <v>45944.71523148148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,25 +1784,20 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>11.9</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1813,42 +1809,46 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>2</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Hasselsnok
-Sandödla</t>
+          <t>Spillkråka
+Blåmossa</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 59406-2024 artfynd.xlsx", "A 59406-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 50437-2025 artfynd.xlsx", "A 50437-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 59406-2024 karta.png", "A 59406-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 50437-2025 karta.png", "A 50437-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 59406-2024 FSC-klagomål.docx", "A 59406-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 50437-2025 FSC-klagomål.docx", "A 50437-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 59406-2024 FSC-klagomål mail.docx", "A 59406-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 50437-2025 FSC-klagomål mail.docx", "A 50437-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 59406-2024 tillsynsbegäran.docx", "A 59406-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 50437-2025 tillsynsbegäran.docx", "A 50437-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 59406-2024 tillsynsbegäran mail.docx", "A 59406-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 50437-2025 tillsynsbegäran mail.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 50437-2025 prioriterade fågelarter.docx", "A 50437-2025")</f>
         <v/>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44571</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,14 +2025,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 9947-2021</t>
+          <t>A 53485-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44252</v>
+        <v>45230</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2054,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2072,319 +2072,319 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 53485-2023 artfynd.xlsx", "A 53485-2023")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 53485-2023 karta.png", "A 53485-2023")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 53485-2023 FSC-klagomål.docx", "A 53485-2023")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 53485-2023 FSC-klagomål mail.docx", "A 53485-2023")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 53485-2023 tillsynsbegäran.docx", "A 53485-2023")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 53485-2023 tillsynsbegäran mail.docx", "A 53485-2023")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 53485-2023 prioriterade fågelarter.docx", "A 53485-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 7778-2021</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>44242</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Strutbräken</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 7778-2021 artfynd.xlsx", "A 7778-2021")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 7778-2021 karta.png", "A 7778-2021")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 7778-2021 FSC-klagomål.docx", "A 7778-2021")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 7778-2021 FSC-klagomål mail.docx", "A 7778-2021")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 7778-2021 tillsynsbegäran.docx", "A 7778-2021")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 7778-2021 tillsynsbegäran mail.docx", "A 7778-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 9001-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45713</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9001-2025 artfynd.xlsx", "A 9001-2025")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9001-2025 karta.png", "A 9001-2025")</f>
+        <v/>
+      </c>
+      <c r="U20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9001-2025 karta knärot.png", "A 9001-2025")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9001-2025 FSC-klagomål.docx", "A 9001-2025")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9001-2025 FSC-klagomål mail.docx", "A 9001-2025")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9001-2025 tillsynsbegäran.docx", "A 9001-2025")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9001-2025 tillsynsbegäran mail.docx", "A 9001-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 9947-2021</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>44252</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
         <v/>
       </c>
-      <c r="U18">
+      <c r="U21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 9001-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45713</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9001-2025 artfynd.xlsx", "A 9001-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9001-2025 karta.png", "A 9001-2025")</f>
-        <v/>
-      </c>
-      <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9001-2025 karta knärot.png", "A 9001-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9001-2025 FSC-klagomål.docx", "A 9001-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9001-2025 FSC-klagomål mail.docx", "A 9001-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9001-2025 tillsynsbegäran.docx", "A 9001-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9001-2025 tillsynsbegäran mail.docx", "A 9001-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 7778-2021</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>44242</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Strutbräken</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 7778-2021 artfynd.xlsx", "A 7778-2021")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 7778-2021 karta.png", "A 7778-2021")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 7778-2021 FSC-klagomål.docx", "A 7778-2021")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 7778-2021 FSC-klagomål mail.docx", "A 7778-2021")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 7778-2021 tillsynsbegäran.docx", "A 7778-2021")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 7778-2021 tillsynsbegäran mail.docx", "A 7778-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 53485-2023</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45230</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 53485-2023 artfynd.xlsx", "A 53485-2023")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 53485-2023 karta.png", "A 53485-2023")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 53485-2023 FSC-klagomål.docx", "A 53485-2023")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 53485-2023 FSC-klagomål mail.docx", "A 53485-2023")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 53485-2023 tillsynsbegäran.docx", "A 53485-2023")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 53485-2023 tillsynsbegäran mail.docx", "A 53485-2023")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 53485-2023 prioriterade fågelarter.docx", "A 53485-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 56318-2025</t>
+          <t>A 9947-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45974</v>
+        <v>44252</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2406,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2424,134 +2424,134 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="U22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 56318-2025</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45974</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 56318-2025 artfynd.xlsx", "A 56318-2025")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 56318-2025 karta.png", "A 56318-2025")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 56318-2025 FSC-klagomål.docx", "A 56318-2025")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 56318-2025 FSC-klagomål mail.docx", "A 56318-2025")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 56318-2025 tillsynsbegäran.docx", "A 56318-2025")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 56318-2025 tillsynsbegäran mail.docx", "A 56318-2025")</f>
         <v/>
       </c>
-      <c r="Z22">
+      <c r="Z23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 56318-2025 prioriterade fågelarter.docx", "A 56318-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 9947-2021</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>44252</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44651</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44865.65704861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44242</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44533</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>44585</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44865.43612268518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44256</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>44511.56693287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3125,14 +3125,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 61896-2021</t>
+          <t>A 50020-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44499</v>
+        <v>44865</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3182,14 +3182,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59872-2021</t>
+          <t>A 30731-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44494</v>
+        <v>44764.40619212963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3239,14 +3239,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 68243-2021</t>
+          <t>A 14549-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44525</v>
+        <v>44279</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3296,14 +3296,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 50202-2021</t>
+          <t>A 35320-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44457</v>
+        <v>44384.73966435185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3353,14 +3353,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 7329-2022</t>
+          <t>A 64020-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44606</v>
+        <v>44510</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3410,14 +3410,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 46436-2022</t>
+          <t>A 50202-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44848.46362268519</v>
+        <v>44457</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3429,13 +3429,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3472,14 +3467,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 20973-2021</t>
+          <t>A 68392-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44318</v>
+        <v>44526</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3492,7 +3487,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3529,14 +3524,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 14549-2021</t>
+          <t>A 46724-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44279</v>
+        <v>44851</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3549,7 +3544,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3586,14 +3581,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30731-2022</t>
+          <t>A 61896-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44764.40619212963</v>
+        <v>44499</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3606,7 +3601,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3643,14 +3638,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 50020-2022</t>
+          <t>A 23819-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44865</v>
+        <v>44722</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3663,7 +3658,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3700,14 +3695,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 64020-2021</t>
+          <t>A 25545-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44510</v>
+        <v>44343.32159722222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3720,7 +3715,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3757,14 +3752,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 68392-2021</t>
+          <t>A 10252-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44526</v>
+        <v>44256</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3777,7 +3772,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3814,14 +3809,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 46724-2022</t>
+          <t>A 59872-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44851</v>
+        <v>44494</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3834,7 +3829,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3871,14 +3866,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 23819-2022</t>
+          <t>A 7329-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44722</v>
+        <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3886,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3928,14 +3923,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 35320-2021</t>
+          <t>A 68243-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44384.73966435185</v>
+        <v>44525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3943,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3985,14 +3980,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 25545-2021</t>
+          <t>A 49242-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44343.32159722222</v>
+        <v>44453</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4000,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4042,14 +4037,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 49242-2021</t>
+          <t>A 17330-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44453</v>
+        <v>44298</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4057,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>7.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4099,14 +4094,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 17330-2021</t>
+          <t>A 20340-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44298</v>
+        <v>44699</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4114,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4156,14 +4151,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10252-2021</t>
+          <t>A 70164-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44256</v>
+        <v>44533</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4171,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4213,14 +4208,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 20340-2022</t>
+          <t>A 25790-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44699</v>
+        <v>44343.83640046296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4228,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4270,14 +4265,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 70164-2021</t>
+          <t>A 25795-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44533</v>
+        <v>44343</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4285,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4327,14 +4322,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 25790-2021</t>
+          <t>A 59917-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44343.83640046296</v>
+        <v>44494</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4342,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4384,14 +4379,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 25795-2021</t>
+          <t>A 50034-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44343</v>
+        <v>44865.45782407407</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4399,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4441,14 +4436,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 59917-2021</t>
+          <t>A 72625-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44494</v>
+        <v>44546.55005787037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4456,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4505,7 +4500,7 @@
         <v>44588</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4555,14 +4550,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 40383-2025</t>
+          <t>A 30701-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45895</v>
+        <v>44763</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4570,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4612,14 +4607,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40430-2025</t>
+          <t>A 50234-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45895</v>
+        <v>45600.55275462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4627,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>7.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4669,14 +4664,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 7136-2022</t>
+          <t>A 31388-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44603</v>
+        <v>44774.62195601852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4684,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4726,14 +4721,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 53761-2024</t>
+          <t>A 12945-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45615.50958333333</v>
+        <v>45385.47545138889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4741,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.3</v>
+        <v>6.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4783,14 +4778,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 24991-2023</t>
+          <t>A 44408-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45085</v>
+        <v>44435</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4798,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4840,14 +4835,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 61626-2024</t>
+          <t>A 994-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45646.66194444444</v>
+        <v>45301.62427083333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4855,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7.3</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4897,14 +4892,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 52262-2023</t>
+          <t>A 29327-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45217</v>
+        <v>45483.43834490741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4912,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4954,14 +4949,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 989-2024</t>
+          <t>A 15667-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45301</v>
+        <v>45404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4969,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5011,14 +5006,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61250-2024</t>
+          <t>A 41991-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45645.69521990741</v>
+        <v>44830.44231481481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5026,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5068,14 +5063,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3178-2024</t>
+          <t>A 44523-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45316</v>
+        <v>45189.4774537037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5087,13 +5082,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>8.6</v>
+        <v>3.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5130,14 +5120,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 12945-2024</t>
+          <t>A 3187-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45385.47545138889</v>
+        <v>45316.65596064815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5149,8 +5139,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>6.1</v>
+        <v>4.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5187,14 +5182,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 13325-2022</t>
+          <t>A 12238-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44645.34487268519</v>
+        <v>45729.58333333334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5207,7 +5202,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.7</v>
+        <v>10.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5244,14 +5239,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 37092-2024</t>
+          <t>A 57989-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45539.49989583333</v>
+        <v>44892</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5264,7 +5259,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5301,14 +5296,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 18043-2021</t>
+          <t>A 55712-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44301</v>
+        <v>44885</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5321,7 +5316,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.1</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5358,14 +5353,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 33772-2023</t>
+          <t>A 10764-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45133</v>
+        <v>45369.56681712963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5378,7 +5373,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5415,14 +5410,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 16989-2023</t>
+          <t>A 39001-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45033</v>
+        <v>45548.42012731481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5434,13 +5429,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5477,14 +5467,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 10470-2024</t>
+          <t>A 38983-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45366.38853009259</v>
+        <v>45548.39829861111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5497,7 +5487,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5534,14 +5524,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 44883-2021</t>
+          <t>A 46371-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44438.61731481482</v>
+        <v>44848</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5553,8 +5543,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5591,14 +5586,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 50234-2024</t>
+          <t>A 46436-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45600.55275462963</v>
+        <v>44848.46362268519</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5610,8 +5605,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>7.6</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5648,14 +5648,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 55712-2022</t>
+          <t>A 42239-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44885</v>
+        <v>45562.56358796296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5705,14 +5705,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40652-2024</t>
+          <t>A 54374-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45557</v>
+        <v>44879</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5762,14 +5762,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 56677-2023</t>
+          <t>A 24514-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45243.9177199074</v>
+        <v>45458</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5819,14 +5819,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 56130-2022</t>
+          <t>A 20973-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44886</v>
+        <v>44318</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5876,14 +5876,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 21061-2022</t>
+          <t>A 13109-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44704</v>
+        <v>45002</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5933,14 +5933,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 54374-2022</t>
+          <t>A 56130-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44879</v>
+        <v>44886</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5990,14 +5990,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 50259-2023</t>
+          <t>A 33747-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45216.3775</v>
+        <v>45133.39594907407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6047,14 +6047,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 15695-2025</t>
+          <t>A 21333-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45748.46914351852</v>
+        <v>45440</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6104,14 +6104,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 19492-2021</t>
+          <t>A 29195-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44312</v>
+        <v>45482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6161,14 +6161,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 42823-2025</t>
+          <t>A 33118-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45908.57429398148</v>
+        <v>45126.59351851852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6218,14 +6218,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 49551-2024</t>
+          <t>A 33131-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45596.4597337963</v>
+        <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6275,14 +6275,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 46532-2024</t>
+          <t>A 56602-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45582.63861111111</v>
+        <v>45243.6625</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6332,14 +6332,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42736-2025</t>
+          <t>A 26233-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45908</v>
+        <v>45805.5666087963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6351,8 +6351,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6389,14 +6394,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 11897-2025</t>
+          <t>A 26270-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45728.46913194445</v>
+        <v>45805.59357638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6409,7 +6414,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6446,14 +6451,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 29329-2024</t>
+          <t>A 13890-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45483.44387731481</v>
+        <v>44649</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6466,7 +6471,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6503,14 +6508,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 61252-2024</t>
+          <t>A 7136-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45645.69790509259</v>
+        <v>44603</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6523,7 +6528,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6560,14 +6565,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 39001-2024</t>
+          <t>A 15552-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45548.42012731481</v>
+        <v>45018</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6580,7 +6585,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6617,14 +6622,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 30701-2022</t>
+          <t>A 15695-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44763</v>
+        <v>45748.46914351852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6674,14 +6679,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43550-2025</t>
+          <t>A 50601-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45911.61836805556</v>
+        <v>45600</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6694,7 +6699,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6731,14 +6736,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12779-2025</t>
+          <t>A 67875-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45733.59574074074</v>
+        <v>44525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6751,7 +6756,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>10.1</v>
+        <v>15.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6788,14 +6793,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 11931-2025</t>
+          <t>A 16363-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45728.5212962963</v>
+        <v>45407.59325231481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6808,7 +6813,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6845,14 +6850,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 14087-2025</t>
+          <t>A 45578-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45739</v>
+        <v>45578</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6902,14 +6907,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 9698-2025</t>
+          <t>A 13325-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45716.37402777778</v>
+        <v>44645.34487268519</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6922,7 +6927,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6959,14 +6964,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 9695-2025</t>
+          <t>A 28586-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45716.37232638889</v>
+        <v>45819.5812037037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6979,7 +6984,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7016,14 +7021,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 23012-2025</t>
+          <t>A 9590-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45790</v>
+        <v>44251</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7036,7 +7041,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>6.6</v>
+        <v>2.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7073,14 +7078,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 14079-2025</t>
+          <t>A 29300-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45739</v>
+        <v>45824.45552083333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7093,7 +7098,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7130,14 +7135,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 52950-2022</t>
+          <t>A 29308-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44875.65717592592</v>
+        <v>45824.46103009259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7150,7 +7155,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7187,14 +7192,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 40369-2024</t>
+          <t>A 41072-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45555.39053240741</v>
+        <v>45170</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7207,7 +7212,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>14.5</v>
+        <v>7.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7244,14 +7249,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 44319-2025</t>
+          <t>A 2231-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45916</v>
+        <v>44942</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7264,7 +7269,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7301,14 +7306,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 24348-2025</t>
+          <t>A 10470-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45797</v>
+        <v>45366.38853009259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7321,7 +7326,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7358,14 +7363,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 49554-2024</t>
+          <t>A 59383-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45596.4672337963</v>
+        <v>45638.35758101852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7377,8 +7382,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7415,14 +7425,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 44529-2023</t>
+          <t>A 40369-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45189</v>
+        <v>45555.39053240741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7435,7 +7445,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.6</v>
+        <v>14.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7472,14 +7482,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 57989-2022</t>
+          <t>A 52902-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44892</v>
+        <v>45610.68715277778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7492,7 +7502,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7529,14 +7539,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 16216-2025</t>
+          <t>A 15559-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45750.63079861111</v>
+        <v>45019</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7549,7 +7559,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7586,14 +7596,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 55733-2023</t>
+          <t>A 10457-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45232</v>
+        <v>44987</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7606,7 +7616,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7643,14 +7653,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 35113-2021</t>
+          <t>A 48071-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44384.37240740741</v>
+        <v>45589</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7663,7 +7673,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7700,14 +7710,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 26233-2025</t>
+          <t>A 61247-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45805.5666087963</v>
+        <v>45645.69128472222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7719,13 +7729,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7762,14 +7767,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26270-2025</t>
+          <t>A 31917-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45805.59357638889</v>
+        <v>45834</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7782,7 +7787,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7819,14 +7824,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 45540-2025</t>
+          <t>A 9983-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45922.61466435185</v>
+        <v>44621.43550925926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7839,7 +7844,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7876,14 +7881,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 42239-2024</t>
+          <t>A 20968-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45562.56358796296</v>
+        <v>45061</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7896,7 +7901,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7933,14 +7938,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 9590-2021</t>
+          <t>A 52262-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44251</v>
+        <v>45217</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7953,7 +7958,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7990,14 +7995,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 15552-2023</t>
+          <t>A 33559-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45018</v>
+        <v>45841.57549768518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8010,7 +8015,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8047,14 +8052,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 13890-2022</t>
+          <t>A 38818-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44649</v>
+        <v>45547.55392361111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8067,7 +8072,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8104,14 +8109,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 52852-2024</t>
+          <t>A 33560-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45610.60664351852</v>
+        <v>45841.57739583333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8124,7 +8129,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8161,14 +8166,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 25884-2023</t>
+          <t>A 33555-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45085</v>
+        <v>45841.57423611111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8181,7 +8186,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8218,14 +8223,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 50603-2024</t>
+          <t>A 33566-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45600</v>
+        <v>45841.58208333333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8238,7 +8243,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8275,14 +8280,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 46907-2025</t>
+          <t>A 33564-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45929.40480324074</v>
+        <v>45841.57973379629</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8295,7 +8300,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8332,14 +8337,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 28586-2025</t>
+          <t>A 33569-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45819.5812037037</v>
+        <v>45841.58334490741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8352,7 +8357,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>7.1</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8389,14 +8394,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 29308-2025</t>
+          <t>A 33586-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45824.46103009259</v>
+        <v>45841.59465277778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8409,7 +8414,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8446,14 +8451,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 29300-2025</t>
+          <t>A 8047-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45824.45552083333</v>
+        <v>45351.32293981482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8466,7 +8471,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8503,14 +8508,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 20476-2023</t>
+          <t>A 33580-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45057.34075231481</v>
+        <v>45841.59407407408</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8523,7 +8528,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8560,14 +8565,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 15667-2024</t>
+          <t>A 33772-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45404</v>
+        <v>45133</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8580,7 +8585,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8617,14 +8622,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 50401-2021</t>
+          <t>A 26277-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44459</v>
+        <v>45805.60436342593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8637,7 +8642,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8674,14 +8679,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 56024-2023</t>
+          <t>A 25884-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45240</v>
+        <v>45085</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8694,7 +8699,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8731,14 +8736,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 31917-2025</t>
+          <t>A 60220-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45834</v>
+        <v>44903</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8751,7 +8756,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8788,14 +8793,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 50601-2024</t>
+          <t>A 33536-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45600</v>
+        <v>45841.55890046297</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8808,7 +8813,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>6.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8845,14 +8850,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 47882-2025</t>
+          <t>A 54007-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45932.46203703704</v>
+        <v>45615</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8865,7 +8870,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8902,14 +8907,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 33559-2025</t>
+          <t>A 18043-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45841.57549768518</v>
+        <v>44301</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8922,7 +8927,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8959,14 +8964,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 33566-2025</t>
+          <t>A 20888-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45841.58208333333</v>
+        <v>44701</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8979,7 +8984,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9016,14 +9021,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 33560-2025</t>
+          <t>A 53761-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45841.57739583333</v>
+        <v>45615.50958333333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9036,7 +9041,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9073,14 +9078,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 41991-2022</t>
+          <t>A 16989-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44830.44231481481</v>
+        <v>45033</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9092,8 +9097,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9130,14 +9140,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 33564-2025</t>
+          <t>A 44529-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45841.57973379629</v>
+        <v>45189</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9150,7 +9160,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9187,14 +9197,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 33569-2025</t>
+          <t>A 45617-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45841.58334490741</v>
+        <v>45579.45523148148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9207,7 +9217,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9244,14 +9254,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 33586-2025</t>
+          <t>A 33745-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45841.59465277778</v>
+        <v>45133.39075231482</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9264,7 +9274,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9301,14 +9311,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 48688-2025</t>
+          <t>A 54792-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45936.60555555556</v>
+        <v>45236</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9321,7 +9331,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9358,914 +9368,899 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
+          <t>A 16223-2025</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>45750.63945601852</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" s="2" t="inlineStr"/>
+    </row>
+    <row r="144" ht="15" customHeight="1">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>A 37311-2025</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>45876.59644675926</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" s="2" t="inlineStr"/>
+    </row>
+    <row r="145" ht="15" customHeight="1">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>A 11891-2025</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>45728.46309027778</v>
+      </c>
+      <c r="C145" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" s="2" t="inlineStr"/>
+    </row>
+    <row r="146" ht="15" customHeight="1">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>A 3391-2024</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" s="2" t="inlineStr"/>
+    </row>
+    <row r="147" ht="15" customHeight="1">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>A 29329-2024</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>45483.44387731481</v>
+      </c>
+      <c r="C147" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R147" s="2" t="inlineStr"/>
+    </row>
+    <row r="148" ht="15" customHeight="1">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>A 21061-2022</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>44704</v>
+      </c>
+      <c r="C148" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" s="2" t="inlineStr"/>
+    </row>
+    <row r="149" ht="15" customHeight="1">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>A 55733-2023</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" s="2" t="inlineStr"/>
+    </row>
+    <row r="150" ht="15" customHeight="1">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>A 16216-2025</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>45750.63079861111</v>
+      </c>
+      <c r="C150" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" s="2" t="inlineStr"/>
+    </row>
+    <row r="151" ht="15" customHeight="1">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>A 2982-2025</t>
+        </is>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>45678.51011574074</v>
+      </c>
+      <c r="C151" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" s="2" t="inlineStr"/>
+    </row>
+    <row r="152" ht="15" customHeight="1">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>A 20476-2023</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>45057.34075231481</v>
+      </c>
+      <c r="C152" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" s="2" t="inlineStr"/>
+    </row>
+    <row r="153" ht="15" customHeight="1">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>A 19134-2025</t>
+        </is>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>45764</v>
+      </c>
+      <c r="C153" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" s="2" t="inlineStr"/>
+    </row>
+    <row r="154" ht="15" customHeight="1">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>A 28430-2024</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>45477</v>
+      </c>
+      <c r="C154" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" s="2" t="inlineStr"/>
+    </row>
+    <row r="155" ht="15" customHeight="1">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>A 50261-2023</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>45216.37878472222</v>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R155" s="2" t="inlineStr"/>
+    </row>
+    <row r="156" ht="15" customHeight="1">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>A 50401-2021</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>44459</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" s="2" t="inlineStr"/>
+    </row>
+    <row r="157" ht="15" customHeight="1">
+      <c r="A157" t="inlineStr">
+        <is>
           <t>A 64707-2023</t>
         </is>
       </c>
-      <c r="B143" s="1" t="n">
+      <c r="B157" s="1" t="n">
         <v>45281</v>
       </c>
-      <c r="C143" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
+      <c r="C157" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G143" t="n">
+      <c r="G157" t="n">
         <v>11.9</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>0</v>
-      </c>
-      <c r="M143" t="n">
-        <v>0</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0</v>
-      </c>
-      <c r="O143" t="n">
-        <v>0</v>
-      </c>
-      <c r="P143" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q143" t="n">
-        <v>0</v>
-      </c>
-      <c r="R143" s="2" t="inlineStr"/>
-      <c r="U143">
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" s="2" t="inlineStr"/>
+      <c r="U157">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 64707-2023 karta knärot.png", "A 64707-2023")</f>
         <v/>
       </c>
-      <c r="V143">
+      <c r="V157">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 64707-2023 FSC-klagomål.docx", "A 64707-2023")</f>
         <v/>
       </c>
-      <c r="W143">
+      <c r="W157">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 64707-2023 FSC-klagomål mail.docx", "A 64707-2023")</f>
         <v/>
       </c>
-      <c r="X143">
+      <c r="X157">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 64707-2023 tillsynsbegäran.docx", "A 64707-2023")</f>
         <v/>
       </c>
-      <c r="Y143">
+      <c r="Y157">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 64707-2023 tillsynsbegäran mail.docx", "A 64707-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="144" ht="15" customHeight="1">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>A 3187-2024</t>
-        </is>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>45316.65596064815</v>
-      </c>
-      <c r="C144" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0</v>
-      </c>
-      <c r="O144" t="n">
-        <v>0</v>
-      </c>
-      <c r="P144" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q144" t="n">
-        <v>0</v>
-      </c>
-      <c r="R144" s="2" t="inlineStr"/>
-    </row>
-    <row r="145" ht="15" customHeight="1">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>A 33555-2025</t>
-        </is>
-      </c>
-      <c r="B145" s="1" t="n">
-        <v>45841.57423611111</v>
-      </c>
-      <c r="C145" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G145" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0</v>
-      </c>
-      <c r="M145" t="n">
-        <v>0</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0</v>
-      </c>
-      <c r="O145" t="n">
-        <v>0</v>
-      </c>
-      <c r="P145" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>0</v>
-      </c>
-      <c r="R145" s="2" t="inlineStr"/>
-    </row>
-    <row r="146" ht="15" customHeight="1">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>A 33536-2025</t>
-        </is>
-      </c>
-      <c r="B146" s="1" t="n">
-        <v>45841.55890046297</v>
-      </c>
-      <c r="C146" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G146" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P146" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q146" t="n">
-        <v>0</v>
-      </c>
-      <c r="R146" s="2" t="inlineStr"/>
-    </row>
-    <row r="147" ht="15" customHeight="1">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>A 33580-2025</t>
-        </is>
-      </c>
-      <c r="B147" s="1" t="n">
-        <v>45841.59407407408</v>
-      </c>
-      <c r="C147" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0</v>
-      </c>
-      <c r="O147" t="n">
-        <v>0</v>
-      </c>
-      <c r="P147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R147" s="2" t="inlineStr"/>
-    </row>
-    <row r="148" ht="15" customHeight="1">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>A 26277-2025</t>
-        </is>
-      </c>
-      <c r="B148" s="1" t="n">
-        <v>45805.60436342593</v>
-      </c>
-      <c r="C148" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G148" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0</v>
-      </c>
-      <c r="L148" t="n">
-        <v>0</v>
-      </c>
-      <c r="M148" t="n">
-        <v>0</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0</v>
-      </c>
-      <c r="O148" t="n">
-        <v>0</v>
-      </c>
-      <c r="P148" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q148" t="n">
-        <v>0</v>
-      </c>
-      <c r="R148" s="2" t="inlineStr"/>
-    </row>
-    <row r="149" ht="15" customHeight="1">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>A 46371-2022</t>
-        </is>
-      </c>
-      <c r="B149" s="1" t="n">
-        <v>44848</v>
-      </c>
-      <c r="C149" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G149" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0</v>
-      </c>
-      <c r="L149" t="n">
-        <v>0</v>
-      </c>
-      <c r="M149" t="n">
-        <v>0</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0</v>
-      </c>
-      <c r="O149" t="n">
-        <v>0</v>
-      </c>
-      <c r="P149" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q149" t="n">
-        <v>0</v>
-      </c>
-      <c r="R149" s="2" t="inlineStr"/>
-    </row>
-    <row r="150" ht="15" customHeight="1">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>A 59383-2024</t>
-        </is>
-      </c>
-      <c r="B150" s="1" t="n">
-        <v>45638.35758101852</v>
-      </c>
-      <c r="C150" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G150" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0</v>
-      </c>
-      <c r="L150" t="n">
-        <v>0</v>
-      </c>
-      <c r="M150" t="n">
-        <v>0</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0</v>
-      </c>
-      <c r="O150" t="n">
-        <v>0</v>
-      </c>
-      <c r="P150" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q150" t="n">
-        <v>0</v>
-      </c>
-      <c r="R150" s="2" t="inlineStr"/>
-    </row>
-    <row r="151" ht="15" customHeight="1">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>A 33745-2023</t>
-        </is>
-      </c>
-      <c r="B151" s="1" t="n">
-        <v>45133.39075231482</v>
-      </c>
-      <c r="C151" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G151" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0</v>
-      </c>
-      <c r="L151" t="n">
-        <v>0</v>
-      </c>
-      <c r="M151" t="n">
-        <v>0</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0</v>
-      </c>
-      <c r="O151" t="n">
-        <v>0</v>
-      </c>
-      <c r="P151" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q151" t="n">
-        <v>0</v>
-      </c>
-      <c r="R151" s="2" t="inlineStr"/>
-    </row>
-    <row r="152" ht="15" customHeight="1">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>A 28430-2024</t>
-        </is>
-      </c>
-      <c r="B152" s="1" t="n">
-        <v>45477</v>
-      </c>
-      <c r="C152" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G152" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0</v>
-      </c>
-      <c r="L152" t="n">
-        <v>0</v>
-      </c>
-      <c r="M152" t="n">
-        <v>0</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0</v>
-      </c>
-      <c r="O152" t="n">
-        <v>0</v>
-      </c>
-      <c r="P152" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q152" t="n">
-        <v>0</v>
-      </c>
-      <c r="R152" s="2" t="inlineStr"/>
-    </row>
-    <row r="153" ht="15" customHeight="1">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>A 5326-2024</t>
-        </is>
-      </c>
-      <c r="B153" s="1" t="n">
-        <v>45331.41356481481</v>
-      </c>
-      <c r="C153" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0</v>
-      </c>
-      <c r="L153" t="n">
-        <v>0</v>
-      </c>
-      <c r="M153" t="n">
-        <v>0</v>
-      </c>
-      <c r="N153" t="n">
-        <v>0</v>
-      </c>
-      <c r="O153" t="n">
-        <v>0</v>
-      </c>
-      <c r="P153" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q153" t="n">
-        <v>0</v>
-      </c>
-      <c r="R153" s="2" t="inlineStr"/>
-    </row>
-    <row r="154" ht="15" customHeight="1">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>A 10764-2024</t>
-        </is>
-      </c>
-      <c r="B154" s="1" t="n">
-        <v>45369.56681712963</v>
-      </c>
-      <c r="C154" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G154" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0</v>
-      </c>
-      <c r="L154" t="n">
-        <v>0</v>
-      </c>
-      <c r="M154" t="n">
-        <v>0</v>
-      </c>
-      <c r="N154" t="n">
-        <v>0</v>
-      </c>
-      <c r="O154" t="n">
-        <v>0</v>
-      </c>
-      <c r="P154" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q154" t="n">
-        <v>0</v>
-      </c>
-      <c r="R154" s="2" t="inlineStr"/>
-    </row>
-    <row r="155" ht="15" customHeight="1">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>A 50057-2025</t>
-        </is>
-      </c>
-      <c r="B155" s="1" t="n">
-        <v>45942</v>
-      </c>
-      <c r="C155" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G155" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0</v>
-      </c>
-      <c r="L155" t="n">
-        <v>0</v>
-      </c>
-      <c r="M155" t="n">
-        <v>0</v>
-      </c>
-      <c r="N155" t="n">
-        <v>0</v>
-      </c>
-      <c r="O155" t="n">
-        <v>0</v>
-      </c>
-      <c r="P155" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q155" t="n">
-        <v>0</v>
-      </c>
-      <c r="R155" s="2" t="inlineStr"/>
-    </row>
-    <row r="156" ht="15" customHeight="1">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>A 50626-2025</t>
-        </is>
-      </c>
-      <c r="B156" s="1" t="n">
-        <v>45945.63623842593</v>
-      </c>
-      <c r="C156" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G156" t="n">
-        <v>14</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0</v>
-      </c>
-      <c r="L156" t="n">
-        <v>0</v>
-      </c>
-      <c r="M156" t="n">
-        <v>0</v>
-      </c>
-      <c r="N156" t="n">
-        <v>0</v>
-      </c>
-      <c r="O156" t="n">
-        <v>0</v>
-      </c>
-      <c r="P156" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q156" t="n">
-        <v>0</v>
-      </c>
-      <c r="R156" s="2" t="inlineStr"/>
-    </row>
-    <row r="157" ht="15" customHeight="1">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>A 50432-2025</t>
-        </is>
-      </c>
-      <c r="B157" s="1" t="n">
-        <v>45944.69248842593</v>
-      </c>
-      <c r="C157" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0</v>
-      </c>
-      <c r="L157" t="n">
-        <v>0</v>
-      </c>
-      <c r="M157" t="n">
-        <v>0</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0</v>
-      </c>
-      <c r="O157" t="n">
-        <v>0</v>
-      </c>
-      <c r="P157" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q157" t="n">
-        <v>0</v>
-      </c>
-      <c r="R157" s="2" t="inlineStr"/>
-    </row>
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 50579-2025</t>
+          <t>A 989-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45945.58449074074</v>
+        <v>45301</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10273,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10315,14 +10310,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 50589-2025</t>
+          <t>A 11897-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45945.600625</v>
+        <v>45728.46913194445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10330,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10372,14 +10367,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 50606-2025</t>
+          <t>A 22560-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45945.6171412037</v>
+        <v>45071.44758101852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10387,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>6.7</v>
+        <v>1.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10429,14 +10424,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 50607-2025</t>
+          <t>A 18043-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45945.61997685185</v>
+        <v>44301</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10444,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>14.5</v>
+        <v>6.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10486,14 +10481,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 50578-2025</t>
+          <t>A 50259-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45945.58215277778</v>
+        <v>45216.3775</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10501,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10543,14 +10538,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 16223-2025</t>
+          <t>A 17525-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45750.63945601852</v>
+        <v>45757.5817824074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10558,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>7.2</v>
+        <v>2.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10600,14 +10595,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 2982-2025</t>
+          <t>A 29192-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45678.51011574074</v>
+        <v>45482</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10615,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10657,14 +10652,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 50797-2025</t>
+          <t>A 57768-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45946.48350694445</v>
+        <v>44892</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10672,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10714,14 +10709,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 60768-2022</t>
+          <t>A 19492-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44907</v>
+        <v>44312</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10734,7 +10729,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10771,14 +10766,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 37311-2025</t>
+          <t>A 61252-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45876.59644675926</v>
+        <v>45645.69790509259</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10791,7 +10786,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10828,14 +10823,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 20888-2022</t>
+          <t>A 56024-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44701</v>
+        <v>45240</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10848,7 +10843,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10885,14 +10880,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 18043-2021</t>
+          <t>A 5326-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44301</v>
+        <v>45331.41356481481</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10905,7 +10900,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10942,14 +10937,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 51427-2025</t>
+          <t>A 56677-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45949</v>
+        <v>45243.9177199074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10962,7 +10957,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10999,14 +10994,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 17525-2025</t>
+          <t>A 40430-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45757.5817824074</v>
+        <v>45895</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11019,7 +11014,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11056,14 +11051,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 51432-2025</t>
+          <t>A 40383-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45949</v>
+        <v>45895</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11076,7 +11071,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11113,14 +11108,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 51429-2025</t>
+          <t>A 35113-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45949</v>
+        <v>44384.37240740741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11133,7 +11128,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11170,14 +11165,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 45617-2024</t>
+          <t>A 40652-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45579.45523148148</v>
+        <v>45557</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11190,7 +11185,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11227,14 +11222,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 52833-2025</t>
+          <t>A 37092-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45957.47081018519</v>
+        <v>45539.49989583333</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11247,7 +11242,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11284,14 +11279,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 9983-2022</t>
+          <t>A 44883-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44621.43550925926</v>
+        <v>44438.61731481482</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11304,7 +11299,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11341,14 +11336,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 33131-2023</t>
+          <t>A 60768-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45126</v>
+        <v>44907</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11361,7 +11356,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11398,14 +11393,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 24514-2024</t>
+          <t>A 52950-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45458</v>
+        <v>44875.65717592592</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11418,7 +11413,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11455,14 +11450,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 31388-2022</t>
+          <t>A 52852-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44774.62195601852</v>
+        <v>45610.60664351852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11475,7 +11470,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11512,14 +11507,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 29195-2024</t>
+          <t>A 15704-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45482</v>
+        <v>45748.4815162037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11532,7 +11527,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11569,14 +11564,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 994-2024</t>
+          <t>A 42736-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45301.62427083333</v>
+        <v>45908</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11589,7 +11584,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11626,14 +11621,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 54126-2025</t>
+          <t>A 61626-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45964.45715277778</v>
+        <v>45646.66194444444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11646,7 +11641,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3</v>
+        <v>7.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11683,14 +11678,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 55830-2025</t>
+          <t>A 42823-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45972</v>
+        <v>45908.57429398148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11703,7 +11698,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11740,14 +11735,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 56196-2025</t>
+          <t>A 3178-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45974.45112268518</v>
+        <v>45316</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11759,8 +11754,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11797,14 +11797,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 56211-2025</t>
+          <t>A 61249-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45974.47729166667</v>
+        <v>45645.69321759259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11854,14 +11854,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 56208-2025</t>
+          <t>A 38988-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45974.47333333334</v>
+        <v>45548.40613425926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11911,14 +11911,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 44408-2021</t>
+          <t>A 45632-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44435</v>
+        <v>45579.47123842593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11930,8 +11930,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>3.2</v>
+        <v>9.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11968,14 +11973,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 58226-2025</t>
+          <t>A 50603-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45985.37508101852</v>
+        <v>45600</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11988,7 +11993,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12025,14 +12030,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 10457-2023</t>
+          <t>A 43550-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44987</v>
+        <v>45911.61836805556</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12045,7 +12050,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12082,14 +12087,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 58251-2025</t>
+          <t>A 44319-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45985.39645833334</v>
+        <v>45916</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12102,7 +12107,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12139,14 +12144,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 50034-2022</t>
+          <t>A 61250-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44865.45782407407</v>
+        <v>45645.69521990741</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12159,7 +12164,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12196,14 +12201,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 880-2026</t>
+          <t>A 59396-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46029</v>
+        <v>45638.37623842592</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12215,8 +12220,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12253,14 +12263,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 57768-2022</t>
+          <t>A 24991-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44892</v>
+        <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12273,7 +12283,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12310,14 +12320,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 1945-2026</t>
+          <t>A 45540-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46035.59709490741</v>
+        <v>45922.61466435185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12330,7 +12340,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12367,14 +12377,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 59902-2025</t>
+          <t>A 46532-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45993.34480324074</v>
+        <v>45582.63861111111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12387,7 +12397,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12424,14 +12434,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 1608-2026</t>
+          <t>A 49551-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46034.46770833333</v>
+        <v>45596.4597337963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12444,7 +12454,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12481,14 +12491,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 2322-2026</t>
+          <t>A 46907-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46036.60327546296</v>
+        <v>45929.40480324074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12501,7 +12511,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12538,14 +12548,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 2324-2026</t>
+          <t>A 47882-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46036.60572916667</v>
+        <v>45932.46203703704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12558,7 +12568,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12595,14 +12605,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 2231-2023</t>
+          <t>A 48688-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44942</v>
+        <v>45936.60555555556</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12615,7 +12625,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12652,14 +12662,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 16363-2024</t>
+          <t>A 23012-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45407.59325231481</v>
+        <v>45790</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12672,7 +12682,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.9</v>
+        <v>6.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12709,14 +12719,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 15704-2025</t>
+          <t>A 50432-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45748.4815162037</v>
+        <v>45944.69248842593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12739,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.7</v>
+        <v>4.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12766,14 +12776,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 72625-2021</t>
+          <t>A 50057-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44546.55005787037</v>
+        <v>45942</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12796,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12823,14 +12833,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 19134-2025</t>
+          <t>A 9695-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45764</v>
+        <v>45716.37232638889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12853,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12880,14 +12890,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 33118-2023</t>
+          <t>A 14079-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45126.59351851852</v>
+        <v>45739</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12910,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12937,14 +12947,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 38988-2024</t>
+          <t>A 50626-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45548.40613425926</v>
+        <v>45945.63623842593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12956,8 +12966,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>4.2</v>
+        <v>14</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12994,14 +13009,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 61413-2025</t>
+          <t>A 50579-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46000</v>
+        <v>45945.58449074074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13014,7 +13029,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13051,14 +13066,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 60220-2022</t>
+          <t>A 12779-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44903</v>
+        <v>45733.59574074074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13071,7 +13086,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>8.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13108,14 +13123,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 11891-2025</t>
+          <t>A 50589-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45728.46309027778</v>
+        <v>45945.600625</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13128,7 +13143,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13165,14 +13180,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 57663-2025</t>
+          <t>A 50606-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45981.42303240741</v>
+        <v>45945.6171412037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13185,7 +13200,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13222,14 +13237,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 48071-2024</t>
+          <t>A 50607-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45589</v>
+        <v>45945.61997685185</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13242,7 +13257,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.1</v>
+        <v>14.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13279,14 +13294,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 15559-2023</t>
+          <t>A 50578-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45019</v>
+        <v>45945.58215277778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13299,7 +13314,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13336,14 +13351,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 54007-2024</t>
+          <t>A 50797-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45615</v>
+        <v>45946.48350694445</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13356,7 +13371,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13393,14 +13408,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 61898-2025</t>
+          <t>A 9698-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46003.46565972222</v>
+        <v>45716.37402777778</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13413,7 +13428,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13450,14 +13465,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 33747-2023</t>
+          <t>A 11931-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45133.39594907407</v>
+        <v>45728.5212962963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13470,7 +13485,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13507,14 +13522,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 44523-2023</t>
+          <t>A 14087-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45189.4774537037</v>
+        <v>45739</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13527,7 +13542,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13564,14 +13579,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 6128-2026</t>
+          <t>A 51427-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46054.29585648148</v>
+        <v>45949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13584,7 +13599,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13621,14 +13636,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 59396-2024</t>
+          <t>A 51429-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45638.37623842592</v>
+        <v>45949</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,13 +13655,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13683,14 +13693,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 61247-2024</t>
+          <t>A 51432-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45645.69128472222</v>
+        <v>45949</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13703,7 +13713,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13740,14 +13750,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 8047-2024</t>
+          <t>A 52833-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45351.32293981482</v>
+        <v>45957.47081018519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13797,14 +13807,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 13109-2023</t>
+          <t>A 24348-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45002</v>
+        <v>45797</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13817,7 +13827,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13854,14 +13864,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 21333-2024</t>
+          <t>A 49554-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45440</v>
+        <v>45596.4672337963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13874,7 +13884,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13911,14 +13921,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 6379-2026</t>
+          <t>A 54126-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46055</v>
+        <v>45964.45715277778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13931,7 +13941,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13968,14 +13978,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 7448-2026</t>
+          <t>A 55830-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46059.46386574074</v>
+        <v>45972</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13987,13 +13997,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14030,14 +14035,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 7466-2026</t>
+          <t>A 56211-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46059.48324074074</v>
+        <v>45974.47729166667</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14049,13 +14054,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>6.4</v>
+        <v>2.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14092,14 +14092,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 7545-2026</t>
+          <t>A 56208-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46059.65075231482</v>
+        <v>45974.47333333334</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14149,14 +14149,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 29192-2024</t>
+          <t>A 56196-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45482</v>
+        <v>45974.45112268518</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>4</v>
+        <v>6.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14206,14 +14206,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 67875-2021</t>
+          <t>A 58226-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44525</v>
+        <v>45985.37508101852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>15.5</v>
+        <v>2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14263,14 +14263,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 50261-2023</t>
+          <t>A 58251-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45216.37878472222</v>
+        <v>45985.39645833334</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14320,14 +14320,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 38983-2024</t>
+          <t>A 880-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45548.39829861111</v>
+        <v>46029</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14377,14 +14377,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 29327-2024</t>
+          <t>A 1608-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45483.43834490741</v>
+        <v>46034.46770833333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14434,14 +14434,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 56602-2023</t>
+          <t>A 2322-2026</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45243.6625</v>
+        <v>46036.60327546296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14491,14 +14491,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 12238-2025</t>
+          <t>A 2324-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45729.58333333334</v>
+        <v>46036.60572916667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>10.6</v>
+        <v>2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14548,14 +14548,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 41072-2023</t>
+          <t>A 1945-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45170</v>
+        <v>46035.59709490741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>7.8</v>
+        <v>0.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14605,14 +14605,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 3391-2024</t>
+          <t>A 59902-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45318</v>
+        <v>45993.34480324074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14624,13 +14624,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14667,14 +14662,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 52902-2024</t>
+          <t>A 57663-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45610.68715277778</v>
+        <v>45981.42303240741</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14687,7 +14682,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14724,14 +14719,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 20968-2023</t>
+          <t>A 61413-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45061</v>
+        <v>46000</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14744,7 +14739,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14781,14 +14776,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 22560-2023</t>
+          <t>A 61898-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45071.44758101852</v>
+        <v>46003.46565972222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14801,7 +14796,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14838,14 +14833,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 54792-2023</t>
+          <t>A 6128-2026</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45236</v>
+        <v>46054.29585648148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14858,7 +14853,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14895,14 +14890,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 45578-2024</t>
+          <t>A 6379-2026</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45578</v>
+        <v>46055</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14915,7 +14910,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14952,14 +14947,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 61249-2024</t>
+          <t>A 7545-2026</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45645.69321759259</v>
+        <v>46059.65075231482</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14972,7 +14967,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15009,14 +15004,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 38818-2024</t>
+          <t>A 7466-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45547.55392361111</v>
+        <v>46059.48324074074</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15028,8 +15023,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15063,17 +15063,17 @@
       </c>
       <c r="R241" s="2" t="inlineStr"/>
     </row>
-    <row r="242">
+    <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 45632-2024</t>
+          <t>A 7448-2026</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45579.47123842593</v>
+        <v>46059.46386574074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15087,11 +15087,11 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15124,6 +15124,177 @@
         <v>0</v>
       </c>
       <c r="R242" s="2" t="inlineStr"/>
+    </row>
+    <row r="243" ht="15" customHeight="1">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>A 8058-2026</t>
+        </is>
+      </c>
+      <c r="B243" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="C243" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R243" s="2" t="inlineStr"/>
+    </row>
+    <row r="244" ht="15" customHeight="1">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>A 8060-2026</t>
+        </is>
+      </c>
+      <c r="B244" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="C244" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R244" s="2" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>A 8051-2026</t>
+        </is>
+      </c>
+      <c r="B245" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="C245" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45135</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44327</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45720.54828703704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44454</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>46006.48502314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,14 +1408,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 4173-2022</t>
+          <t>A 8291-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44588</v>
+        <v>44974</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>17.3</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
@@ -1467,391 +1467,391 @@
         </is>
       </c>
       <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 8291-2023 artfynd.xlsx", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 8291-2023 karta.png", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 8291-2023 FSC-klagomål.docx", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 8291-2023 FSC-klagomål mail.docx", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 8291-2023 tillsynsbegäran.docx", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 8291-2023 tillsynsbegäran mail.docx", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 8291-2023 prioriterade fågelarter.docx", "A 8291-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 48687-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45936.60298611111</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Backstarr
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 48687-2025 artfynd.xlsx", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 48687-2025 karta.png", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 48687-2025 FSC-klagomål.docx", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 48687-2025 FSC-klagomål mail.docx", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 48687-2025 tillsynsbegäran.docx", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 48687-2025 tillsynsbegäran mail.docx", "A 48687-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 50437-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45944.71523148148</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 50437-2025 artfynd.xlsx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 50437-2025 karta.png", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 50437-2025 FSC-klagomål.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 50437-2025 FSC-klagomål mail.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 50437-2025 tillsynsbegäran.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 50437-2025 tillsynsbegäran mail.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 50437-2025 prioriterade fågelarter.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 4173-2022</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 4173-2022 artfynd.xlsx", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 4173-2022 karta.png", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 4173-2022 FSC-klagomål.docx", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 4173-2022 FSC-klagomål mail.docx", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 4173-2022 tillsynsbegäran.docx", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 4173-2022 tillsynsbegäran mail.docx", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 4173-2022 prioriterade fågelarter.docx", "A 4173-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 59406-2024</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45638.38912037037</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G15" t="n">
         <v>11.9</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>2</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>2</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P15" t="n">
         <v>2</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q15" t="n">
         <v>2</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Hasselsnok
 Sandödla</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 59406-2024 artfynd.xlsx", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 59406-2024 karta.png", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 59406-2024 FSC-klagomål.docx", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 59406-2024 FSC-klagomål mail.docx", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 59406-2024 tillsynsbegäran.docx", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 59406-2024 tillsynsbegäran mail.docx", "A 59406-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 8291-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44974</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 8291-2023 artfynd.xlsx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 8291-2023 karta.png", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 8291-2023 FSC-klagomål.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 8291-2023 FSC-klagomål mail.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 8291-2023 tillsynsbegäran.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 8291-2023 tillsynsbegäran mail.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 8291-2023 prioriterade fågelarter.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 48687-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45936.60298611111</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Backstarr
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 48687-2025 artfynd.xlsx", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 48687-2025 karta.png", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 48687-2025 FSC-klagomål.docx", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 48687-2025 FSC-klagomål mail.docx", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 48687-2025 tillsynsbegäran.docx", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 48687-2025 tillsynsbegäran mail.docx", "A 48687-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 50437-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45944.71523148148</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 50437-2025 artfynd.xlsx", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 50437-2025 karta.png", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 50437-2025 FSC-klagomål.docx", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 50437-2025 FSC-klagomål mail.docx", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 50437-2025 tillsynsbegäran.docx", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 50437-2025 tillsynsbegäran mail.docx", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 50437-2025 prioriterade fågelarter.docx", "A 50437-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44571</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,14 +2025,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 53485-2023</t>
+          <t>A 9947-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45230</v>
+        <v>44252</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2054,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2072,486 +2072,486 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="U18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 9001-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45713</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9001-2025 artfynd.xlsx", "A 9001-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9001-2025 karta.png", "A 9001-2025")</f>
+        <v/>
+      </c>
+      <c r="U19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9001-2025 karta knärot.png", "A 9001-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9001-2025 FSC-klagomål.docx", "A 9001-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9001-2025 FSC-klagomål mail.docx", "A 9001-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9001-2025 tillsynsbegäran.docx", "A 9001-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9001-2025 tillsynsbegäran mail.docx", "A 9001-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 7778-2021</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44242</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Strutbräken</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 7778-2021 artfynd.xlsx", "A 7778-2021")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 7778-2021 karta.png", "A 7778-2021")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 7778-2021 FSC-klagomål.docx", "A 7778-2021")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 7778-2021 FSC-klagomål mail.docx", "A 7778-2021")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 7778-2021 tillsynsbegäran.docx", "A 7778-2021")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 7778-2021 tillsynsbegäran mail.docx", "A 7778-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 53485-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 53485-2023 artfynd.xlsx", "A 53485-2023")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 53485-2023 karta.png", "A 53485-2023")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 53485-2023 FSC-klagomål.docx", "A 53485-2023")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 53485-2023 FSC-klagomål mail.docx", "A 53485-2023")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 53485-2023 tillsynsbegäran.docx", "A 53485-2023")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 53485-2023 tillsynsbegäran mail.docx", "A 53485-2023")</f>
         <v/>
       </c>
-      <c r="Z18">
+      <c r="Z21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 53485-2023 prioriterade fågelarter.docx", "A 53485-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 7778-2021</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>44242</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 56318-2025</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45974</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Strutbräken</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 7778-2021 artfynd.xlsx", "A 7778-2021")</f>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 56318-2025 artfynd.xlsx", "A 56318-2025")</f>
         <v/>
       </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 7778-2021 karta.png", "A 7778-2021")</f>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 56318-2025 karta.png", "A 56318-2025")</f>
         <v/>
       </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 7778-2021 FSC-klagomål.docx", "A 7778-2021")</f>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 56318-2025 FSC-klagomål.docx", "A 56318-2025")</f>
         <v/>
       </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 7778-2021 FSC-klagomål mail.docx", "A 7778-2021")</f>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 56318-2025 FSC-klagomål mail.docx", "A 56318-2025")</f>
         <v/>
       </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 7778-2021 tillsynsbegäran.docx", "A 7778-2021")</f>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 56318-2025 tillsynsbegäran.docx", "A 56318-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 7778-2021 tillsynsbegäran mail.docx", "A 7778-2021")</f>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 56318-2025 tillsynsbegäran mail.docx", "A 56318-2025")</f>
         <v/>
       </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 9001-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45713</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 56318-2025 prioriterade fågelarter.docx", "A 56318-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 9947-2021</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44252</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9001-2025 artfynd.xlsx", "A 9001-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9001-2025 karta.png", "A 9001-2025")</f>
-        <v/>
-      </c>
-      <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9001-2025 karta knärot.png", "A 9001-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9001-2025 FSC-klagomål.docx", "A 9001-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9001-2025 FSC-klagomål mail.docx", "A 9001-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9001-2025 tillsynsbegäran.docx", "A 9001-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9001-2025 tillsynsbegäran mail.docx", "A 9001-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 9947-2021</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>44252</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S21">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
         <v/>
       </c>
-      <c r="U21">
+      <c r="U23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 9947-2021</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>44252</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="U22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 56318-2025</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45974</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>6</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 56318-2025 artfynd.xlsx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 56318-2025 karta.png", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 56318-2025 FSC-klagomål.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 56318-2025 FSC-klagomål mail.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 56318-2025 tillsynsbegäran.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 56318-2025 tillsynsbegäran mail.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 56318-2025 prioriterade fågelarter.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44651</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44865.65704861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44242</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44533</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>44585</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44865.43612268518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44256</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>44511.56693287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3125,14 +3125,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 50020-2022</t>
+          <t>A 61896-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44865</v>
+        <v>44499</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3182,14 +3182,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 30731-2022</t>
+          <t>A 59872-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44764.40619212963</v>
+        <v>44494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3239,14 +3239,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 14549-2021</t>
+          <t>A 68243-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44279</v>
+        <v>44525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3296,14 +3296,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 35320-2021</t>
+          <t>A 50202-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44384.73966435185</v>
+        <v>44457</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3353,14 +3353,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 64020-2021</t>
+          <t>A 7329-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44510</v>
+        <v>44606</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3410,14 +3410,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 50202-2021</t>
+          <t>A 46436-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44457</v>
+        <v>44848.46362268519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3429,8 +3429,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3467,14 +3472,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 68392-2021</t>
+          <t>A 20973-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44526</v>
+        <v>44318</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3487,7 +3492,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3524,14 +3529,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 46724-2022</t>
+          <t>A 50020-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44851</v>
+        <v>44865</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3544,7 +3549,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3581,14 +3586,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 61896-2021</t>
+          <t>A 14549-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44499</v>
+        <v>44279</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3606,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3638,14 +3643,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 23819-2022</t>
+          <t>A 30731-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44722</v>
+        <v>44764.40619212963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3663,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3695,14 +3700,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 25545-2021</t>
+          <t>A 64020-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44343.32159722222</v>
+        <v>44510</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3720,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3752,14 +3757,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10252-2021</t>
+          <t>A 68392-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44256</v>
+        <v>44526</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3777,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3809,14 +3814,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 59872-2021</t>
+          <t>A 46724-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44494</v>
+        <v>44851</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3834,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3866,14 +3871,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 7329-2022</t>
+          <t>A 23819-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44606</v>
+        <v>44722</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3886,7 +3891,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3923,14 +3928,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 68243-2021</t>
+          <t>A 35320-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44525</v>
+        <v>44384.73966435185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3943,7 +3948,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3980,14 +3985,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49242-2021</t>
+          <t>A 25545-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44453</v>
+        <v>44343.32159722222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4000,7 +4005,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4037,14 +4042,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 17330-2021</t>
+          <t>A 49242-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44298</v>
+        <v>44453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4057,7 +4062,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7.4</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4094,14 +4099,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20340-2022</t>
+          <t>A 17330-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44699</v>
+        <v>44298</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4114,7 +4119,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.7</v>
+        <v>7.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4151,14 +4156,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 70164-2021</t>
+          <t>A 10252-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44533</v>
+        <v>44256</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4171,7 +4176,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4208,14 +4213,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 25790-2021</t>
+          <t>A 20340-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44343.83640046296</v>
+        <v>44699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4228,7 +4233,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4265,14 +4270,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 25795-2021</t>
+          <t>A 70164-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44343</v>
+        <v>44533</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4285,7 +4290,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4329,7 +4334,7 @@
         <v>44494</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4379,14 +4384,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 50034-2022</t>
+          <t>A 25790-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44865.45782407407</v>
+        <v>44343.83640046296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4399,7 +4404,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4436,14 +4441,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 72625-2021</t>
+          <t>A 25795-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44546.55005787037</v>
+        <v>44343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4456,7 +4461,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4500,7 +4505,7 @@
         <v>44588</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4550,14 +4555,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30701-2022</t>
+          <t>A 53761-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44763</v>
+        <v>45615.50958333333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4570,7 +4575,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4607,14 +4612,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 50234-2024</t>
+          <t>A 61626-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45600.55275462963</v>
+        <v>45646.66194444444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4627,7 +4632,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4664,14 +4669,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 31388-2022</t>
+          <t>A 3178-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44774.62195601852</v>
+        <v>45316</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4683,8 +4688,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>8.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4721,14 +4731,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 12945-2024</t>
+          <t>A 52262-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45385.47545138889</v>
+        <v>45217</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4741,7 +4751,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6.1</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4778,14 +4788,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 44408-2021</t>
+          <t>A 12945-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44435</v>
+        <v>45385.47545138889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4798,7 +4808,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4835,14 +4845,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 994-2024</t>
+          <t>A 33772-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45301.62427083333</v>
+        <v>45133</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4855,7 +4865,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4892,14 +4902,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 29327-2024</t>
+          <t>A 16989-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45483.43834490741</v>
+        <v>45033</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4911,8 +4921,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4949,14 +4964,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 15667-2024</t>
+          <t>A 44883-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45404</v>
+        <v>44438.61731481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4969,7 +4984,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5006,14 +5021,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 41991-2022</t>
+          <t>A 55712-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44830.44231481481</v>
+        <v>44885</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5026,7 +5041,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5063,14 +5078,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 44523-2023</t>
+          <t>A 10470-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45189.4774537037</v>
+        <v>45366.38853009259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5083,7 +5098,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5120,14 +5135,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 3187-2024</t>
+          <t>A 19492-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45316.65596064815</v>
+        <v>44312</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5139,13 +5154,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5182,14 +5192,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 12238-2025</t>
+          <t>A 11897-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45729.58333333334</v>
+        <v>45728.46913194445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5212,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>10.6</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5239,14 +5249,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 57989-2022</t>
+          <t>A 29329-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44892</v>
+        <v>45483.44387731481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5269,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5296,14 +5306,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 55712-2022</t>
+          <t>A 6379-2026</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44885</v>
+        <v>46055</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5353,14 +5363,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10764-2024</t>
+          <t>A 61252-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45369.56681712963</v>
+        <v>45645.69790509259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5383,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>8.300000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5417,7 +5427,7 @@
         <v>45548.42012731481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5467,14 +5477,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 38983-2024</t>
+          <t>A 7448-2026</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45548.39829861111</v>
+        <v>46059.46386574074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5486,8 +5496,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5524,14 +5539,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 46371-2022</t>
+          <t>A 24348-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44848</v>
+        <v>45797</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5543,13 +5558,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5586,14 +5596,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 46436-2022</t>
+          <t>A 7466-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44848.46362268519</v>
+        <v>46059.48324074074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5611,7 +5621,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>6.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5648,14 +5658,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 42239-2024</t>
+          <t>A 7545-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45562.56358796296</v>
+        <v>46059.65075231482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5668,7 +5678,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5705,14 +5715,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 54374-2022</t>
+          <t>A 30701-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44879</v>
+        <v>44763</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5725,7 +5735,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5762,14 +5772,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 24514-2024</t>
+          <t>A 49554-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45458</v>
+        <v>45596.4672337963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5782,7 +5792,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5819,14 +5829,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 20973-2021</t>
+          <t>A 52950-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44318</v>
+        <v>44875.65717592592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5839,7 +5849,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5876,14 +5886,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 13109-2023</t>
+          <t>A 26233-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45002</v>
+        <v>45805.5666087963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5895,8 +5905,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5933,14 +5948,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 56130-2022</t>
+          <t>A 40369-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44886</v>
+        <v>45555.39053240741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5953,7 +5968,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.2</v>
+        <v>14.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5990,14 +6005,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 33747-2023</t>
+          <t>A 26270-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45133.39594907407</v>
+        <v>45805.59357638889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6010,7 +6025,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6047,14 +6062,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 21333-2024</t>
+          <t>A 18043-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45440</v>
+        <v>44301</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6067,7 +6082,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.4</v>
+        <v>6.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6104,14 +6119,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 29195-2024</t>
+          <t>A 8051-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45482</v>
+        <v>46063</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6124,7 +6139,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6161,14 +6176,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 33118-2023</t>
+          <t>A 8058-2026</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45126.59351851852</v>
+        <v>46063</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6181,7 +6196,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6218,14 +6233,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 33131-2023</t>
+          <t>A 15552-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45126</v>
+        <v>45018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6238,7 +6253,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6275,14 +6290,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 56602-2023</t>
+          <t>A 13890-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45243.6625</v>
+        <v>44649</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6295,7 +6310,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6332,14 +6347,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 26233-2025</t>
+          <t>A 8060-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45805.5666087963</v>
+        <v>46063</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6351,13 +6366,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6394,14 +6404,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26270-2025</t>
+          <t>A 44529-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45805.59357638889</v>
+        <v>45189</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6414,7 +6424,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6451,14 +6461,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 13890-2022</t>
+          <t>A 57989-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44649</v>
+        <v>44892</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6471,7 +6481,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6508,14 +6518,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7136-2022</t>
+          <t>A 16216-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44603</v>
+        <v>45750.63079861111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6528,7 +6538,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6565,14 +6575,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 15552-2023</t>
+          <t>A 55733-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45018</v>
+        <v>45232</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6585,7 +6595,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6622,14 +6632,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 15695-2025</t>
+          <t>A 35113-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45748.46914351852</v>
+        <v>44384.37240740741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6642,7 +6652,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6679,14 +6689,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 50601-2024</t>
+          <t>A 28586-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45600</v>
+        <v>45819.5812037037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6709,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6736,14 +6746,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 67875-2021</t>
+          <t>A 29308-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44525</v>
+        <v>45824.46103009259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6766,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>15.5</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6793,14 +6803,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 16363-2024</t>
+          <t>A 42239-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45407.59325231481</v>
+        <v>45562.56358796296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6813,7 +6823,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6850,14 +6860,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 45578-2024</t>
+          <t>A 9590-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45578</v>
+        <v>44251</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6870,7 +6880,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6907,14 +6917,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 13325-2022</t>
+          <t>A 29300-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44645.34487268519</v>
+        <v>45824.45552083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6927,7 +6937,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6964,14 +6974,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 28586-2025</t>
+          <t>A 52852-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45819.5812037037</v>
+        <v>45610.60664351852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6984,7 +6994,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7.1</v>
+        <v>2.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7021,14 +7031,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 9590-2021</t>
+          <t>A 40383-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44251</v>
+        <v>45895</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7041,7 +7051,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7078,14 +7088,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 29300-2025</t>
+          <t>A 25884-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45824.45552083333</v>
+        <v>45085</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7098,7 +7108,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7135,14 +7145,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 29308-2025</t>
+          <t>A 40430-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45824.46103009259</v>
+        <v>45895</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7155,7 +7165,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7192,14 +7202,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 41072-2023</t>
+          <t>A 31917-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45170</v>
+        <v>45834</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7212,7 +7222,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.8</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7249,14 +7259,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 2231-2023</t>
+          <t>A 50603-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44942</v>
+        <v>45600</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7269,7 +7279,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7306,14 +7316,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 10470-2024</t>
+          <t>A 33559-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45366.38853009259</v>
+        <v>45841.57549768518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7326,7 +7336,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7363,14 +7373,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 59383-2024</t>
+          <t>A 33566-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45638.35758101852</v>
+        <v>45841.58208333333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7382,13 +7392,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7425,14 +7430,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 40369-2024</t>
+          <t>A 33560-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45555.39053240741</v>
+        <v>45841.57739583333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7445,7 +7450,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>14.5</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7482,14 +7487,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 52902-2024</t>
+          <t>A 37092-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45610.68715277778</v>
+        <v>45539.49989583333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7502,7 +7507,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>6.8</v>
+        <v>2.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7539,14 +7544,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 15559-2023</t>
+          <t>A 33564-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45019</v>
+        <v>45841.57973379629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7559,7 +7564,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7596,14 +7601,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 10457-2023</t>
+          <t>A 33569-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44987</v>
+        <v>45841.58334490741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7616,7 +7621,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.6</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7653,14 +7658,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 48071-2024</t>
+          <t>A 33586-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45589</v>
+        <v>45841.59465277778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7673,7 +7678,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7710,14 +7715,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 61247-2024</t>
+          <t>A 33555-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45645.69128472222</v>
+        <v>45841.57423611111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7730,7 +7735,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7767,14 +7772,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 31917-2025</t>
+          <t>A 20476-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45834</v>
+        <v>45057.34075231481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7787,7 +7792,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7824,14 +7829,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 9983-2022</t>
+          <t>A 33536-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44621.43550925926</v>
+        <v>45841.55890046297</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7844,7 +7849,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.9</v>
+        <v>6.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7881,14 +7886,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 20968-2023</t>
+          <t>A 33580-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45061</v>
+        <v>45841.59407407408</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7901,7 +7906,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7938,14 +7943,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 52262-2023</t>
+          <t>A 26277-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45217</v>
+        <v>45805.60436342593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7995,14 +8000,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 33559-2025</t>
+          <t>A 40652-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45841.57549768518</v>
+        <v>45557</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8015,7 +8020,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8052,14 +8057,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 38818-2024</t>
+          <t>A 15667-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45547.55392361111</v>
+        <v>45404</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8072,7 +8077,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8109,14 +8114,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 33560-2025</t>
+          <t>A 50401-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45841.57739583333</v>
+        <v>44459</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8129,7 +8134,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8166,14 +8171,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 33555-2025</t>
+          <t>A 56024-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45841.57423611111</v>
+        <v>45240</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8186,7 +8191,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8223,14 +8228,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 33566-2025</t>
+          <t>A 50601-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45841.58208333333</v>
+        <v>45600</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8243,7 +8248,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8280,14 +8285,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 33564-2025</t>
+          <t>A 41991-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45841.57973379629</v>
+        <v>44830.44231481481</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8300,7 +8305,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8337,14 +8342,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 33569-2025</t>
+          <t>A 64707-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45841.58334490741</v>
+        <v>45281</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,8 +8361,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>11.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8390,18 +8400,38 @@
         <v>0</v>
       </c>
       <c r="R125" s="2" t="inlineStr"/>
+      <c r="U125">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 64707-2023 karta knärot.png", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="V125">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 64707-2023 FSC-klagomål.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="W125">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 64707-2023 FSC-klagomål mail.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="X125">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 64707-2023 tillsynsbegäran.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="Y125">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 64707-2023 tillsynsbegäran mail.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 33586-2025</t>
+          <t>A 3187-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45841.59465277778</v>
+        <v>45316.65596064815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,8 +8443,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8451,14 +8486,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 8047-2024</t>
+          <t>A 42823-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45351.32293981482</v>
+        <v>45908.57429398148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8471,7 +8506,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8508,14 +8543,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 33580-2025</t>
+          <t>A 16223-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45841.59407407408</v>
+        <v>45750.63945601852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8528,7 +8563,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>7.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8565,14 +8600,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 33772-2023</t>
+          <t>A 42736-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45133</v>
+        <v>45908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8585,7 +8620,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8622,14 +8657,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 26277-2025</t>
+          <t>A 46371-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45805.60436342593</v>
+        <v>44848</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,8 +8676,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8679,14 +8719,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 25884-2023</t>
+          <t>A 59383-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45085</v>
+        <v>45638.35758101852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,8 +8738,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8736,14 +8781,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 60220-2022</t>
+          <t>A 33745-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44903</v>
+        <v>45133.39075231482</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8756,7 +8801,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>8.300000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8793,14 +8838,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 33536-2025</t>
+          <t>A 43550-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45841.55890046297</v>
+        <v>45911.61836805556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8813,7 +8858,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8850,14 +8895,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 54007-2024</t>
+          <t>A 37311-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45615</v>
+        <v>45876.59644675926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8870,7 +8915,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8907,14 +8952,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 18043-2021</t>
+          <t>A 28430-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44301</v>
+        <v>45477</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8927,7 +8972,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8964,14 +9009,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 20888-2022</t>
+          <t>A 17525-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44701</v>
+        <v>45757.5817824074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8984,7 +9029,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9021,14 +9066,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 53761-2024</t>
+          <t>A 5326-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45615.50958333333</v>
+        <v>45331.41356481481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9041,7 +9086,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9078,14 +9123,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 16989-2023</t>
+          <t>A 10764-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45033</v>
+        <v>45369.56681712963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9097,13 +9142,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9140,14 +9180,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 44529-2023</t>
+          <t>A 44319-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45189</v>
+        <v>45916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9160,7 +9200,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9197,14 +9237,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 45617-2024</t>
+          <t>A 2982-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45579.45523148148</v>
+        <v>45678.51011574074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9217,7 +9257,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9254,14 +9294,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 33745-2023</t>
+          <t>A 60768-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45133.39075231482</v>
+        <v>44907</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9274,7 +9314,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.3</v>
+        <v>10</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9311,14 +9351,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 54792-2023</t>
+          <t>A 45540-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45236</v>
+        <v>45922.61466435185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9331,7 +9371,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9368,14 +9408,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 16223-2025</t>
+          <t>A 20888-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45750.63945601852</v>
+        <v>44701</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9388,7 +9428,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9425,14 +9465,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 37311-2025</t>
+          <t>A 46907-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45876.59644675926</v>
+        <v>45929.40480324074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9445,7 +9485,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9482,14 +9522,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 11891-2025</t>
+          <t>A 18043-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45728.46309027778</v>
+        <v>44301</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9502,7 +9542,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9539,14 +9579,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 3391-2024</t>
+          <t>A 45617-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45318</v>
+        <v>45579.45523148148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9558,13 +9598,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9601,14 +9636,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 29329-2024</t>
+          <t>A 47882-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45483.44387731481</v>
+        <v>45932.46203703704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9621,7 +9656,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9658,14 +9693,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 21061-2022</t>
+          <t>A 48688-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44704</v>
+        <v>45936.60555555556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9678,7 +9713,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9715,14 +9750,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 55733-2023</t>
+          <t>A 9983-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45232</v>
+        <v>44621.43550925926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9735,7 +9770,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9772,14 +9807,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 16216-2025</t>
+          <t>A 33131-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45750.63079861111</v>
+        <v>45126</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9792,7 +9827,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9829,14 +9864,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 2982-2025</t>
+          <t>A 24514-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45678.51011574074</v>
+        <v>45458</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9849,7 +9884,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9886,14 +9921,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 20476-2023</t>
+          <t>A 31388-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45057.34075231481</v>
+        <v>44774.62195601852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9906,7 +9941,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9943,14 +9978,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 19134-2025</t>
+          <t>A 29195-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45764</v>
+        <v>45482</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9963,7 +9998,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10000,14 +10035,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 28430-2024</t>
+          <t>A 994-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45477</v>
+        <v>45301.62427083333</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10020,7 +10055,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10057,14 +10092,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 50261-2023</t>
+          <t>A 50057-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45216.37878472222</v>
+        <v>45942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10077,7 +10112,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10114,14 +10149,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 50401-2021</t>
+          <t>A 50626-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44459</v>
+        <v>45945.63623842593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10133,8 +10168,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>14</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10171,14 +10211,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 64707-2023</t>
+          <t>A 50432-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45281</v>
+        <v>45944.69248842593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10190,13 +10230,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>11.9</v>
+        <v>4.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10229,38 +10264,18 @@
         <v>0</v>
       </c>
       <c r="R157" s="2" t="inlineStr"/>
-      <c r="U157">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 64707-2023 karta knärot.png", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="V157">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 64707-2023 FSC-klagomål.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="W157">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 64707-2023 FSC-klagomål mail.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="X157">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 64707-2023 tillsynsbegäran.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="Y157">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 64707-2023 tillsynsbegäran mail.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 989-2024</t>
+          <t>A 50579-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45301</v>
+        <v>45945.58449074074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10273,7 +10288,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10310,14 +10325,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 11897-2025</t>
+          <t>A 50589-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45728.46913194445</v>
+        <v>45945.600625</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10330,7 +10345,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10367,14 +10382,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 22560-2023</t>
+          <t>A 50606-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45071.44758101852</v>
+        <v>45945.6171412037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10387,7 +10402,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10424,14 +10439,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 18043-2021</t>
+          <t>A 50607-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44301</v>
+        <v>45945.61997685185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10444,7 +10459,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>6.1</v>
+        <v>14.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10481,14 +10496,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 50259-2023</t>
+          <t>A 50578-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45216.3775</v>
+        <v>45945.58215277778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10501,7 +10516,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10538,14 +10553,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 17525-2025</t>
+          <t>A 50797-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45757.5817824074</v>
+        <v>45946.48350694445</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10558,7 +10573,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10595,14 +10610,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 29192-2024</t>
+          <t>A 44408-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45482</v>
+        <v>44435</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10615,7 +10630,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10652,14 +10667,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 57768-2022</t>
+          <t>A 51427-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44892</v>
+        <v>45949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10672,7 +10687,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10709,14 +10724,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 19492-2021</t>
+          <t>A 51432-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44312</v>
+        <v>45949</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10729,7 +10744,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10766,14 +10781,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 61252-2024</t>
+          <t>A 51429-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45645.69790509259</v>
+        <v>45949</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10786,7 +10801,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10823,14 +10838,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 56024-2023</t>
+          <t>A 10457-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45240</v>
+        <v>44987</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10843,7 +10858,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10880,14 +10895,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 5326-2024</t>
+          <t>A 50034-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45331.41356481481</v>
+        <v>44865.45782407407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10900,7 +10915,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10937,14 +10952,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 56677-2023</t>
+          <t>A 52833-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45243.9177199074</v>
+        <v>45957.47081018519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10994,14 +11009,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 40430-2025</t>
+          <t>A 57768-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45895</v>
+        <v>44892</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11014,7 +11029,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11051,14 +11066,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 40383-2025</t>
+          <t>A 54126-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45895</v>
+        <v>45964.45715277778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11071,7 +11086,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11108,14 +11123,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 35113-2021</t>
+          <t>A 2231-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44384.37240740741</v>
+        <v>44942</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11128,7 +11143,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11165,14 +11180,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 40652-2024</t>
+          <t>A 16363-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45557</v>
+        <v>45407.59325231481</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11185,7 +11200,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11222,14 +11237,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 37092-2024</t>
+          <t>A 15704-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45539.49989583333</v>
+        <v>45748.4815162037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11242,7 +11257,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11279,14 +11294,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 44883-2021</t>
+          <t>A 72625-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44438.61731481482</v>
+        <v>44546.55005787037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11299,7 +11314,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11336,14 +11351,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 60768-2022</t>
+          <t>A 55830-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44907</v>
+        <v>45972</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11356,7 +11371,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>10</v>
+        <v>5.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11393,14 +11408,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 52950-2022</t>
+          <t>A 19134-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44875.65717592592</v>
+        <v>45764</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11450,14 +11465,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 52852-2024</t>
+          <t>A 56196-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45610.60664351852</v>
+        <v>45974.45112268518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11470,7 +11485,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.9</v>
+        <v>6.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11507,14 +11522,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 15704-2025</t>
+          <t>A 56211-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45748.4815162037</v>
+        <v>45974.47729166667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11527,7 +11542,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11564,14 +11579,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 42736-2025</t>
+          <t>A 56208-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45908</v>
+        <v>45974.47333333334</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11584,7 +11599,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11621,14 +11636,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 61626-2024</t>
+          <t>A 33118-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45646.66194444444</v>
+        <v>45126.59351851852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11641,7 +11656,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>7.3</v>
+        <v>0.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11678,14 +11693,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 42823-2025</t>
+          <t>A 38988-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45908.57429398148</v>
+        <v>45548.40613425926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11698,7 +11713,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11735,14 +11750,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 3178-2024</t>
+          <t>A 60220-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45316</v>
+        <v>44903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11754,13 +11769,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11797,14 +11807,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 61249-2024</t>
+          <t>A 11891-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45645.69321759259</v>
+        <v>45728.46309027778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11817,7 +11827,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11854,14 +11864,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 38988-2024</t>
+          <t>A 48071-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45548.40613425926</v>
+        <v>45589</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11874,7 +11884,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11911,14 +11921,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 45632-2024</t>
+          <t>A 15559-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45579.47123842593</v>
+        <v>45019</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11930,13 +11940,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>9.5</v>
+        <v>5.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11973,14 +11978,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 50603-2024</t>
+          <t>A 54007-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45600</v>
+        <v>45615</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11993,7 +11998,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12030,14 +12035,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 43550-2025</t>
+          <t>A 58226-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45911.61836805556</v>
+        <v>45985.37508101852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12050,7 +12055,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12087,14 +12092,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 44319-2025</t>
+          <t>A 33747-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45916</v>
+        <v>45133.39594907407</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12107,7 +12112,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12144,14 +12149,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 61250-2024</t>
+          <t>A 58251-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45645.69521990741</v>
+        <v>45985.39645833334</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12164,7 +12169,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12201,14 +12206,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 59396-2024</t>
+          <t>A 880-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45638.37623842592</v>
+        <v>46029</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12220,13 +12225,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12263,14 +12263,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 24991-2023</t>
+          <t>A 44523-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45085</v>
+        <v>45189.4774537037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12320,14 +12320,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 45540-2025</t>
+          <t>A 1945-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45922.61466435185</v>
+        <v>46035.59709490741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12377,14 +12377,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 46532-2024</t>
+          <t>A 59902-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45582.63861111111</v>
+        <v>45993.34480324074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12434,14 +12434,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 49551-2024</t>
+          <t>A 1608-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45596.4597337963</v>
+        <v>46034.46770833333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12491,14 +12491,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 46907-2025</t>
+          <t>A 59396-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45929.40480324074</v>
+        <v>45638.37623842592</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12510,8 +12510,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>2.4</v>
+        <v>5.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12548,14 +12553,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 47882-2025</t>
+          <t>A 2322-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45932.46203703704</v>
+        <v>46036.60327546296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12568,7 +12573,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12605,14 +12610,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 48688-2025</t>
+          <t>A 2324-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45936.60555555556</v>
+        <v>46036.60572916667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12625,7 +12630,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12662,14 +12667,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 23012-2025</t>
+          <t>A 61247-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45790</v>
+        <v>45645.69128472222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12682,7 +12687,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12719,14 +12724,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 50432-2025</t>
+          <t>A 8047-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45944.69248842593</v>
+        <v>45351.32293981482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12739,7 +12744,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12776,14 +12781,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 50057-2025</t>
+          <t>A 13109-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45942</v>
+        <v>45002</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12796,7 +12801,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12833,14 +12838,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 9695-2025</t>
+          <t>A 21333-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45716.37232638889</v>
+        <v>45440</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12853,7 +12858,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12890,14 +12895,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 14079-2025</t>
+          <t>A 61413-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45739</v>
+        <v>46000</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12910,7 +12915,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12947,14 +12952,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 50626-2025</t>
+          <t>A 57663-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45945.63623842593</v>
+        <v>45981.42303240741</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12966,13 +12971,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13009,14 +13009,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 50579-2025</t>
+          <t>A 29192-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45945.58449074074</v>
+        <v>45482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13066,14 +13066,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 12779-2025</t>
+          <t>A 67875-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45733.59574074074</v>
+        <v>44525</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>10.1</v>
+        <v>15.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13123,14 +13123,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 50589-2025</t>
+          <t>A 61898-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45945.600625</v>
+        <v>46003.46565972222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13180,14 +13180,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 50606-2025</t>
+          <t>A 50261-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45945.6171412037</v>
+        <v>45216.37878472222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>6.7</v>
+        <v>0.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13237,14 +13237,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 50607-2025</t>
+          <t>A 6128-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45945.61997685185</v>
+        <v>46054.29585648148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>14.5</v>
+        <v>1.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13294,14 +13294,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 50578-2025</t>
+          <t>A 38983-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45945.58215277778</v>
+        <v>45548.39829861111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13351,14 +13351,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 50797-2025</t>
+          <t>A 29327-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45946.48350694445</v>
+        <v>45483.43834490741</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13408,14 +13408,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 9698-2025</t>
+          <t>A 56602-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45716.37402777778</v>
+        <v>45243.6625</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13465,14 +13465,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 11931-2025</t>
+          <t>A 12238-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45728.5212962963</v>
+        <v>45729.58333333334</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.9</v>
+        <v>10.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13522,14 +13522,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 14087-2025</t>
+          <t>A 41072-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45739</v>
+        <v>45170</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>7.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13579,14 +13579,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 51427-2025</t>
+          <t>A 3391-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45949</v>
+        <v>45318</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13598,8 +13598,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13636,14 +13641,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 51429-2025</t>
+          <t>A 52902-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45949</v>
+        <v>45610.68715277778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13656,7 +13661,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.9</v>
+        <v>6.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13693,14 +13698,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 51432-2025</t>
+          <t>A 20968-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45949</v>
+        <v>45061</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13713,7 +13718,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13750,14 +13755,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 52833-2025</t>
+          <t>A 22560-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45957.47081018519</v>
+        <v>45071.44758101852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13770,7 +13775,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13807,14 +13812,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 24348-2025</t>
+          <t>A 54792-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45797</v>
+        <v>45236</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13827,7 +13832,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.4</v>
+        <v>5.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13864,14 +13869,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 49554-2024</t>
+          <t>A 45578-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45596.4672337963</v>
+        <v>45578</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13884,7 +13889,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13921,14 +13926,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 54126-2025</t>
+          <t>A 61249-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45964.45715277778</v>
+        <v>45645.69321759259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13941,7 +13946,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13978,14 +13983,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 55830-2025</t>
+          <t>A 38818-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45972</v>
+        <v>45547.55392361111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13998,7 +14003,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14035,14 +14040,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 56211-2025</t>
+          <t>A 45632-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45974.47729166667</v>
+        <v>45579.47123842593</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14054,8 +14059,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>2.2</v>
+        <v>9.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14092,14 +14102,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 56208-2025</t>
+          <t>A 7136-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45974.47333333334</v>
+        <v>44603</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14112,7 +14122,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14149,14 +14159,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 56196-2025</t>
+          <t>A 24991-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45974.45112268518</v>
+        <v>45085</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14169,7 +14179,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>6.3</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14206,14 +14216,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 58226-2025</t>
+          <t>A 989-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45985.37508101852</v>
+        <v>45301</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14226,7 +14236,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14263,14 +14273,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 58251-2025</t>
+          <t>A 61250-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45985.39645833334</v>
+        <v>45645.69521990741</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14283,7 +14293,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14320,14 +14330,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 880-2026</t>
+          <t>A 13325-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46029</v>
+        <v>44645.34487268519</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14340,7 +14350,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14377,14 +14387,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 1608-2026</t>
+          <t>A 50234-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46034.46770833333</v>
+        <v>45600.55275462963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14397,7 +14407,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>7.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14434,14 +14444,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 2322-2026</t>
+          <t>A 56677-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46036.60327546296</v>
+        <v>45243.9177199074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14454,7 +14464,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14491,14 +14501,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 2324-2026</t>
+          <t>A 56130-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46036.60572916667</v>
+        <v>44886</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14511,7 +14521,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14548,14 +14558,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 1945-2026</t>
+          <t>A 21061-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46035.59709490741</v>
+        <v>44704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14568,7 +14578,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14605,14 +14615,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 59902-2025</t>
+          <t>A 54374-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45993.34480324074</v>
+        <v>44879</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14625,7 +14635,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14662,14 +14672,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 57663-2025</t>
+          <t>A 50259-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45981.42303240741</v>
+        <v>45216.3775</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14682,7 +14692,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14719,14 +14729,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 61413-2025</t>
+          <t>A 15695-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46000</v>
+        <v>45748.46914351852</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14739,7 +14749,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14776,14 +14786,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 61898-2025</t>
+          <t>A 49551-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46003.46565972222</v>
+        <v>45596.4597337963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14796,7 +14806,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14833,14 +14843,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 6128-2026</t>
+          <t>A 46532-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46054.29585648148</v>
+        <v>45582.63861111111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14853,7 +14863,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14890,14 +14900,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 6379-2026</t>
+          <t>A 12779-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46055</v>
+        <v>45733.59574074074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14910,7 +14920,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.4</v>
+        <v>10.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14947,14 +14957,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 7545-2026</t>
+          <t>A 11931-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>46059.65075231482</v>
+        <v>45728.5212962963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14967,7 +14977,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15004,14 +15014,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 7466-2026</t>
+          <t>A 14087-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46059.48324074074</v>
+        <v>45739</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15023,13 +15033,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15066,14 +15071,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 7448-2026</t>
+          <t>A 9698-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46059.46386574074</v>
+        <v>45716.37402777778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15085,13 +15090,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15128,14 +15128,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 8058-2026</t>
+          <t>A 9695-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>46063</v>
+        <v>45716.37232638889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15185,14 +15185,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 8060-2026</t>
+          <t>A 23012-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46063</v>
+        <v>45790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15242,14 +15242,14 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 8051-2026</t>
+          <t>A 14079-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>46063</v>
+        <v>45739</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z245"/>
+  <dimension ref="A1:Z243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45135</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44327</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,14 +768,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 22578-2021</t>
+          <t>A 10368-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44327</v>
+        <v>45720.54828703704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -788,39 +788,133 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Kricka
+Desmeknopp
+Gravand
+Havsörn
+Strandskata
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 10368-2025 artfynd.xlsx", "A 10368-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 10368-2025 karta.png", "A 10368-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 10368-2025 FSC-klagomål.docx", "A 10368-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 10368-2025 FSC-klagomål mail.docx", "A 10368-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 10368-2025 tillsynsbegäran.docx", "A 10368-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 10368-2025 tillsynsbegäran mail.docx", "A 10368-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 10368-2025 prioriterade fågelarter.docx", "A 10368-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 22578-2021</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44327</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Tallticka
 Granbarkgnagare
@@ -830,125 +924,31 @@
 Korallblylav</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 22578-2021 artfynd.xlsx", "A 22578-2021")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 22578-2021 karta.png", "A 22578-2021")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 22578-2021 FSC-klagomål.docx", "A 22578-2021")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 22578-2021 FSC-klagomål mail.docx", "A 22578-2021")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 22578-2021 tillsynsbegäran.docx", "A 22578-2021")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 22578-2021 tillsynsbegäran mail.docx", "A 22578-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 10368-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45720.54828703704</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Kricka
-Desmeknopp
-Gravand
-Havsörn
-Strandskata
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 10368-2025 artfynd.xlsx", "A 10368-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 10368-2025 karta.png", "A 10368-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 10368-2025 FSC-klagomål.docx", "A 10368-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 10368-2025 FSC-klagomål mail.docx", "A 10368-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 10368-2025 tillsynsbegäran.docx", "A 10368-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 10368-2025 tillsynsbegäran mail.docx", "A 10368-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 10368-2025 prioriterade fågelarter.docx", "A 10368-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44454</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,14 +1140,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 6043-2024</t>
+          <t>A 62152-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45336</v>
+        <v>46006.48502314815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1187,138 +1187,138 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 62152-2025 artfynd.xlsx", "A 62152-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 62152-2025 karta.png", "A 62152-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 62152-2025 FSC-klagomål.docx", "A 62152-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 62152-2025 FSC-klagomål mail.docx", "A 62152-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 62152-2025 tillsynsbegäran.docx", "A 62152-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 62152-2025 tillsynsbegäran mail.docx", "A 62152-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 62152-2025 prioriterade fågelarter.docx", "A 62152-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 6043-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Grönpyrola
 Revlummer</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 6043-2024 artfynd.xlsx", "A 6043-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 6043-2024 karta.png", "A 6043-2024")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 6043-2024 karta knärot.png", "A 6043-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 6043-2024 FSC-klagomål.docx", "A 6043-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 6043-2024 FSC-klagomål mail.docx", "A 6043-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 6043-2024 tillsynsbegäran.docx", "A 6043-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 6043-2024 tillsynsbegäran mail.docx", "A 6043-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 62152-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>46006.48502314815</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 62152-2025 artfynd.xlsx", "A 62152-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 62152-2025 karta.png", "A 62152-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 62152-2025 FSC-klagomål.docx", "A 62152-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 62152-2025 FSC-klagomål mail.docx", "A 62152-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 62152-2025 tillsynsbegäran.docx", "A 62152-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 62152-2025 tillsynsbegäran mail.docx", "A 62152-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 62152-2025 prioriterade fågelarter.docx", "A 62152-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,14 +1408,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 8291-2023</t>
+          <t>A 48687-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44974</v>
+        <v>45936.60298611111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>17.3</v>
+        <v>6.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1462,215 +1462,215 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Backstarr
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 48687-2025 artfynd.xlsx", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 48687-2025 karta.png", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 48687-2025 FSC-klagomål.docx", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 48687-2025 FSC-klagomål mail.docx", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 48687-2025 tillsynsbegäran.docx", "A 48687-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 48687-2025 tillsynsbegäran mail.docx", "A 48687-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 50437-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45944.71523148148</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 50437-2025 artfynd.xlsx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 50437-2025 karta.png", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 50437-2025 FSC-klagomål.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 50437-2025 FSC-klagomål mail.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 50437-2025 tillsynsbegäran.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 50437-2025 tillsynsbegäran mail.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 50437-2025 prioriterade fågelarter.docx", "A 50437-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 8291-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 8291-2023 artfynd.xlsx", "A 8291-2023")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 8291-2023 karta.png", "A 8291-2023")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 8291-2023 FSC-klagomål.docx", "A 8291-2023")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 8291-2023 FSC-klagomål mail.docx", "A 8291-2023")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 8291-2023 tillsynsbegäran.docx", "A 8291-2023")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 8291-2023 tillsynsbegäran mail.docx", "A 8291-2023")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 8291-2023 prioriterade fågelarter.docx", "A 8291-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 48687-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45936.60298611111</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Backstarr
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 48687-2025 artfynd.xlsx", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 48687-2025 karta.png", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 48687-2025 FSC-klagomål.docx", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 48687-2025 FSC-klagomål mail.docx", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 48687-2025 tillsynsbegäran.docx", "A 48687-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 48687-2025 tillsynsbegäran mail.docx", "A 48687-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 50437-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45944.71523148148</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 50437-2025 artfynd.xlsx", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 50437-2025 karta.png", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 50437-2025 FSC-klagomål.docx", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 50437-2025 FSC-klagomål mail.docx", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 50437-2025 tillsynsbegäran.docx", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 50437-2025 tillsynsbegäran mail.docx", "A 50437-2025")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 50437-2025 prioriterade fågelarter.docx", "A 50437-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>44588</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45638.38912037037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44571</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44252</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45713</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2203,14 +2203,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 7778-2021</t>
+          <t>A 53485-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44242</v>
+        <v>45230</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,17 +2223,17 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.5</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2257,45 +2257,49 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 7778-2021 artfynd.xlsx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 53485-2023 artfynd.xlsx", "A 53485-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 7778-2021 karta.png", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 53485-2023 karta.png", "A 53485-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 7778-2021 FSC-klagomål.docx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 53485-2023 FSC-klagomål.docx", "A 53485-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 7778-2021 FSC-klagomål mail.docx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 53485-2023 FSC-klagomål mail.docx", "A 53485-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 7778-2021 tillsynsbegäran.docx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 53485-2023 tillsynsbegäran.docx", "A 53485-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 7778-2021 tillsynsbegäran mail.docx", "A 7778-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 53485-2023 tillsynsbegäran mail.docx", "A 53485-2023")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 53485-2023 prioriterade fågelarter.docx", "A 53485-2023")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 53485-2023</t>
+          <t>A 56318-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45230</v>
+        <v>45974</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2312,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2346,45 +2350,45 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 53485-2023 artfynd.xlsx", "A 53485-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 56318-2025 artfynd.xlsx", "A 56318-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 53485-2023 karta.png", "A 53485-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 56318-2025 karta.png", "A 56318-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 53485-2023 FSC-klagomål.docx", "A 53485-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 56318-2025 FSC-klagomål.docx", "A 56318-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 53485-2023 FSC-klagomål mail.docx", "A 53485-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 56318-2025 FSC-klagomål mail.docx", "A 56318-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 53485-2023 tillsynsbegäran.docx", "A 53485-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 56318-2025 tillsynsbegäran.docx", "A 56318-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 53485-2023 tillsynsbegäran mail.docx", "A 53485-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 56318-2025 tillsynsbegäran mail.docx", "A 56318-2025")</f>
         <v/>
       </c>
       <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 53485-2023 prioriterade fågelarter.docx", "A 53485-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 56318-2025 prioriterade fågelarter.docx", "A 56318-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 56318-2025</t>
+          <t>A 9947-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45974</v>
+        <v>44252</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2397,7 +2401,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2406,10 +2410,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2424,56 +2428,56 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 56318-2025 artfynd.xlsx", "A 56318-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 56318-2025 karta.png", "A 56318-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
         <v/>
       </c>
+      <c r="U22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
+        <v/>
+      </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 56318-2025 FSC-klagomål.docx", "A 56318-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 56318-2025 FSC-klagomål mail.docx", "A 56318-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 56318-2025 tillsynsbegäran.docx", "A 56318-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 56318-2025 tillsynsbegäran mail.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 56318-2025 prioriterade fågelarter.docx", "A 56318-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 9947-2021</t>
+          <t>A 14105-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44252</v>
+        <v>44651</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,10 +2490,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2498,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2510,59 +2514,27 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr"/>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 14105-2022</t>
+          <t>A 50227-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44651</v>
+        <v>44865.65704861111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2575,7 +2547,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>9.5</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2612,14 +2584,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 50227-2022</t>
+          <t>A 45223-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44865.65704861111</v>
+        <v>44439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2632,7 +2604,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>8.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2669,14 +2641,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 7792-2021</t>
+          <t>A 70162-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44242</v>
+        <v>44533</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2689,7 +2661,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.9</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2726,14 +2698,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 45223-2021</t>
+          <t>A 3372-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44439</v>
+        <v>44585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2746,7 +2718,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.1</v>
+        <v>2.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2783,14 +2755,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 70162-2021</t>
+          <t>A 26926-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44533</v>
+        <v>44740</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2803,7 +2775,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2840,14 +2812,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 3372-2022</t>
+          <t>A 50007-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44585</v>
+        <v>44865.43612268518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2860,7 +2832,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>8.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2897,14 +2869,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 26926-2022</t>
+          <t>A 10249-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44740</v>
+        <v>44256</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2917,7 +2889,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2954,14 +2926,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 50007-2022</t>
+          <t>A 64485-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44865.43612268518</v>
+        <v>44511.56693287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2974,7 +2946,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>8.4</v>
+        <v>0.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3011,14 +2983,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 10249-2021</t>
+          <t>A 61896-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44256</v>
+        <v>44499</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3031,7 +3003,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3068,14 +3040,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 64485-2021</t>
+          <t>A 59872-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44511.56693287037</v>
+        <v>44494</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3088,7 +3060,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.2</v>
+        <v>3.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3125,14 +3097,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 61896-2021</t>
+          <t>A 68243-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44499</v>
+        <v>44525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3145,7 +3117,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3182,14 +3154,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59872-2021</t>
+          <t>A 50202-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44494</v>
+        <v>44457</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3202,7 +3174,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3239,14 +3211,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 68243-2021</t>
+          <t>A 7329-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44525</v>
+        <v>44606</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3259,7 +3231,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3296,14 +3268,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 50202-2021</t>
+          <t>A 46436-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44457</v>
+        <v>44848.46362268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3315,8 +3287,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3353,14 +3330,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 7329-2022</t>
+          <t>A 20973-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44606</v>
+        <v>44318</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3373,7 +3350,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3410,14 +3387,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 46436-2022</t>
+          <t>A 30731-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44848.46362268519</v>
+        <v>44764.40619212963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3429,13 +3406,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3472,14 +3444,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 20973-2021</t>
+          <t>A 50020-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44318</v>
+        <v>44865</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3492,7 +3464,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3529,14 +3501,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 50020-2022</t>
+          <t>A 14549-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44865</v>
+        <v>44279</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3549,7 +3521,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3586,14 +3558,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 14549-2021</t>
+          <t>A 64020-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44279</v>
+        <v>44510</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3606,7 +3578,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3643,14 +3615,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 30731-2022</t>
+          <t>A 68392-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44764.40619212963</v>
+        <v>44526</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3663,7 +3635,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3700,14 +3672,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 64020-2021</t>
+          <t>A 46724-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44510</v>
+        <v>44851</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3720,7 +3692,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3757,14 +3729,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 68392-2021</t>
+          <t>A 23819-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44526</v>
+        <v>44722</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3777,7 +3749,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3814,14 +3786,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 46724-2022</t>
+          <t>A 35320-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44851</v>
+        <v>44384.73966435185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3834,7 +3806,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3871,14 +3843,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 23819-2022</t>
+          <t>A 25545-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44722</v>
+        <v>44343.32159722222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3863,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3928,14 +3900,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 35320-2021</t>
+          <t>A 49242-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44384.73966435185</v>
+        <v>44453</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3920,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3985,14 +3957,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 25545-2021</t>
+          <t>A 17330-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44343.32159722222</v>
+        <v>44298</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +3977,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4042,14 +4014,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 49242-2021</t>
+          <t>A 10252-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44453</v>
+        <v>44256</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4034,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4099,14 +4071,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 17330-2021</t>
+          <t>A 20340-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44298</v>
+        <v>44699</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4091,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4156,14 +4128,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10252-2021</t>
+          <t>A 70164-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44256</v>
+        <v>44533</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4148,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4213,14 +4185,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 20340-2022</t>
+          <t>A 59917-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44699</v>
+        <v>44494</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4205,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4270,14 +4242,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 70164-2021</t>
+          <t>A 25790-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44533</v>
+        <v>44343.83640046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4262,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4327,14 +4299,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59917-2021</t>
+          <t>A 25795-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44494</v>
+        <v>44343</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4319,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4384,14 +4356,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 25790-2021</t>
+          <t>A 4395-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44343.83640046296</v>
+        <v>44588</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4376,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4441,14 +4413,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 25795-2021</t>
+          <t>A 53761-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44343</v>
+        <v>45615.50958333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4433,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4498,14 +4470,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 4395-2022</t>
+          <t>A 61626-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44588</v>
+        <v>45646.66194444444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4490,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>7.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4555,14 +4527,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 53761-2024</t>
+          <t>A 3178-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45615.50958333333</v>
+        <v>45316</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4574,8 +4546,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>3.3</v>
+        <v>8.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4612,14 +4589,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 61626-2024</t>
+          <t>A 52262-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45646.66194444444</v>
+        <v>45217</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4609,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.3</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4669,14 +4646,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 3178-2024</t>
+          <t>A 12945-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45316</v>
+        <v>45385.47545138889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4688,13 +4665,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>8.6</v>
+        <v>6.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4731,14 +4703,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 52262-2023</t>
+          <t>A 33772-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45217</v>
+        <v>45133</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4751,7 +4723,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4788,14 +4760,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 12945-2024</t>
+          <t>A 16989-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45385.47545138889</v>
+        <v>45033</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4807,8 +4779,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>6.1</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4845,14 +4822,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 33772-2023</t>
+          <t>A 44883-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45133</v>
+        <v>44438.61731481482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4865,7 +4842,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4902,14 +4879,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 16989-2023</t>
+          <t>A 10470-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45033</v>
+        <v>45366.38853009259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4921,13 +4898,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4964,14 +4936,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 44883-2021</t>
+          <t>A 55712-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44438.61731481482</v>
+        <v>44885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4984,7 +4956,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5021,14 +4993,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 55712-2022</t>
+          <t>A 12779-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44885</v>
+        <v>45733.59574074074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5041,7 +5013,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>10.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5078,14 +5050,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 10470-2024</t>
+          <t>A 19492-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45366.38853009259</v>
+        <v>44312</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5098,7 +5070,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5135,14 +5107,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 19492-2021</t>
+          <t>A 11931-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44312</v>
+        <v>45728.5212962963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5155,7 +5127,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5192,14 +5164,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11897-2025</t>
+          <t>A 57663-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45728.46913194445</v>
+        <v>45981.42303240741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5212,7 +5184,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5249,14 +5221,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 29329-2024</t>
+          <t>A 14087-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45483.44387731481</v>
+        <v>45739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5269,7 +5241,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5306,14 +5278,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 6379-2026</t>
+          <t>A 9698-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46055</v>
+        <v>45716.37402777778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5326,7 +5298,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5363,14 +5335,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 61252-2024</t>
+          <t>A 9695-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45645.69790509259</v>
+        <v>45716.37232638889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5383,7 +5355,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5420,14 +5392,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39001-2024</t>
+          <t>A 23012-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45548.42012731481</v>
+        <v>45790</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5440,7 +5412,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5477,14 +5449,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7448-2026</t>
+          <t>A 14079-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>46059.46386574074</v>
+        <v>45739</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5496,13 +5468,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5539,14 +5506,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 24348-2025</t>
+          <t>A 11897-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45797</v>
+        <v>45728.46913194445</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5559,7 +5526,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5596,14 +5563,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 7466-2026</t>
+          <t>A 18043-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46059.48324074074</v>
+        <v>44301</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5615,13 +5582,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5658,14 +5620,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7545-2026</t>
+          <t>A 29329-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46059.65075231482</v>
+        <v>45483.44387731481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5678,7 +5640,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5715,14 +5677,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 30701-2022</t>
+          <t>A 61252-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44763</v>
+        <v>45645.69790509259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5735,7 +5697,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5772,14 +5734,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 49554-2024</t>
+          <t>A 24348-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45596.4672337963</v>
+        <v>45797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5754,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5829,14 +5791,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52950-2022</t>
+          <t>A 49554-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44875.65717592592</v>
+        <v>45596.4672337963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5811,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5886,14 +5848,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 26233-2025</t>
+          <t>A 39001-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45805.5666087963</v>
+        <v>45548.42012731481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,13 +5867,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5948,14 +5905,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 40369-2024</t>
+          <t>A 30701-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45555.39053240741</v>
+        <v>44763</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5968,7 +5925,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>14.5</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6005,14 +5962,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 26270-2025</t>
+          <t>A 61898-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45805.59357638889</v>
+        <v>46003.46565972222</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6025,7 +5982,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6062,14 +6019,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 18043-2021</t>
+          <t>A 40383-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44301</v>
+        <v>45895</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6082,7 +6039,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6.1</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6119,14 +6076,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 8051-2026</t>
+          <t>A 40430-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46063</v>
+        <v>45895</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6139,7 +6096,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6176,14 +6133,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 8058-2026</t>
+          <t>A 26233-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46063</v>
+        <v>45805.5666087963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6195,8 +6152,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6233,14 +6195,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 15552-2023</t>
+          <t>A 26270-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45018</v>
+        <v>45805.59357638889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6253,7 +6215,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6290,14 +6252,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 13890-2022</t>
+          <t>A 15552-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44649</v>
+        <v>45018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6310,7 +6272,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6347,14 +6309,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 8060-2026</t>
+          <t>A 13890-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46063</v>
+        <v>44649</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6367,7 +6329,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6404,14 +6366,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 44529-2023</t>
+          <t>A 37092-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45189</v>
+        <v>45539.49989583333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6424,7 +6386,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6461,14 +6423,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 57989-2022</t>
+          <t>A 52950-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44892</v>
+        <v>44875.65717592592</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6481,7 +6443,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6518,14 +6480,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 16216-2025</t>
+          <t>A 40369-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45750.63079861111</v>
+        <v>45555.39053240741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6538,7 +6500,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>14.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6575,14 +6537,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 55733-2023</t>
+          <t>A 40652-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45232</v>
+        <v>45557</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6595,7 +6557,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6632,14 +6594,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 35113-2021</t>
+          <t>A 28586-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44384.37240740741</v>
+        <v>45819.5812037037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6652,7 +6614,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>7.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6689,14 +6651,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 28586-2025</t>
+          <t>A 44529-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45819.5812037037</v>
+        <v>45189</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6709,7 +6671,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7.1</v>
+        <v>4.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6746,14 +6708,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29308-2025</t>
+          <t>A 57989-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45824.46103009259</v>
+        <v>44892</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6766,7 +6728,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6803,14 +6765,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42239-2024</t>
+          <t>A 42823-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45562.56358796296</v>
+        <v>45908.57429398148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6823,7 +6785,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6860,14 +6822,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 9590-2021</t>
+          <t>A 16216-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44251</v>
+        <v>45750.63079861111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6842,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6917,14 +6879,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 29300-2025</t>
+          <t>A 55733-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45824.45552083333</v>
+        <v>45232</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6937,7 +6899,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6974,14 +6936,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 52852-2024</t>
+          <t>A 29308-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45610.60664351852</v>
+        <v>45824.46103009259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6994,7 +6956,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7031,14 +6993,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 40383-2025</t>
+          <t>A 35113-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45895</v>
+        <v>44384.37240740741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7051,7 +7013,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7088,14 +7050,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 25884-2023</t>
+          <t>A 42736-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45085</v>
+        <v>45908</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7108,7 +7070,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7145,14 +7107,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 40430-2025</t>
+          <t>A 29300-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45895</v>
+        <v>45824.45552083333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7165,7 +7127,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7202,14 +7164,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 31917-2025</t>
+          <t>A 43550-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45834</v>
+        <v>45911.61836805556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7222,7 +7184,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7259,14 +7221,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 50603-2024</t>
+          <t>A 42239-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45600</v>
+        <v>45562.56358796296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7279,7 +7241,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7316,14 +7278,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 33559-2025</t>
+          <t>A 9590-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45841.57549768518</v>
+        <v>44251</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7336,7 +7298,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7373,14 +7335,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 33566-2025</t>
+          <t>A 44319-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45841.58208333333</v>
+        <v>45916</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7393,7 +7355,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7430,14 +7392,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 33560-2025</t>
+          <t>A 52852-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45841.57739583333</v>
+        <v>45610.60664351852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7450,7 +7412,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7487,14 +7449,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 37092-2024</t>
+          <t>A 31917-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45539.49989583333</v>
+        <v>45834</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7507,7 +7469,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7544,14 +7506,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 33564-2025</t>
+          <t>A 45540-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45841.57973379629</v>
+        <v>45922.61466435185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7564,7 +7526,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7601,14 +7563,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 33569-2025</t>
+          <t>A 25884-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45841.58334490741</v>
+        <v>45085</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7621,7 +7583,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7658,14 +7620,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 33586-2025</t>
+          <t>A 33559-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45841.59465277778</v>
+        <v>45841.57549768518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7678,7 +7640,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7715,14 +7677,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 33555-2025</t>
+          <t>A 33566-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45841.57423611111</v>
+        <v>45841.58208333333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7735,7 +7697,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7772,14 +7734,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 20476-2023</t>
+          <t>A 33560-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45057.34075231481</v>
+        <v>45841.57739583333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7792,7 +7754,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7829,14 +7791,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 33536-2025</t>
+          <t>A 50603-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45841.55890046297</v>
+        <v>45600</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7849,7 +7811,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.3</v>
+        <v>0.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7886,14 +7848,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 33580-2025</t>
+          <t>A 33564-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45841.59407407408</v>
+        <v>45841.57973379629</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7906,7 +7868,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7943,14 +7905,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26277-2025</t>
+          <t>A 33569-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45805.60436342593</v>
+        <v>45841.58334490741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7963,7 +7925,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8000,14 +7962,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 40652-2024</t>
+          <t>A 33586-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45557</v>
+        <v>45841.59465277778</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8020,7 +7982,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8057,14 +8019,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 15667-2024</t>
+          <t>A 46907-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45404</v>
+        <v>45929.40480324074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8077,7 +8039,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8114,14 +8076,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 50401-2021</t>
+          <t>A 33555-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44459</v>
+        <v>45841.57423611111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8134,7 +8096,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8171,14 +8133,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 56024-2023</t>
+          <t>A 33536-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45240</v>
+        <v>45841.55890046297</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8191,7 +8153,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.8</v>
+        <v>6.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8228,14 +8190,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 50601-2024</t>
+          <t>A 33580-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45600</v>
+        <v>45841.59407407408</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8248,7 +8210,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8285,14 +8247,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 41991-2022</t>
+          <t>A 26277-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44830.44231481481</v>
+        <v>45805.60436342593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8305,7 +8267,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8342,1194 +8304,1184 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
+          <t>A 6128-2026</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>46054.29585648148</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R125" s="2" t="inlineStr"/>
+    </row>
+    <row r="126" ht="15" customHeight="1">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>A 20476-2023</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>45057.34075231481</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" s="2" t="inlineStr"/>
+    </row>
+    <row r="127" ht="15" customHeight="1">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>A 47882-2025</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>45932.46203703704</v>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" s="2" t="inlineStr"/>
+    </row>
+    <row r="128" ht="15" customHeight="1">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>A 48688-2025</t>
+        </is>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>45936.60555555556</v>
+      </c>
+      <c r="C128" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" s="2" t="inlineStr"/>
+    </row>
+    <row r="129" ht="15" customHeight="1">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>A 15667-2024</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R129" s="2" t="inlineStr"/>
+    </row>
+    <row r="130" ht="15" customHeight="1">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>A 50401-2021</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>44459</v>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" s="2" t="inlineStr"/>
+    </row>
+    <row r="131" ht="15" customHeight="1">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>A 56024-2023</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" s="2" t="inlineStr"/>
+    </row>
+    <row r="132" ht="15" customHeight="1">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>A 50601-2024</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>45600</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" s="2" t="inlineStr"/>
+    </row>
+    <row r="133" ht="15" customHeight="1">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>A 50057-2025</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>45942</v>
+      </c>
+      <c r="C133" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" s="2" t="inlineStr"/>
+    </row>
+    <row r="134" ht="15" customHeight="1">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>A 50626-2025</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>45945.63623842593</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>14</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" s="2" t="inlineStr"/>
+    </row>
+    <row r="135" ht="15" customHeight="1">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>A 50432-2025</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>45944.69248842593</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" s="2" t="inlineStr"/>
+    </row>
+    <row r="136" ht="15" customHeight="1">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>A 16223-2025</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>45750.63945601852</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" s="2" t="inlineStr"/>
+    </row>
+    <row r="137" ht="15" customHeight="1">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>A 50579-2025</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>45945.58449074074</v>
+      </c>
+      <c r="C137" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" s="2" t="inlineStr"/>
+    </row>
+    <row r="138" ht="15" customHeight="1">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>A 50589-2025</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>45945.600625</v>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" s="2" t="inlineStr"/>
+    </row>
+    <row r="139" ht="15" customHeight="1">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>A 50606-2025</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>45945.6171412037</v>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" s="2" t="inlineStr"/>
+    </row>
+    <row r="140" ht="15" customHeight="1">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>A 50607-2025</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>45945.61997685185</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R140" s="2" t="inlineStr"/>
+    </row>
+    <row r="141" ht="15" customHeight="1">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>A 50578-2025</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>45945.58215277778</v>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R141" s="2" t="inlineStr"/>
+    </row>
+    <row r="142" ht="15" customHeight="1">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>A 50797-2025</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>45946.48350694445</v>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" s="2" t="inlineStr"/>
+    </row>
+    <row r="143" ht="15" customHeight="1">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>A 41991-2022</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>44830.44231481481</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" s="2" t="inlineStr"/>
+    </row>
+    <row r="144" ht="15" customHeight="1">
+      <c r="A144" t="inlineStr">
+        <is>
           <t>A 64707-2023</t>
         </is>
       </c>
-      <c r="B125" s="1" t="n">
+      <c r="B144" s="1" t="n">
         <v>45281</v>
       </c>
-      <c r="C125" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
+      <c r="C144" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G125" t="n">
+      <c r="G144" t="n">
         <v>11.9</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0</v>
-      </c>
-      <c r="L125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O125" t="n">
-        <v>0</v>
-      </c>
-      <c r="P125" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>0</v>
-      </c>
-      <c r="R125" s="2" t="inlineStr"/>
-      <c r="U125">
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" s="2" t="inlineStr"/>
+      <c r="U144">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 64707-2023 karta knärot.png", "A 64707-2023")</f>
         <v/>
       </c>
-      <c r="V125">
+      <c r="V144">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 64707-2023 FSC-klagomål.docx", "A 64707-2023")</f>
         <v/>
       </c>
-      <c r="W125">
+      <c r="W144">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 64707-2023 FSC-klagomål mail.docx", "A 64707-2023")</f>
         <v/>
       </c>
-      <c r="X125">
+      <c r="X144">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 64707-2023 tillsynsbegäran.docx", "A 64707-2023")</f>
         <v/>
       </c>
-      <c r="Y125">
+      <c r="Y144">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 64707-2023 tillsynsbegäran mail.docx", "A 64707-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="126" ht="15" customHeight="1">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>A 3187-2024</t>
-        </is>
-      </c>
-      <c r="B126" s="1" t="n">
-        <v>45316.65596064815</v>
-      </c>
-      <c r="C126" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0</v>
-      </c>
-      <c r="L126" t="n">
-        <v>0</v>
-      </c>
-      <c r="M126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0</v>
-      </c>
-      <c r="O126" t="n">
-        <v>0</v>
-      </c>
-      <c r="P126" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q126" t="n">
-        <v>0</v>
-      </c>
-      <c r="R126" s="2" t="inlineStr"/>
-    </row>
-    <row r="127" ht="15" customHeight="1">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>A 42823-2025</t>
-        </is>
-      </c>
-      <c r="B127" s="1" t="n">
-        <v>45908.57429398148</v>
-      </c>
-      <c r="C127" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0</v>
-      </c>
-      <c r="M127" t="n">
-        <v>0</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0</v>
-      </c>
-      <c r="P127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R127" s="2" t="inlineStr"/>
-    </row>
-    <row r="128" ht="15" customHeight="1">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>A 16223-2025</t>
-        </is>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>45750.63945601852</v>
-      </c>
-      <c r="C128" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0</v>
-      </c>
-      <c r="M128" t="n">
-        <v>0</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0</v>
-      </c>
-      <c r="O128" t="n">
-        <v>0</v>
-      </c>
-      <c r="P128" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q128" t="n">
-        <v>0</v>
-      </c>
-      <c r="R128" s="2" t="inlineStr"/>
-    </row>
-    <row r="129" ht="15" customHeight="1">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>A 42736-2025</t>
-        </is>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>45908</v>
-      </c>
-      <c r="C129" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0</v>
-      </c>
-      <c r="M129" t="n">
-        <v>0</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0</v>
-      </c>
-      <c r="O129" t="n">
-        <v>0</v>
-      </c>
-      <c r="P129" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>0</v>
-      </c>
-      <c r="R129" s="2" t="inlineStr"/>
-    </row>
-    <row r="130" ht="15" customHeight="1">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>A 46371-2022</t>
-        </is>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>44848</v>
-      </c>
-      <c r="C130" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0</v>
-      </c>
-      <c r="M130" t="n">
-        <v>0</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0</v>
-      </c>
-      <c r="O130" t="n">
-        <v>0</v>
-      </c>
-      <c r="P130" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>0</v>
-      </c>
-      <c r="R130" s="2" t="inlineStr"/>
-    </row>
-    <row r="131" ht="15" customHeight="1">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>A 59383-2024</t>
-        </is>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>45638.35758101852</v>
-      </c>
-      <c r="C131" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>0</v>
-      </c>
-      <c r="M131" t="n">
-        <v>0</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0</v>
-      </c>
-      <c r="O131" t="n">
-        <v>0</v>
-      </c>
-      <c r="P131" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q131" t="n">
-        <v>0</v>
-      </c>
-      <c r="R131" s="2" t="inlineStr"/>
-    </row>
-    <row r="132" ht="15" customHeight="1">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>A 33745-2023</t>
-        </is>
-      </c>
-      <c r="B132" s="1" t="n">
-        <v>45133.39075231482</v>
-      </c>
-      <c r="C132" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G132" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0</v>
-      </c>
-      <c r="M132" t="n">
-        <v>0</v>
-      </c>
-      <c r="N132" t="n">
-        <v>0</v>
-      </c>
-      <c r="O132" t="n">
-        <v>0</v>
-      </c>
-      <c r="P132" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q132" t="n">
-        <v>0</v>
-      </c>
-      <c r="R132" s="2" t="inlineStr"/>
-    </row>
-    <row r="133" ht="15" customHeight="1">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>A 43550-2025</t>
-        </is>
-      </c>
-      <c r="B133" s="1" t="n">
-        <v>45911.61836805556</v>
-      </c>
-      <c r="C133" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G133" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0</v>
-      </c>
-      <c r="M133" t="n">
-        <v>0</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0</v>
-      </c>
-      <c r="O133" t="n">
-        <v>0</v>
-      </c>
-      <c r="P133" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>0</v>
-      </c>
-      <c r="R133" s="2" t="inlineStr"/>
-    </row>
-    <row r="134" ht="15" customHeight="1">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>A 37311-2025</t>
-        </is>
-      </c>
-      <c r="B134" s="1" t="n">
-        <v>45876.59644675926</v>
-      </c>
-      <c r="C134" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G134" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0</v>
-      </c>
-      <c r="L134" t="n">
-        <v>0</v>
-      </c>
-      <c r="M134" t="n">
-        <v>0</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0</v>
-      </c>
-      <c r="O134" t="n">
-        <v>0</v>
-      </c>
-      <c r="P134" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q134" t="n">
-        <v>0</v>
-      </c>
-      <c r="R134" s="2" t="inlineStr"/>
-    </row>
-    <row r="135" ht="15" customHeight="1">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>A 28430-2024</t>
-        </is>
-      </c>
-      <c r="B135" s="1" t="n">
-        <v>45477</v>
-      </c>
-      <c r="C135" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G135" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0</v>
-      </c>
-      <c r="L135" t="n">
-        <v>0</v>
-      </c>
-      <c r="M135" t="n">
-        <v>0</v>
-      </c>
-      <c r="N135" t="n">
-        <v>0</v>
-      </c>
-      <c r="O135" t="n">
-        <v>0</v>
-      </c>
-      <c r="P135" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>0</v>
-      </c>
-      <c r="R135" s="2" t="inlineStr"/>
-    </row>
-    <row r="136" ht="15" customHeight="1">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>A 17525-2025</t>
-        </is>
-      </c>
-      <c r="B136" s="1" t="n">
-        <v>45757.5817824074</v>
-      </c>
-      <c r="C136" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G136" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0</v>
-      </c>
-      <c r="L136" t="n">
-        <v>0</v>
-      </c>
-      <c r="M136" t="n">
-        <v>0</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0</v>
-      </c>
-      <c r="O136" t="n">
-        <v>0</v>
-      </c>
-      <c r="P136" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q136" t="n">
-        <v>0</v>
-      </c>
-      <c r="R136" s="2" t="inlineStr"/>
-    </row>
-    <row r="137" ht="15" customHeight="1">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>A 5326-2024</t>
-        </is>
-      </c>
-      <c r="B137" s="1" t="n">
-        <v>45331.41356481481</v>
-      </c>
-      <c r="C137" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G137" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0</v>
-      </c>
-      <c r="L137" t="n">
-        <v>0</v>
-      </c>
-      <c r="M137" t="n">
-        <v>0</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0</v>
-      </c>
-      <c r="O137" t="n">
-        <v>0</v>
-      </c>
-      <c r="P137" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q137" t="n">
-        <v>0</v>
-      </c>
-      <c r="R137" s="2" t="inlineStr"/>
-    </row>
-    <row r="138" ht="15" customHeight="1">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>A 10764-2024</t>
-        </is>
-      </c>
-      <c r="B138" s="1" t="n">
-        <v>45369.56681712963</v>
-      </c>
-      <c r="C138" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G138" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>0</v>
-      </c>
-      <c r="M138" t="n">
-        <v>0</v>
-      </c>
-      <c r="N138" t="n">
-        <v>0</v>
-      </c>
-      <c r="O138" t="n">
-        <v>0</v>
-      </c>
-      <c r="P138" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q138" t="n">
-        <v>0</v>
-      </c>
-      <c r="R138" s="2" t="inlineStr"/>
-    </row>
-    <row r="139" ht="15" customHeight="1">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>A 44319-2025</t>
-        </is>
-      </c>
-      <c r="B139" s="1" t="n">
-        <v>45916</v>
-      </c>
-      <c r="C139" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G139" t="n">
-        <v>1</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0</v>
-      </c>
-      <c r="L139" t="n">
-        <v>0</v>
-      </c>
-      <c r="M139" t="n">
-        <v>0</v>
-      </c>
-      <c r="N139" t="n">
-        <v>0</v>
-      </c>
-      <c r="O139" t="n">
-        <v>0</v>
-      </c>
-      <c r="P139" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q139" t="n">
-        <v>0</v>
-      </c>
-      <c r="R139" s="2" t="inlineStr"/>
-    </row>
-    <row r="140" ht="15" customHeight="1">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>A 2982-2025</t>
-        </is>
-      </c>
-      <c r="B140" s="1" t="n">
-        <v>45678.51011574074</v>
-      </c>
-      <c r="C140" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G140" t="n">
-        <v>1</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>0</v>
-      </c>
-      <c r="M140" t="n">
-        <v>0</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0</v>
-      </c>
-      <c r="O140" t="n">
-        <v>0</v>
-      </c>
-      <c r="P140" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q140" t="n">
-        <v>0</v>
-      </c>
-      <c r="R140" s="2" t="inlineStr"/>
-    </row>
-    <row r="141" ht="15" customHeight="1">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>A 60768-2022</t>
-        </is>
-      </c>
-      <c r="B141" s="1" t="n">
-        <v>44907</v>
-      </c>
-      <c r="C141" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G141" t="n">
-        <v>10</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0</v>
-      </c>
-      <c r="L141" t="n">
-        <v>0</v>
-      </c>
-      <c r="M141" t="n">
-        <v>0</v>
-      </c>
-      <c r="N141" t="n">
-        <v>0</v>
-      </c>
-      <c r="O141" t="n">
-        <v>0</v>
-      </c>
-      <c r="P141" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>0</v>
-      </c>
-      <c r="R141" s="2" t="inlineStr"/>
-    </row>
-    <row r="142" ht="15" customHeight="1">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>A 45540-2025</t>
-        </is>
-      </c>
-      <c r="B142" s="1" t="n">
-        <v>45922.61466435185</v>
-      </c>
-      <c r="C142" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G142" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0</v>
-      </c>
-      <c r="L142" t="n">
-        <v>0</v>
-      </c>
-      <c r="M142" t="n">
-        <v>0</v>
-      </c>
-      <c r="N142" t="n">
-        <v>0</v>
-      </c>
-      <c r="O142" t="n">
-        <v>0</v>
-      </c>
-      <c r="P142" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q142" t="n">
-        <v>0</v>
-      </c>
-      <c r="R142" s="2" t="inlineStr"/>
-    </row>
-    <row r="143" ht="15" customHeight="1">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>A 20888-2022</t>
-        </is>
-      </c>
-      <c r="B143" s="1" t="n">
-        <v>44701</v>
-      </c>
-      <c r="C143" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
-        <v>1</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>0</v>
-      </c>
-      <c r="M143" t="n">
-        <v>0</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0</v>
-      </c>
-      <c r="O143" t="n">
-        <v>0</v>
-      </c>
-      <c r="P143" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q143" t="n">
-        <v>0</v>
-      </c>
-      <c r="R143" s="2" t="inlineStr"/>
-    </row>
-    <row r="144" ht="15" customHeight="1">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>A 46907-2025</t>
-        </is>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>45929.40480324074</v>
-      </c>
-      <c r="C144" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0</v>
-      </c>
-      <c r="O144" t="n">
-        <v>0</v>
-      </c>
-      <c r="P144" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q144" t="n">
-        <v>0</v>
-      </c>
-      <c r="R144" s="2" t="inlineStr"/>
-    </row>
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 18043-2021</t>
+          <t>A 37311-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44301</v>
+        <v>45876.59644675926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9542,7 +9494,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>6.1</v>
+        <v>3.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9579,14 +9531,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 45617-2024</t>
+          <t>A 3187-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45579.45523148148</v>
+        <v>45316.65596064815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9598,8 +9550,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9636,14 +9593,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 47882-2025</t>
+          <t>A 51427-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45932.46203703704</v>
+        <v>45949</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9656,7 +9613,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9693,14 +9650,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 48688-2025</t>
+          <t>A 51432-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45936.60555555556</v>
+        <v>45949</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9713,7 +9670,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9750,14 +9707,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 9983-2022</t>
+          <t>A 51429-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44621.43550925926</v>
+        <v>45949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9770,7 +9727,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9807,14 +9764,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 33131-2023</t>
+          <t>A 17525-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45126</v>
+        <v>45757.5817824074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9827,7 +9784,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9864,14 +9821,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 24514-2024</t>
+          <t>A 52833-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45458</v>
+        <v>45957.47081018519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9884,7 +9841,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9921,14 +9878,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 31388-2022</t>
+          <t>A 46371-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44774.62195601852</v>
+        <v>44848</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9940,8 +9897,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9978,14 +9940,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 29195-2024</t>
+          <t>A 59383-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45482</v>
+        <v>45638.35758101852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9997,8 +9959,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10035,14 +10002,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 994-2024</t>
+          <t>A 33745-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45301.62427083333</v>
+        <v>45133.39075231482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10055,7 +10022,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10092,14 +10059,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 50057-2025</t>
+          <t>A 6379-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45942</v>
+        <v>46055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10112,7 +10079,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10149,14 +10116,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 50626-2025</t>
+          <t>A 7448-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45945.63623842593</v>
+        <v>46059.46386574074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10170,11 +10137,11 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10211,14 +10178,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 50432-2025</t>
+          <t>A 7466-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45944.69248842593</v>
+        <v>46059.48324074074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10230,8 +10197,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10268,14 +10240,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 50579-2025</t>
+          <t>A 7545-2026</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45945.58449074074</v>
+        <v>46059.65075231482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10288,7 +10260,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10325,14 +10297,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 50589-2025</t>
+          <t>A 28430-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45945.600625</v>
+        <v>45477</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10345,7 +10317,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10382,14 +10354,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 50606-2025</t>
+          <t>A 54126-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45945.6171412037</v>
+        <v>45964.45715277778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10402,7 +10374,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10439,14 +10411,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 50607-2025</t>
+          <t>A 5326-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45945.61997685185</v>
+        <v>45331.41356481481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10459,7 +10431,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>14.5</v>
+        <v>1.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10496,14 +10468,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 50578-2025</t>
+          <t>A 10764-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45945.58215277778</v>
+        <v>45369.56681712963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10516,7 +10488,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10553,14 +10525,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 50797-2025</t>
+          <t>A 55830-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45946.48350694445</v>
+        <v>45972</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10573,7 +10545,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10610,14 +10582,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 44408-2021</t>
+          <t>A 56196-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44435</v>
+        <v>45974.45112268518</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10630,7 +10602,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10667,14 +10639,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 51427-2025</t>
+          <t>A 8051-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45949</v>
+        <v>46063</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10687,7 +10659,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10724,14 +10696,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 51432-2025</t>
+          <t>A 8058-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45949</v>
+        <v>46063</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10744,7 +10716,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10781,14 +10753,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 51429-2025</t>
+          <t>A 56211-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45949</v>
+        <v>45974.47729166667</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10801,7 +10773,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10838,14 +10810,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 10457-2023</t>
+          <t>A 56208-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44987</v>
+        <v>45974.47333333334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10858,7 +10830,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10895,14 +10867,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 50034-2022</t>
+          <t>A 2982-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44865.45782407407</v>
+        <v>45678.51011574074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10915,7 +10887,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10952,14 +10924,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 52833-2025</t>
+          <t>A 8060-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45957.47081018519</v>
+        <v>46063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10972,7 +10944,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11009,14 +10981,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 57768-2022</t>
+          <t>A 60768-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44892</v>
+        <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11001,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11066,14 +11038,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 54126-2025</t>
+          <t>A 58226-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45964.45715277778</v>
+        <v>45985.37508101852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11058,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11123,14 +11095,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 2231-2023</t>
+          <t>A 20888-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44942</v>
+        <v>44701</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11115,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11180,14 +11152,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 16363-2024</t>
+          <t>A 58251-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45407.59325231481</v>
+        <v>45985.39645833334</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11172,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11237,14 +11209,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 15704-2025</t>
+          <t>A 18043-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45748.4815162037</v>
+        <v>44301</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11229,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.7</v>
+        <v>6.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11294,14 +11266,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 72625-2021</t>
+          <t>A 45617-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44546.55005787037</v>
+        <v>45579.45523148148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11286,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11351,14 +11323,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 55830-2025</t>
+          <t>A 880-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45972</v>
+        <v>46029</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11343,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11408,14 +11380,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 19134-2025</t>
+          <t>A 1945-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45764</v>
+        <v>46035.59709490741</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11400,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11465,14 +11437,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 56196-2025</t>
+          <t>A 9983-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45974.45112268518</v>
+        <v>44621.43550925926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11457,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11522,14 +11494,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 56211-2025</t>
+          <t>A 33131-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45974.47729166667</v>
+        <v>45126</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11514,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11579,14 +11551,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 56208-2025</t>
+          <t>A 59902-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45974.47333333334</v>
+        <v>45993.34480324074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11571,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11636,14 +11608,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 33118-2023</t>
+          <t>A 24514-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45126.59351851852</v>
+        <v>45458</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11628,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11693,14 +11665,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 38988-2024</t>
+          <t>A 1608-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45548.40613425926</v>
+        <v>46034.46770833333</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11685,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11750,14 +11722,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 60220-2022</t>
+          <t>A 31388-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44903</v>
+        <v>44774.62195601852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11770,7 +11742,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>8.300000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11807,14 +11779,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 11891-2025</t>
+          <t>A 29195-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45728.46309027778</v>
+        <v>45482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11827,7 +11799,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11864,14 +11836,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 48071-2024</t>
+          <t>A 994-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45589</v>
+        <v>45301.62427083333</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11884,7 +11856,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11921,14 +11893,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 15559-2023</t>
+          <t>A 2322-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45019</v>
+        <v>46036.60327546296</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11941,7 +11913,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11978,14 +11950,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 54007-2024</t>
+          <t>A 2324-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45615</v>
+        <v>46036.60572916667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11998,7 +11970,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12035,14 +12007,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 58226-2025</t>
+          <t>A 44408-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45985.37508101852</v>
+        <v>44435</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12055,7 +12027,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12092,14 +12064,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 33747-2023</t>
+          <t>A 61413-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45133.39594907407</v>
+        <v>46000</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12112,7 +12084,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12149,14 +12121,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 58251-2025</t>
+          <t>A 10457-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45985.39645833334</v>
+        <v>44987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12169,7 +12141,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.7</v>
+        <v>6.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12206,14 +12178,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 880-2026</t>
+          <t>A 50034-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46029</v>
+        <v>44865.45782407407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12226,7 +12198,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12263,14 +12235,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 44523-2023</t>
+          <t>A 57768-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45189.4774537037</v>
+        <v>44892</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12283,7 +12255,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12320,14 +12292,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 1945-2026</t>
+          <t>A 2231-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46035.59709490741</v>
+        <v>44942</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12340,7 +12312,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12377,14 +12349,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 59902-2025</t>
+          <t>A 16363-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45993.34480324074</v>
+        <v>45407.59325231481</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12397,7 +12369,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12434,14 +12406,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 1608-2026</t>
+          <t>A 15704-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46034.46770833333</v>
+        <v>45748.4815162037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12454,7 +12426,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12491,14 +12463,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 59396-2024</t>
+          <t>A 72625-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45638.37623842592</v>
+        <v>44546.55005787037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12510,13 +12482,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12553,14 +12520,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 2322-2026</t>
+          <t>A 19134-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46036.60327546296</v>
+        <v>45764</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12573,7 +12540,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12610,14 +12577,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 2324-2026</t>
+          <t>A 33118-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46036.60572916667</v>
+        <v>45126.59351851852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12630,7 +12597,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12667,14 +12634,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 61247-2024</t>
+          <t>A 38988-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45645.69128472222</v>
+        <v>45548.40613425926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12687,7 +12654,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12724,14 +12691,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 8047-2024</t>
+          <t>A 60220-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45351.32293981482</v>
+        <v>44903</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12744,7 +12711,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12781,14 +12748,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 13109-2023</t>
+          <t>A 11891-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45002</v>
+        <v>45728.46309027778</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12801,7 +12768,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12838,14 +12805,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 21333-2024</t>
+          <t>A 48071-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45440</v>
+        <v>45589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12858,7 +12825,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12895,14 +12862,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 61413-2025</t>
+          <t>A 15559-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46000</v>
+        <v>45019</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12915,7 +12882,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12952,14 +12919,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 57663-2025</t>
+          <t>A 54007-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45981.42303240741</v>
+        <v>45615</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12972,7 +12939,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13009,14 +12976,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 29192-2024</t>
+          <t>A 33747-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45482</v>
+        <v>45133.39594907407</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13029,7 +12996,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13066,14 +13033,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 67875-2021</t>
+          <t>A 44523-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44525</v>
+        <v>45189.4774537037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13086,7 +13053,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>15.5</v>
+        <v>3.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13123,14 +13090,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 61898-2025</t>
+          <t>A 59396-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46003.46565972222</v>
+        <v>45638.37623842592</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13142,8 +13109,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>1.2</v>
+        <v>5.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13180,14 +13152,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 50261-2023</t>
+          <t>A 61247-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45216.37878472222</v>
+        <v>45645.69128472222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13200,7 +13172,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13237,14 +13209,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 6128-2026</t>
+          <t>A 8047-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46054.29585648148</v>
+        <v>45351.32293981482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13257,7 +13229,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13294,14 +13266,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 38983-2024</t>
+          <t>A 13109-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45548.39829861111</v>
+        <v>45002</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13314,7 +13286,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13351,14 +13323,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 29327-2024</t>
+          <t>A 21333-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45483.43834490741</v>
+        <v>45440</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13371,7 +13343,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13408,14 +13380,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 56602-2023</t>
+          <t>A 29192-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45243.6625</v>
+        <v>45482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13428,7 +13400,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13465,14 +13437,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 12238-2025</t>
+          <t>A 67875-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45729.58333333334</v>
+        <v>44525</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13485,7 +13457,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>10.6</v>
+        <v>15.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13522,14 +13494,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 41072-2023</t>
+          <t>A 50261-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45170</v>
+        <v>45216.37878472222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13542,7 +13514,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>7.8</v>
+        <v>0.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13579,14 +13551,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 3391-2024</t>
+          <t>A 38983-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45318</v>
+        <v>45548.39829861111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13598,13 +13570,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13641,14 +13608,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 52902-2024</t>
+          <t>A 29327-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45610.68715277778</v>
+        <v>45483.43834490741</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13661,7 +13628,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13698,14 +13665,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 20968-2023</t>
+          <t>A 56602-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45061</v>
+        <v>45243.6625</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13718,7 +13685,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13755,14 +13722,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 22560-2023</t>
+          <t>A 12238-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45071.44758101852</v>
+        <v>45729.58333333334</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13775,7 +13742,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.5</v>
+        <v>10.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13812,14 +13779,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 54792-2023</t>
+          <t>A 41072-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45236</v>
+        <v>45170</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13832,7 +13799,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13869,14 +13836,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 45578-2024</t>
+          <t>A 3391-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45578</v>
+        <v>45318</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13888,8 +13855,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13926,14 +13898,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 61249-2024</t>
+          <t>A 52902-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45645.69321759259</v>
+        <v>45610.68715277778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13946,7 +13918,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13983,14 +13955,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 38818-2024</t>
+          <t>A 20968-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45547.55392361111</v>
+        <v>45061</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14003,7 +13975,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14040,14 +14012,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 45632-2024</t>
+          <t>A 22560-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45579.47123842593</v>
+        <v>45071.44758101852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14059,13 +14031,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14102,14 +14069,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 7136-2022</t>
+          <t>A 54792-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44603</v>
+        <v>45236</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14122,7 +14089,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.9</v>
+        <v>5.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14159,14 +14126,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 24991-2023</t>
+          <t>A 45578-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45085</v>
+        <v>45578</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14179,7 +14146,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14216,14 +14183,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 989-2024</t>
+          <t>A 61249-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45301</v>
+        <v>45645.69321759259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14236,7 +14203,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14273,14 +14240,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 61250-2024</t>
+          <t>A 38818-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45645.69521990741</v>
+        <v>45547.55392361111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14293,7 +14260,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14330,14 +14297,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 13325-2022</t>
+          <t>A 45632-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44645.34487268519</v>
+        <v>45579.47123842593</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14349,8 +14316,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>3.7</v>
+        <v>9.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14387,14 +14359,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 50234-2024</t>
+          <t>A 7136-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45600.55275462963</v>
+        <v>44603</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14407,7 +14379,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>7.6</v>
+        <v>1.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14444,14 +14416,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 56677-2023</t>
+          <t>A 24991-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45243.9177199074</v>
+        <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14464,7 +14436,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14501,14 +14473,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 56130-2022</t>
+          <t>A 989-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44886</v>
+        <v>45301</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14521,7 +14493,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14558,14 +14530,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 21061-2022</t>
+          <t>A 61250-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44704</v>
+        <v>45645.69521990741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14578,7 +14550,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14615,14 +14587,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 54374-2022</t>
+          <t>A 13325-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44879</v>
+        <v>44645.34487268519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14635,7 +14607,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14672,14 +14644,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 50259-2023</t>
+          <t>A 50234-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45216.3775</v>
+        <v>45600.55275462963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14692,7 +14664,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3</v>
+        <v>7.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14729,14 +14701,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 15695-2025</t>
+          <t>A 56677-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45748.46914351852</v>
+        <v>45243.9177199074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14749,7 +14721,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14786,14 +14758,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 49551-2024</t>
+          <t>A 56130-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45596.4597337963</v>
+        <v>44886</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14806,7 +14778,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14843,14 +14815,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 46532-2024</t>
+          <t>A 21061-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45582.63861111111</v>
+        <v>44704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14863,7 +14835,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14900,14 +14872,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 12779-2025</t>
+          <t>A 54374-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45733.59574074074</v>
+        <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14920,7 +14892,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>10.1</v>
+        <v>0.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14957,14 +14929,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 11931-2025</t>
+          <t>A 50259-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45728.5212962963</v>
+        <v>45216.3775</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14977,7 +14949,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15014,14 +14986,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 14087-2025</t>
+          <t>A 15695-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45739</v>
+        <v>45748.46914351852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15034,7 +15006,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15071,14 +15043,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 9698-2025</t>
+          <t>A 49551-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45716.37402777778</v>
+        <v>45596.4597337963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15091,7 +15063,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15125,17 +15097,17 @@
       </c>
       <c r="R242" s="2" t="inlineStr"/>
     </row>
-    <row r="243" ht="15" customHeight="1">
+    <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 9695-2025</t>
+          <t>A 46532-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45716.37232638889</v>
+        <v>45582.63861111111</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15148,7 +15120,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15181,120 +15153,6 @@
         <v>0</v>
       </c>
       <c r="R243" s="2" t="inlineStr"/>
-    </row>
-    <row r="244" ht="15" customHeight="1">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>A 23012-2025</t>
-        </is>
-      </c>
-      <c r="B244" s="1" t="n">
-        <v>45790</v>
-      </c>
-      <c r="C244" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G244" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="n">
-        <v>0</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0</v>
-      </c>
-      <c r="L244" t="n">
-        <v>0</v>
-      </c>
-      <c r="M244" t="n">
-        <v>0</v>
-      </c>
-      <c r="N244" t="n">
-        <v>0</v>
-      </c>
-      <c r="O244" t="n">
-        <v>0</v>
-      </c>
-      <c r="P244" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q244" t="n">
-        <v>0</v>
-      </c>
-      <c r="R244" s="2" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>A 14079-2025</t>
-        </is>
-      </c>
-      <c r="B245" s="1" t="n">
-        <v>45739</v>
-      </c>
-      <c r="C245" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G245" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="n">
-        <v>0</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0</v>
-      </c>
-      <c r="L245" t="n">
-        <v>0</v>
-      </c>
-      <c r="M245" t="n">
-        <v>0</v>
-      </c>
-      <c r="N245" t="n">
-        <v>0</v>
-      </c>
-      <c r="O245" t="n">
-        <v>0</v>
-      </c>
-      <c r="P245" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q245" t="n">
-        <v>0</v>
-      </c>
-      <c r="R245" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45135</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44327</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,14 +768,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 10368-2025</t>
+          <t>A 22578-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45720.54828703704</v>
+        <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -788,39 +788,129 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>5</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5</v>
-      </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Granbarkgnagare
+Havstulpanlav
+Kattfotslav
+Klippfrullania
+Korallblylav</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 22578-2021 artfynd.xlsx", "A 22578-2021")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 22578-2021 karta.png", "A 22578-2021")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 22578-2021 FSC-klagomål.docx", "A 22578-2021")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 22578-2021 FSC-klagomål mail.docx", "A 22578-2021")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 22578-2021 tillsynsbegäran.docx", "A 22578-2021")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 22578-2021 tillsynsbegäran mail.docx", "A 22578-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 10368-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45720.54828703704</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Kricka
 Desmeknopp
@@ -830,125 +920,35 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 10368-2025 artfynd.xlsx", "A 10368-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 10368-2025 karta.png", "A 10368-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 10368-2025 FSC-klagomål.docx", "A 10368-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 10368-2025 FSC-klagomål mail.docx", "A 10368-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 10368-2025 tillsynsbegäran.docx", "A 10368-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 10368-2025 tillsynsbegäran mail.docx", "A 10368-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 10368-2025 prioriterade fågelarter.docx", "A 10368-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 22578-2021</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44327</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Granbarkgnagare
-Havstulpanlav
-Kattfotslav
-Klippfrullania
-Korallblylav</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 22578-2021 artfynd.xlsx", "A 22578-2021")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 22578-2021 karta.png", "A 22578-2021")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 22578-2021 FSC-klagomål.docx", "A 22578-2021")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 22578-2021 FSC-klagomål mail.docx", "A 22578-2021")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 22578-2021 tillsynsbegäran.docx", "A 22578-2021")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 22578-2021 tillsynsbegäran mail.docx", "A 22578-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44454</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>46006.48502314815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45936.60298611111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>45944.71523148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>44588</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45638.38912037037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44571</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44252</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45713</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2203,14 +2203,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 53485-2023</t>
+          <t>A 56318-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45230</v>
+        <v>45974</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2261,123 +2261,123 @@
         </is>
       </c>
       <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 56318-2025 artfynd.xlsx", "A 56318-2025")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 56318-2025 karta.png", "A 56318-2025")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 56318-2025 FSC-klagomål.docx", "A 56318-2025")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 56318-2025 FSC-klagomål mail.docx", "A 56318-2025")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 56318-2025 tillsynsbegäran.docx", "A 56318-2025")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 56318-2025 tillsynsbegäran mail.docx", "A 56318-2025")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 56318-2025 prioriterade fågelarter.docx", "A 56318-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 53485-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 53485-2023 artfynd.xlsx", "A 53485-2023")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 53485-2023 karta.png", "A 53485-2023")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 53485-2023 FSC-klagomål.docx", "A 53485-2023")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 53485-2023 FSC-klagomål mail.docx", "A 53485-2023")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 53485-2023 tillsynsbegäran.docx", "A 53485-2023")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 53485-2023 tillsynsbegäran mail.docx", "A 53485-2023")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 53485-2023 prioriterade fågelarter.docx", "A 53485-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 56318-2025</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45974</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>6</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 56318-2025 artfynd.xlsx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 56318-2025 karta.png", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 56318-2025 FSC-klagomål.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 56318-2025 FSC-klagomål mail.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 56318-2025 tillsynsbegäran.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 56318-2025 tillsynsbegäran mail.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 56318-2025 prioriterade fågelarter.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>44252</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>44651</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>44865.65704861111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>44533</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>44585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>44740</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44865.43612268518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44256</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>44511.56693287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44499</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>44494</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>44457</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44606</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>44848.46362268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44318</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3387,14 +3387,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 30731-2022</t>
+          <t>A 50020-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44764.40619212963</v>
+        <v>44865</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3444,14 +3444,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 50020-2022</t>
+          <t>A 30731-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44865</v>
+        <v>44764.40619212963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>44279</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44510</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44526</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44851</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>44722</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>44384.73966435185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>44343.32159722222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44453</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>44298</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44256</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>44699</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>44533</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4185,14 +4185,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 59917-2021</t>
+          <t>A 25790-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44494</v>
+        <v>44343.83640046296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4242,14 +4242,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 25790-2021</t>
+          <t>A 25795-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44343.83640046296</v>
+        <v>44343</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4299,14 +4299,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 25795-2021</t>
+          <t>A 59917-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44343</v>
+        <v>44494</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4363,7 +4363,7 @@
         <v>44588</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45615.50958333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>45646.66194444444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4527,14 +4527,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3178-2024</t>
+          <t>A 52262-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45316</v>
+        <v>45217</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4546,13 +4546,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>8.6</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4589,14 +4584,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 52262-2023</t>
+          <t>A 3178-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45217</v>
+        <v>45316</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4608,8 +4603,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>8.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4653,7 +4653,7 @@
         <v>45385.47545138889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45133</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>45033</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4822,14 +4822,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 44883-2021</t>
+          <t>A 10470-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44438.61731481482</v>
+        <v>45366.38853009259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4879,14 +4879,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 10470-2024</t>
+          <t>A 44883-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45366.38853009259</v>
+        <v>44438.61731481482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>44885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>45733.59574074074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5050,14 +5050,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 19492-2021</t>
+          <t>A 11931-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44312</v>
+        <v>45728.5212962963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5107,14 +5107,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11931-2025</t>
+          <t>A 14087-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45728.5212962963</v>
+        <v>45739</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5164,14 +5164,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 57663-2025</t>
+          <t>A 55830-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45981.42303240741</v>
+        <v>45972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5221,14 +5221,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 14087-2025</t>
+          <t>A 9698-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45739</v>
+        <v>45716.37402777778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5278,14 +5278,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 9698-2025</t>
+          <t>A 9695-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45716.37402777778</v>
+        <v>45716.37232638889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5335,14 +5335,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9695-2025</t>
+          <t>A 23012-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45716.37232638889</v>
+        <v>45790</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5392,14 +5392,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 23012-2025</t>
+          <t>A 18043-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45790</v>
+        <v>44301</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5456,7 +5456,7 @@
         <v>45739</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5506,14 +5506,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 11897-2025</t>
+          <t>A 56196-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45728.46913194445</v>
+        <v>45974.45112268518</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5563,14 +5563,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 18043-2021</t>
+          <t>A 19492-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44301</v>
+        <v>44312</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5620,14 +5620,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29329-2024</t>
+          <t>A 56211-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45483.44387731481</v>
+        <v>45974.47729166667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5677,14 +5677,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 61252-2024</t>
+          <t>A 56208-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45645.69790509259</v>
+        <v>45974.47333333334</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5741,7 +5741,7 @@
         <v>45797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>45596.4672337963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5848,14 +5848,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 39001-2024</t>
+          <t>A 40383-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45548.42012731481</v>
+        <v>45895</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5905,14 +5905,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 30701-2022</t>
+          <t>A 11897-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44763</v>
+        <v>45728.46913194445</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5962,14 +5962,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 61898-2025</t>
+          <t>A 40430-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46003.46565972222</v>
+        <v>45895</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6019,14 +6019,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 40383-2025</t>
+          <t>A 29329-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45895</v>
+        <v>45483.44387731481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6076,14 +6076,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 40430-2025</t>
+          <t>A 61252-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45895</v>
+        <v>45645.69790509259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6133,14 +6133,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 26233-2025</t>
+          <t>A 39001-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45805.5666087963</v>
+        <v>45548.42012731481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6152,13 +6152,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6195,14 +6190,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 26270-2025</t>
+          <t>A 37092-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45805.59357638889</v>
+        <v>45539.49989583333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6215,7 +6210,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6252,14 +6247,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 15552-2023</t>
+          <t>A 30701-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45018</v>
+        <v>44763</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6272,7 +6267,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6309,14 +6304,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 13890-2022</t>
+          <t>A 26233-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44649</v>
+        <v>45805.5666087963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6328,8 +6323,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6366,14 +6366,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 37092-2024</t>
+          <t>A 26270-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45539.49989583333</v>
+        <v>45805.59357638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6423,14 +6423,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 52950-2022</t>
+          <t>A 40652-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44875.65717592592</v>
+        <v>45557</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6480,14 +6480,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 40369-2024</t>
+          <t>A 15552-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45555.39053240741</v>
+        <v>45018</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>14.5</v>
+        <v>3.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6537,14 +6537,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 40652-2024</t>
+          <t>A 13890-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45557</v>
+        <v>44649</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6594,14 +6594,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 28586-2025</t>
+          <t>A 42823-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45819.5812037037</v>
+        <v>45908.57429398148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>7.1</v>
+        <v>1.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6651,14 +6651,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 44529-2023</t>
+          <t>A 52950-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45189</v>
+        <v>44875.65717592592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6708,14 +6708,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 57989-2022</t>
+          <t>A 40369-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44892</v>
+        <v>45555.39053240741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>14.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6765,14 +6765,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42823-2025</t>
+          <t>A 42736-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45908.57429398148</v>
+        <v>45908</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6822,14 +6822,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 16216-2025</t>
+          <t>A 43550-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45750.63079861111</v>
+        <v>45911.61836805556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6879,14 +6879,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 55733-2023</t>
+          <t>A 58226-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45232</v>
+        <v>45985.37508101852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6936,14 +6936,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 29308-2025</t>
+          <t>A 28586-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45824.46103009259</v>
+        <v>45819.5812037037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>7.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6993,14 +6993,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 35113-2021</t>
+          <t>A 44319-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44384.37240740741</v>
+        <v>45916</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7050,14 +7050,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 42736-2025</t>
+          <t>A 44529-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45908</v>
+        <v>45189</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7107,14 +7107,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 29300-2025</t>
+          <t>A 29308-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45824.45552083333</v>
+        <v>45824.46103009259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7164,14 +7164,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43550-2025</t>
+          <t>A 57989-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45911.61836805556</v>
+        <v>44892</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7221,14 +7221,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 42239-2024</t>
+          <t>A 16216-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45562.56358796296</v>
+        <v>45750.63079861111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7278,14 +7278,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 9590-2021</t>
+          <t>A 55733-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44251</v>
+        <v>45232</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7335,14 +7335,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 44319-2025</t>
+          <t>A 29300-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45916</v>
+        <v>45824.45552083333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7392,14 +7392,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 52852-2024</t>
+          <t>A 35113-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45610.60664351852</v>
+        <v>44384.37240740741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7449,14 +7449,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 31917-2025</t>
+          <t>A 45540-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45834</v>
+        <v>45922.61466435185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7506,14 +7506,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 45540-2025</t>
+          <t>A 58251-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45922.61466435185</v>
+        <v>45985.39645833334</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7563,14 +7563,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 25884-2023</t>
+          <t>A 42239-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45085</v>
+        <v>45562.56358796296</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7620,14 +7620,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 33559-2025</t>
+          <t>A 46907-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45841.57549768518</v>
+        <v>45929.40480324074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7677,14 +7677,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 33566-2025</t>
+          <t>A 9590-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45841.58208333333</v>
+        <v>44251</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7734,14 +7734,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 33560-2025</t>
+          <t>A 52852-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45841.57739583333</v>
+        <v>45610.60664351852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7791,14 +7791,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 50603-2024</t>
+          <t>A 31917-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45600</v>
+        <v>45834</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7848,14 +7848,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 33564-2025</t>
+          <t>A 25884-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45841.57973379629</v>
+        <v>45085</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7905,14 +7905,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 33569-2025</t>
+          <t>A 47882-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45841.58334490741</v>
+        <v>45932.46203703704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7962,14 +7962,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 33586-2025</t>
+          <t>A 50603-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45841.59465277778</v>
+        <v>45600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8019,14 +8019,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 46907-2025</t>
+          <t>A 48688-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45929.40480324074</v>
+        <v>45936.60555555556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8076,14 +8076,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 33555-2025</t>
+          <t>A 33559-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45841.57423611111</v>
+        <v>45841.57549768518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8133,14 +8133,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 33536-2025</t>
+          <t>A 33566-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45841.55890046297</v>
+        <v>45841.58208333333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8190,14 +8190,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 33580-2025</t>
+          <t>A 33560-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45841.59407407408</v>
+        <v>45841.57739583333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8247,14 +8247,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 26277-2025</t>
+          <t>A 33564-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45805.60436342593</v>
+        <v>45841.57973379629</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8304,14 +8304,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 6128-2026</t>
+          <t>A 33569-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46054.29585648148</v>
+        <v>45841.58334490741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8361,14 +8361,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 20476-2023</t>
+          <t>A 33586-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45057.34075231481</v>
+        <v>45841.59465277778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,14 +8418,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 47882-2025</t>
+          <t>A 33555-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45932.46203703704</v>
+        <v>45841.57423611111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8475,14 +8475,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 48688-2025</t>
+          <t>A 33536-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45936.60555555556</v>
+        <v>45841.55890046297</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8532,14 +8532,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 15667-2024</t>
+          <t>A 33580-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45404</v>
+        <v>45841.59407407408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8589,14 +8589,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 50401-2021</t>
+          <t>A 20476-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44459</v>
+        <v>45057.34075231481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8646,14 +8646,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 56024-2023</t>
+          <t>A 26277-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45240</v>
+        <v>45805.60436342593</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8703,14 +8703,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 50601-2024</t>
+          <t>A 50057-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45600</v>
+        <v>45942</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8760,14 +8760,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 50057-2025</t>
+          <t>A 50626-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45942</v>
+        <v>45945.63623842593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8779,8 +8779,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1.9</v>
+        <v>14</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8817,14 +8822,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 50626-2025</t>
+          <t>A 50432-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45945.63623842593</v>
+        <v>45944.69248842593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8836,13 +8841,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>14</v>
+        <v>4.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8879,14 +8879,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 50432-2025</t>
+          <t>A 50579-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45944.69248842593</v>
+        <v>45945.58449074074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8936,14 +8936,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 16223-2025</t>
+          <t>A 50589-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45750.63945601852</v>
+        <v>45945.600625</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>7.2</v>
+        <v>3.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8993,14 +8993,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 50579-2025</t>
+          <t>A 50606-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45945.58449074074</v>
+        <v>45945.6171412037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.2</v>
+        <v>6.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9050,14 +9050,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 50589-2025</t>
+          <t>A 50607-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45945.600625</v>
+        <v>45945.61997685185</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.3</v>
+        <v>14.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9107,14 +9107,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 50606-2025</t>
+          <t>A 50578-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45945.6171412037</v>
+        <v>45945.58215277778</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.7</v>
+        <v>2.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9164,14 +9164,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 50607-2025</t>
+          <t>A 50797-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45945.61997685185</v>
+        <v>45946.48350694445</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>14.5</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9221,14 +9221,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 50578-2025</t>
+          <t>A 15667-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45945.58215277778</v>
+        <v>45404</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9278,14 +9278,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 50797-2025</t>
+          <t>A 50401-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45946.48350694445</v>
+        <v>44459</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9335,14 +9335,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 41991-2022</t>
+          <t>A 51427-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44830.44231481481</v>
+        <v>45949</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9392,443 +9392,438 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
+          <t>A 56024-2023</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" s="2" t="inlineStr"/>
+    </row>
+    <row r="145" ht="15" customHeight="1">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>A 50601-2024</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>45600</v>
+      </c>
+      <c r="C145" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" s="2" t="inlineStr"/>
+    </row>
+    <row r="146" ht="15" customHeight="1">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>A 51432-2025</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>45949</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" s="2" t="inlineStr"/>
+    </row>
+    <row r="147" ht="15" customHeight="1">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>A 51429-2025</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>45949</v>
+      </c>
+      <c r="C147" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R147" s="2" t="inlineStr"/>
+    </row>
+    <row r="148" ht="15" customHeight="1">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>A 41991-2022</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>44830.44231481481</v>
+      </c>
+      <c r="C148" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" s="2" t="inlineStr"/>
+    </row>
+    <row r="149" ht="15" customHeight="1">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>A 52833-2025</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>45957.47081018519</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" s="2" t="inlineStr"/>
+    </row>
+    <row r="150" ht="15" customHeight="1">
+      <c r="A150" t="inlineStr">
+        <is>
           <t>A 64707-2023</t>
         </is>
       </c>
-      <c r="B144" s="1" t="n">
+      <c r="B150" s="1" t="n">
         <v>45281</v>
       </c>
-      <c r="C144" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
+      <c r="C150" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G144" t="n">
+      <c r="G150" t="n">
         <v>11.9</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0</v>
-      </c>
-      <c r="O144" t="n">
-        <v>0</v>
-      </c>
-      <c r="P144" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q144" t="n">
-        <v>0</v>
-      </c>
-      <c r="R144" s="2" t="inlineStr"/>
-      <c r="U144">
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" s="2" t="inlineStr"/>
+      <c r="U150">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 64707-2023 karta knärot.png", "A 64707-2023")</f>
         <v/>
       </c>
-      <c r="V144">
+      <c r="V150">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 64707-2023 FSC-klagomål.docx", "A 64707-2023")</f>
         <v/>
       </c>
-      <c r="W144">
+      <c r="W150">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 64707-2023 FSC-klagomål mail.docx", "A 64707-2023")</f>
         <v/>
       </c>
-      <c r="X144">
+      <c r="X150">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 64707-2023 tillsynsbegäran.docx", "A 64707-2023")</f>
         <v/>
       </c>
-      <c r="Y144">
+      <c r="Y150">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 64707-2023 tillsynsbegäran mail.docx", "A 64707-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="145" ht="15" customHeight="1">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>A 37311-2025</t>
-        </is>
-      </c>
-      <c r="B145" s="1" t="n">
-        <v>45876.59644675926</v>
-      </c>
-      <c r="C145" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G145" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0</v>
-      </c>
-      <c r="M145" t="n">
-        <v>0</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0</v>
-      </c>
-      <c r="O145" t="n">
-        <v>0</v>
-      </c>
-      <c r="P145" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>0</v>
-      </c>
-      <c r="R145" s="2" t="inlineStr"/>
-    </row>
-    <row r="146" ht="15" customHeight="1">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>A 3187-2024</t>
-        </is>
-      </c>
-      <c r="B146" s="1" t="n">
-        <v>45316.65596064815</v>
-      </c>
-      <c r="C146" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G146" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P146" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q146" t="n">
-        <v>0</v>
-      </c>
-      <c r="R146" s="2" t="inlineStr"/>
-    </row>
-    <row r="147" ht="15" customHeight="1">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>A 51427-2025</t>
-        </is>
-      </c>
-      <c r="B147" s="1" t="n">
-        <v>45949</v>
-      </c>
-      <c r="C147" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0</v>
-      </c>
-      <c r="O147" t="n">
-        <v>0</v>
-      </c>
-      <c r="P147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R147" s="2" t="inlineStr"/>
-    </row>
-    <row r="148" ht="15" customHeight="1">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>A 51432-2025</t>
-        </is>
-      </c>
-      <c r="B148" s="1" t="n">
-        <v>45949</v>
-      </c>
-      <c r="C148" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G148" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0</v>
-      </c>
-      <c r="L148" t="n">
-        <v>0</v>
-      </c>
-      <c r="M148" t="n">
-        <v>0</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0</v>
-      </c>
-      <c r="O148" t="n">
-        <v>0</v>
-      </c>
-      <c r="P148" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q148" t="n">
-        <v>0</v>
-      </c>
-      <c r="R148" s="2" t="inlineStr"/>
-    </row>
-    <row r="149" ht="15" customHeight="1">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>A 51429-2025</t>
-        </is>
-      </c>
-      <c r="B149" s="1" t="n">
-        <v>45949</v>
-      </c>
-      <c r="C149" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G149" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0</v>
-      </c>
-      <c r="L149" t="n">
-        <v>0</v>
-      </c>
-      <c r="M149" t="n">
-        <v>0</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0</v>
-      </c>
-      <c r="O149" t="n">
-        <v>0</v>
-      </c>
-      <c r="P149" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q149" t="n">
-        <v>0</v>
-      </c>
-      <c r="R149" s="2" t="inlineStr"/>
-    </row>
-    <row r="150" ht="15" customHeight="1">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>A 17525-2025</t>
-        </is>
-      </c>
-      <c r="B150" s="1" t="n">
-        <v>45757.5817824074</v>
-      </c>
-      <c r="C150" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G150" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0</v>
-      </c>
-      <c r="L150" t="n">
-        <v>0</v>
-      </c>
-      <c r="M150" t="n">
-        <v>0</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0</v>
-      </c>
-      <c r="O150" t="n">
-        <v>0</v>
-      </c>
-      <c r="P150" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q150" t="n">
-        <v>0</v>
-      </c>
-      <c r="R150" s="2" t="inlineStr"/>
-    </row>
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 52833-2025</t>
+          <t>A 3187-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45957.47081018519</v>
+        <v>45316.65596064815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9840,8 +9835,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9878,14 +9878,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 46371-2022</t>
+          <t>A 16223-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44848</v>
+        <v>45750.63945601852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9897,13 +9897,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9940,14 +9935,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 59383-2024</t>
+          <t>A 46371-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45638.35758101852</v>
+        <v>44848</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9965,7 +9960,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10002,14 +9997,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 33745-2023</t>
+          <t>A 59383-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45133.39075231482</v>
+        <v>45638.35758101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10021,8 +10016,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10059,14 +10059,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 6379-2026</t>
+          <t>A 54126-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46055</v>
+        <v>45964.45715277778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10116,14 +10116,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 7448-2026</t>
+          <t>A 33745-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46059.46386574074</v>
+        <v>45133.39075231482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10135,13 +10135,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10178,14 +10173,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 7466-2026</t>
+          <t>A 37311-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46059.48324074074</v>
+        <v>45876.59644675926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10197,13 +10192,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10240,14 +10230,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 7545-2026</t>
+          <t>A 28430-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46059.65075231482</v>
+        <v>45477</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10260,7 +10250,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10297,14 +10287,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 28430-2024</t>
+          <t>A 17525-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45477</v>
+        <v>45757.5817824074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10317,7 +10307,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10354,14 +10344,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 54126-2025</t>
+          <t>A 5326-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45964.45715277778</v>
+        <v>45331.41356481481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10374,7 +10364,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10411,14 +10401,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 5326-2024</t>
+          <t>A 10764-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45331.41356481481</v>
+        <v>45369.56681712963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10431,7 +10421,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10468,14 +10458,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 10764-2024</t>
+          <t>A 1945-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45369.56681712963</v>
+        <v>46035.59709490741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10488,7 +10478,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>8.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10525,14 +10515,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 55830-2025</t>
+          <t>A 59902-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45972</v>
+        <v>45993.34480324074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10545,7 +10535,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10582,14 +10572,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 56196-2025</t>
+          <t>A 1608-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45974.45112268518</v>
+        <v>46034.46770833333</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10602,7 +10592,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>6.3</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10639,14 +10629,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 8051-2026</t>
+          <t>A 2982-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46063</v>
+        <v>45678.51011574074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10659,7 +10649,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10696,14 +10686,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 8058-2026</t>
+          <t>A 60768-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46063</v>
+        <v>44907</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10716,7 +10706,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10753,14 +10743,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 56211-2025</t>
+          <t>A 2322-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45974.47729166667</v>
+        <v>46036.60327546296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10773,7 +10763,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10810,14 +10800,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 56208-2025</t>
+          <t>A 2324-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45974.47333333334</v>
+        <v>46036.60572916667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10830,7 +10820,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10867,14 +10857,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 2982-2025</t>
+          <t>A 20888-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45678.51011574074</v>
+        <v>44701</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10924,14 +10914,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 8060-2026</t>
+          <t>A 18043-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46063</v>
+        <v>44301</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10944,7 +10934,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10981,14 +10971,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 60768-2022</t>
+          <t>A 61413-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44907</v>
+        <v>46000</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11001,7 +10991,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11038,14 +11028,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 58226-2025</t>
+          <t>A 45617-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45985.37508101852</v>
+        <v>45579.45523148148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11058,7 +11048,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11095,14 +11085,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 20888-2022</t>
+          <t>A 57663-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44701</v>
+        <v>45981.42303240741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11152,14 +11142,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 58251-2025</t>
+          <t>A 61898-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45985.39645833334</v>
+        <v>46003.46565972222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11172,7 +11162,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11209,14 +11199,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 18043-2021</t>
+          <t>A 9983-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44301</v>
+        <v>44621.43550925926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11229,7 +11219,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>6.1</v>
+        <v>0.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11266,14 +11256,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 45617-2024</t>
+          <t>A 33131-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45579.45523148148</v>
+        <v>45126</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11286,7 +11276,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11323,14 +11313,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 880-2026</t>
+          <t>A 24514-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46029</v>
+        <v>45458</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11343,7 +11333,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11380,14 +11370,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1945-2026</t>
+          <t>A 31388-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46035.59709490741</v>
+        <v>44774.62195601852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11400,7 +11390,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11437,14 +11427,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 9983-2022</t>
+          <t>A 29195-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44621.43550925926</v>
+        <v>45482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11447,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11494,14 +11484,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 33131-2023</t>
+          <t>A 994-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45126</v>
+        <v>45301.62427083333</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11514,7 +11504,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11551,14 +11541,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 59902-2025</t>
+          <t>A 44408-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45993.34480324074</v>
+        <v>44435</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11571,7 +11561,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11608,14 +11598,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 24514-2024</t>
+          <t>A 6128-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45458</v>
+        <v>46054.29585648148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11628,7 +11618,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11665,14 +11655,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 1608-2026</t>
+          <t>A 6379-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46034.46770833333</v>
+        <v>46055</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11685,7 +11675,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11722,14 +11712,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 31388-2022</t>
+          <t>A 10457-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44774.62195601852</v>
+        <v>44987</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11742,7 +11732,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11779,14 +11769,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 29195-2024</t>
+          <t>A 7448-2026</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45482</v>
+        <v>46059.46386574074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11798,8 +11788,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11836,14 +11831,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 994-2024</t>
+          <t>A 7466-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45301.62427083333</v>
+        <v>46059.48324074074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11855,8 +11850,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11893,14 +11893,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 2322-2026</t>
+          <t>A 7545-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46036.60327546296</v>
+        <v>46059.65075231482</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11950,14 +11950,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 2324-2026</t>
+          <t>A 50034-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46036.60572916667</v>
+        <v>44865.45782407407</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12007,14 +12007,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 44408-2021</t>
+          <t>A 57768-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44435</v>
+        <v>44892</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12064,14 +12064,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 61413-2025</t>
+          <t>A 8051-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46000</v>
+        <v>46063</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12121,14 +12121,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 10457-2023</t>
+          <t>A 8058-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44987</v>
+        <v>46063</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>6.6</v>
+        <v>0.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12178,14 +12178,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 50034-2022</t>
+          <t>A 8060-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44865.45782407407</v>
+        <v>46063</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12235,14 +12235,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 57768-2022</t>
+          <t>A 2231-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44892</v>
+        <v>44942</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12292,14 +12292,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 2231-2023</t>
+          <t>A 16363-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44942</v>
+        <v>45407.59325231481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12349,14 +12349,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 16363-2024</t>
+          <t>A 15704-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45407.59325231481</v>
+        <v>45748.4815162037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12406,14 +12406,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 15704-2025</t>
+          <t>A 72625-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45748.4815162037</v>
+        <v>44546.55005787037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12463,14 +12463,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 72625-2021</t>
+          <t>A 19134-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44546.55005787037</v>
+        <v>45764</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12520,14 +12520,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 19134-2025</t>
+          <t>A 880-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45764</v>
+        <v>46029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12584,7 +12584,7 @@
         <v>45126.59351851852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>45548.40613425926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44903</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>45728.46309027778</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>45589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>45019</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>45615</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>45133.39594907407</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>45189.4774537037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>45638.37623842592</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>45645.69128472222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>45351.32293981482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>45002</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>45440</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>45482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44525</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>45216.37878472222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>45548.39829861111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>45483.43834490741</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>45243.6625</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>45729.58333333334</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>45170</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>45318</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>45610.68715277778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>45061</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45071.44758101852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>45236</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>45578</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>45645.69321759259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>45547.55392361111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>45579.47123842593</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44603</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>45085</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>45301</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>45645.69521990741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44645.34487268519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>45600.55275462963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>45243.9177199074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44886</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44879</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>45216.3775</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>45748.46914351852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>45596.4597337963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>45582.63861111111</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45135</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44327</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,14 +768,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 10368-2025</t>
+          <t>A 22578-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45720.54828703704</v>
+        <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -788,39 +788,129 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>5</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5</v>
-      </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Granbarkgnagare
+Havstulpanlav
+Kattfotslav
+Klippfrullania
+Korallblylav</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 22578-2021 artfynd.xlsx", "A 22578-2021")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 22578-2021 karta.png", "A 22578-2021")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 22578-2021 FSC-klagomål.docx", "A 22578-2021")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 22578-2021 FSC-klagomål mail.docx", "A 22578-2021")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 22578-2021 tillsynsbegäran.docx", "A 22578-2021")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 22578-2021 tillsynsbegäran mail.docx", "A 22578-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 10368-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45720.54828703704</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Kricka
 Desmeknopp
@@ -830,125 +920,35 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 10368-2025 artfynd.xlsx", "A 10368-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 10368-2025 karta.png", "A 10368-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 10368-2025 FSC-klagomål.docx", "A 10368-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 10368-2025 FSC-klagomål mail.docx", "A 10368-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 10368-2025 tillsynsbegäran.docx", "A 10368-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 10368-2025 tillsynsbegäran mail.docx", "A 10368-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 10368-2025 prioriterade fågelarter.docx", "A 10368-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 22578-2021</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44327</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Granbarkgnagare
-Havstulpanlav
-Kattfotslav
-Klippfrullania
-Korallblylav</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 22578-2021 artfynd.xlsx", "A 22578-2021")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 22578-2021 karta.png", "A 22578-2021")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 22578-2021 FSC-klagomål.docx", "A 22578-2021")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 22578-2021 FSC-klagomål mail.docx", "A 22578-2021")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 22578-2021 tillsynsbegäran.docx", "A 22578-2021")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 22578-2021 tillsynsbegäran mail.docx", "A 22578-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44454</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,14 +1140,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 62152-2025</t>
+          <t>A 6043-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>46006.48502314815</v>
+        <v>45336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1187,138 +1187,138 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Grönpyrola
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 6043-2024 artfynd.xlsx", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 6043-2024 karta.png", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 6043-2024 karta knärot.png", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 6043-2024 FSC-klagomål.docx", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 6043-2024 FSC-klagomål mail.docx", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 6043-2024 tillsynsbegäran.docx", "A 6043-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 6043-2024 tillsynsbegäran mail.docx", "A 6043-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 62152-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>46006.48502314815</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa
 Revlummer</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 62152-2025 artfynd.xlsx", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 62152-2025 karta.png", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 62152-2025 FSC-klagomål.docx", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 62152-2025 FSC-klagomål mail.docx", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 62152-2025 tillsynsbegäran.docx", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 62152-2025 tillsynsbegäran mail.docx", "A 62152-2025")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 62152-2025 prioriterade fågelarter.docx", "A 62152-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 6043-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45336</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Grönpyrola
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 6043-2024 artfynd.xlsx", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 6043-2024 karta.png", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 6043-2024 karta knärot.png", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 6043-2024 FSC-klagomål.docx", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 6043-2024 FSC-klagomål mail.docx", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 6043-2024 tillsynsbegäran.docx", "A 6043-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 6043-2024 tillsynsbegäran mail.docx", "A 6043-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45936.60298611111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>45944.71523148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 4173-2022</t>
+          <t>A 8291-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44588</v>
+        <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>17.3</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -1643,215 +1643,215 @@
         </is>
       </c>
       <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 8291-2023 artfynd.xlsx", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 8291-2023 karta.png", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 8291-2023 FSC-klagomål.docx", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 8291-2023 FSC-klagomål mail.docx", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 8291-2023 tillsynsbegäran.docx", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 8291-2023 tillsynsbegäran mail.docx", "A 8291-2023")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 8291-2023 prioriterade fågelarter.docx", "A 8291-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 4173-2022</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 4173-2022 artfynd.xlsx", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 4173-2022 karta.png", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 4173-2022 FSC-klagomål.docx", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 4173-2022 FSC-klagomål mail.docx", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 4173-2022 tillsynsbegäran.docx", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 4173-2022 tillsynsbegäran mail.docx", "A 4173-2022")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 4173-2022 prioriterade fågelarter.docx", "A 4173-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 59406-2024</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45638.38912037037</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>11.9</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>2</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>2</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>2</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Hasselsnok
 Sandödla</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 59406-2024 artfynd.xlsx", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 59406-2024 karta.png", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 59406-2024 FSC-klagomål.docx", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 59406-2024 FSC-klagomål mail.docx", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 59406-2024 tillsynsbegäran.docx", "A 59406-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 59406-2024 tillsynsbegäran mail.docx", "A 59406-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 8291-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44974</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 8291-2023 artfynd.xlsx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 8291-2023 karta.png", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 8291-2023 FSC-klagomål.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 8291-2023 FSC-klagomål mail.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 8291-2023 tillsynsbegäran.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 8291-2023 tillsynsbegäran mail.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 8291-2023 prioriterade fågelarter.docx", "A 8291-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44571</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44252</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,14 +2114,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 9001-2025</t>
+          <t>A 53485-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45713</v>
+        <v>45230</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2161,312 +2161,312 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 53485-2023 artfynd.xlsx", "A 53485-2023")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 53485-2023 karta.png", "A 53485-2023")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 53485-2023 FSC-klagomål.docx", "A 53485-2023")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 53485-2023 FSC-klagomål mail.docx", "A 53485-2023")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 53485-2023 tillsynsbegäran.docx", "A 53485-2023")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 53485-2023 tillsynsbegäran mail.docx", "A 53485-2023")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 53485-2023 prioriterade fågelarter.docx", "A 53485-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 56318-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45974</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 56318-2025 artfynd.xlsx", "A 56318-2025")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 56318-2025 karta.png", "A 56318-2025")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 56318-2025 FSC-klagomål.docx", "A 56318-2025")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 56318-2025 FSC-klagomål mail.docx", "A 56318-2025")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 56318-2025 tillsynsbegäran.docx", "A 56318-2025")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 56318-2025 tillsynsbegäran mail.docx", "A 56318-2025")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 56318-2025 prioriterade fågelarter.docx", "A 56318-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 9947-2021</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>44252</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="U21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 9001-2025</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45713</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>STRÖMSTAD</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9001-2025 artfynd.xlsx", "A 9001-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9001-2025 karta.png", "A 9001-2025")</f>
         <v/>
       </c>
-      <c r="U19">
+      <c r="U22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9001-2025 karta knärot.png", "A 9001-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9001-2025 FSC-klagomål.docx", "A 9001-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9001-2025 FSC-klagomål mail.docx", "A 9001-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9001-2025 tillsynsbegäran.docx", "A 9001-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9001-2025 tillsynsbegäran mail.docx", "A 9001-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 9947-2021</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>44252</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 9947-2021 artfynd.xlsx", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 9947-2021 karta.png", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 9947-2021 karta knärot.png", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 9947-2021 FSC-klagomål.docx", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 9947-2021 FSC-klagomål mail.docx", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 9947-2021 tillsynsbegäran.docx", "A 9947-2021")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 9947-2021 tillsynsbegäran mail.docx", "A 9947-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 56318-2025</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45974</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>6</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 56318-2025 artfynd.xlsx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 56318-2025 karta.png", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 56318-2025 FSC-klagomål.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 56318-2025 FSC-klagomål mail.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 56318-2025 tillsynsbegäran.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 56318-2025 tillsynsbegäran mail.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 56318-2025 prioriterade fågelarter.docx", "A 56318-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 53485-2023</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45230</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/artfynd/A 53485-2023 artfynd.xlsx", "A 53485-2023")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/kartor/A 53485-2023 karta.png", "A 53485-2023")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 53485-2023 FSC-klagomål.docx", "A 53485-2023")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 53485-2023 FSC-klagomål mail.docx", "A 53485-2023")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 53485-2023 tillsynsbegäran.docx", "A 53485-2023")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 53485-2023 tillsynsbegäran mail.docx", "A 53485-2023")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/fåglar/A 53485-2023 prioriterade fågelarter.docx", "A 53485-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>44651</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>44865.65704861111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>44533</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>44585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>44740</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44865.43612268518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44256</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>44511.56693287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44499</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>44494</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>44457</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44606</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3268,14 +3268,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 20973-2021</t>
+          <t>A 46436-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44318</v>
+        <v>44848.46362268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3287,8 +3287,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3325,14 +3330,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 46436-2022</t>
+          <t>A 20973-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44848.46362268519</v>
+        <v>44318</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3344,13 +3349,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>44865</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3444,14 +3444,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 30731-2022</t>
+          <t>A 14549-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44764.40619212963</v>
+        <v>44279</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3501,14 +3501,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 14549-2021</t>
+          <t>A 64020-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44279</v>
+        <v>44510</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3558,14 +3558,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 64020-2021</t>
+          <t>A 30731-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44510</v>
+        <v>44764.40619212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>44526</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44851</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>44722</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>44384.73966435185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>44343.32159722222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44453</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>44298</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44256</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>44699</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>44533</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4185,14 +4185,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 25790-2021</t>
+          <t>A 59917-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44343.83640046296</v>
+        <v>44494</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4242,14 +4242,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 25795-2021</t>
+          <t>A 25790-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44343</v>
+        <v>44343.83640046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4299,14 +4299,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59917-2021</t>
+          <t>A 25795-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44494</v>
+        <v>44343</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4363,7 +4363,7 @@
         <v>44588</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4413,14 +4413,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 31388-2022</t>
+          <t>A 53761-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44774.62195601852</v>
+        <v>45615.50958333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4470,14 +4470,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 30701-2022</t>
+          <t>A 3178-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44763</v>
+        <v>45316</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4489,8 +4489,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>8.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4527,14 +4532,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 61250-2024</t>
+          <t>A 61626-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45645.69521990741</v>
+        <v>45646.66194444444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4547,7 +4552,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.5</v>
+        <v>7.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4584,14 +4589,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17525-2025</t>
+          <t>A 12945-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45757.5817824074</v>
+        <v>45385.47545138889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4604,7 +4609,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4641,14 +4646,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 47882-2025</t>
+          <t>A 52262-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45932.46203703704</v>
+        <v>45217</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4661,7 +4666,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4698,14 +4703,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 15667-2024</t>
+          <t>A 33772-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45404</v>
+        <v>45133</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4718,7 +4723,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4755,14 +4760,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 59396-2024</t>
+          <t>A 16989-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45638.37623842592</v>
+        <v>45033</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4780,7 +4785,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4817,14 +4822,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 24991-2023</t>
+          <t>A 44883-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45085</v>
+        <v>44438.61731481482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4837,7 +4842,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4874,14 +4879,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 57989-2022</t>
+          <t>A 10470-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44892</v>
+        <v>45366.38853009259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4894,7 +4899,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4938,7 +4943,7 @@
         <v>44885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4988,14 +4993,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 10764-2024</t>
+          <t>A 11897-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45369.56681712963</v>
+        <v>45728.46913194445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5008,7 +5013,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>8.300000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5045,14 +5050,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 48688-2025</t>
+          <t>A 29329-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45936.60555555556</v>
+        <v>45483.44387731481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5065,7 +5070,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5102,14 +5107,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 46532-2024</t>
+          <t>A 61252-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45582.63861111111</v>
+        <v>45645.69790509259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5122,7 +5127,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5159,14 +5164,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 49551-2024</t>
+          <t>A 39001-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45596.4597337963</v>
+        <v>45548.42012731481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5179,7 +5184,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5216,14 +5221,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 46371-2022</t>
+          <t>A 30701-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44848</v>
+        <v>44763</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5235,13 +5240,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5278,14 +5278,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42239-2024</t>
+          <t>A 52950-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45562.56358796296</v>
+        <v>44875.65717592592</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5335,14 +5335,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 54374-2022</t>
+          <t>A 40369-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44879</v>
+        <v>45555.39053240741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>14.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5392,14 +5392,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 24514-2024</t>
+          <t>A 19492-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45458</v>
+        <v>44312</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5449,14 +5449,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 23012-2025</t>
+          <t>A 44529-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45790</v>
+        <v>45189</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5506,14 +5506,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 40430-2025</t>
+          <t>A 57989-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45895</v>
+        <v>44892</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5563,14 +5563,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 40383-2025</t>
+          <t>A 16216-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45895</v>
+        <v>45750.63079861111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5620,14 +5620,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 40652-2024</t>
+          <t>A 55733-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45557</v>
+        <v>45232</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5677,14 +5677,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 37092-2024</t>
+          <t>A 35113-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45539.49989583333</v>
+        <v>44384.37240740741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5734,14 +5734,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 9695-2025</t>
+          <t>A 42239-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45716.37232638889</v>
+        <v>45562.56358796296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5791,14 +5791,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 14079-2025</t>
+          <t>A 9590-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45739</v>
+        <v>44251</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5848,14 +5848,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 12779-2025</t>
+          <t>A 28586-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45733.59574074074</v>
+        <v>45819.5812037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>10.1</v>
+        <v>7.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5905,14 +5905,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 9698-2025</t>
+          <t>A 18043-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45716.37402777778</v>
+        <v>44301</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5962,14 +5962,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 11931-2025</t>
+          <t>A 52852-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45728.5212962963</v>
+        <v>45610.60664351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6019,14 +6019,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14087-2025</t>
+          <t>A 29308-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45739</v>
+        <v>45824.46103009259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6076,14 +6076,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 50432-2025</t>
+          <t>A 29300-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45944.69248842593</v>
+        <v>45824.45552083333</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6133,14 +6133,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 50057-2025</t>
+          <t>A 25884-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45942</v>
+        <v>45085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6190,14 +6190,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 50626-2025</t>
+          <t>A 40383-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45945.63623842593</v>
+        <v>45895</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6209,13 +6209,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>14</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6252,14 +6247,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 72625-2021</t>
+          <t>A 50603-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44546.55005787037</v>
+        <v>45600</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6272,7 +6267,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6309,14 +6304,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42736-2025</t>
+          <t>A 40430-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45908</v>
+        <v>45895</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6329,7 +6324,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6366,14 +6361,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 50579-2025</t>
+          <t>A 37092-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45945.58449074074</v>
+        <v>45539.49989583333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6386,7 +6381,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6423,14 +6418,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 50589-2025</t>
+          <t>A 31917-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45945.600625</v>
+        <v>45834</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6443,7 +6438,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6480,14 +6475,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 50606-2025</t>
+          <t>A 20476-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45945.6171412037</v>
+        <v>45057.34075231481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6500,7 +6495,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.7</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6537,14 +6532,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 50607-2025</t>
+          <t>A 40652-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45945.61997685185</v>
+        <v>45557</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6557,7 +6552,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>14.5</v>
+        <v>2.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6594,14 +6589,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 50578-2025</t>
+          <t>A 33559-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45945.58215277778</v>
+        <v>45841.57549768518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6614,7 +6609,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6651,14 +6646,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 50797-2025</t>
+          <t>A 42823-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45946.48350694445</v>
+        <v>45908.57429398148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6671,7 +6666,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6708,14 +6703,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 51427-2025</t>
+          <t>A 33566-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45949</v>
+        <v>45841.58208333333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6728,7 +6723,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6765,14 +6760,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42823-2025</t>
+          <t>A 15667-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45908.57429398148</v>
+        <v>45404</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6785,7 +6780,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6822,14 +6817,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 51429-2025</t>
+          <t>A 33560-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45949</v>
+        <v>45841.57739583333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6842,7 +6837,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6879,14 +6874,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 51432-2025</t>
+          <t>A 33564-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45949</v>
+        <v>45841.57973379629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6899,7 +6894,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6936,14 +6931,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 44408-2021</t>
+          <t>A 33569-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44435</v>
+        <v>45841.58334490741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6951,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6993,14 +6988,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 24348-2025</t>
+          <t>A 33586-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45797</v>
+        <v>45841.59465277778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7008,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7050,14 +7045,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 49554-2024</t>
+          <t>A 50401-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45596.4672337963</v>
+        <v>44459</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7065,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7107,14 +7102,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 52833-2025</t>
+          <t>A 42736-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45957.47081018519</v>
+        <v>45908</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7122,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7164,14 +7159,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 29327-2024</t>
+          <t>A 33555-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45483.43834490741</v>
+        <v>45841.57423611111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7179,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7221,14 +7216,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 41991-2022</t>
+          <t>A 56024-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44830.44231481481</v>
+        <v>45240</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7236,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7278,14 +7273,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 44523-2023</t>
+          <t>A 33536-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45189.4774537037</v>
+        <v>45841.55890046297</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7293,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.6</v>
+        <v>6.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7335,14 +7330,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 54126-2025</t>
+          <t>A 43550-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45964.45715277778</v>
+        <v>45911.61836805556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7350,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7392,14 +7387,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 12238-2025</t>
+          <t>A 33580-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45729.58333333334</v>
+        <v>45841.59407407408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7412,7 +7407,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>10.6</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7449,14 +7444,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 43550-2025</t>
+          <t>A 50601-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45911.61836805556</v>
+        <v>45600</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7469,7 +7464,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7506,14 +7501,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 44319-2025</t>
+          <t>A 26277-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45916</v>
+        <v>45805.60436342593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7526,7 +7521,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7563,14 +7558,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 26233-2025</t>
+          <t>A 44319-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45805.5666087963</v>
+        <v>45916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,11 +7575,6 @@
       <c r="E112" t="inlineStr">
         <is>
           <t>STRÖMSTAD</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -7625,14 +7615,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26270-2025</t>
+          <t>A 41991-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45805.59357638889</v>
+        <v>44830.44231481481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7645,7 +7635,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7682,14 +7672,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 55830-2025</t>
+          <t>A 64707-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45972</v>
+        <v>45281</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7701,8 +7691,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>5.1</v>
+        <v>11.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7735,18 +7730,38 @@
         <v>0</v>
       </c>
       <c r="R114" s="2" t="inlineStr"/>
+      <c r="U114">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 64707-2023 karta knärot.png", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="V114">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 64707-2023 FSC-klagomål.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="W114">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 64707-2023 FSC-klagomål mail.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="X114">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 64707-2023 tillsynsbegäran.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
+      <c r="Y114">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 64707-2023 tillsynsbegäran mail.docx", "A 64707-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 13890-2022</t>
+          <t>A 3187-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44649</v>
+        <v>45316.65596064815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7758,8 +7773,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7803,7 +7823,7 @@
         <v>45922.61466435185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7853,14 +7873,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 56211-2025</t>
+          <t>A 46371-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45974.47729166667</v>
+        <v>44848</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7872,8 +7892,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7910,14 +7935,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 15552-2023</t>
+          <t>A 59383-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45018</v>
+        <v>45638.35758101852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7929,8 +7954,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7967,14 +7997,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 56208-2025</t>
+          <t>A 33745-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45974.47333333334</v>
+        <v>45133.39075231482</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8024,14 +8054,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 56196-2025</t>
+          <t>A 46907-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45974.45112268518</v>
+        <v>45929.40480324074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8044,7 +8074,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6.3</v>
+        <v>2.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8081,14 +8111,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 46907-2025</t>
+          <t>A 28430-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45929.40480324074</v>
+        <v>45477</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8101,7 +8131,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8138,14 +8168,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 28586-2025</t>
+          <t>A 16223-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45819.5812037037</v>
+        <v>45750.63945601852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8158,7 +8188,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8195,14 +8225,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 29300-2025</t>
+          <t>A 5326-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45824.45552083333</v>
+        <v>45331.41356481481</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8215,7 +8245,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8252,14 +8282,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 29308-2025</t>
+          <t>A 10764-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45824.46103009259</v>
+        <v>45369.56681712963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8272,7 +8302,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8309,14 +8339,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 33118-2023</t>
+          <t>A 47882-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45126.59351851852</v>
+        <v>45932.46203703704</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8329,7 +8359,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8366,14 +8396,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 33131-2023</t>
+          <t>A 37311-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45126</v>
+        <v>45876.59644675926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8386,7 +8416,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8423,14 +8453,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 15695-2025</t>
+          <t>A 48688-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45748.46914351852</v>
+        <v>45936.60555555556</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8443,7 +8473,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8480,14 +8510,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 31917-2025</t>
+          <t>A 17525-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45834</v>
+        <v>45757.5817824074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8500,7 +8530,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8537,14 +8567,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45578-2024</t>
+          <t>A 2982-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45578</v>
+        <v>45678.51011574074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8557,7 +8587,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8594,14 +8624,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 13325-2022</t>
+          <t>A 60768-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44645.34487268519</v>
+        <v>44907</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8614,7 +8644,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.7</v>
+        <v>10</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8651,14 +8681,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 58226-2025</t>
+          <t>A 50057-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45985.37508101852</v>
+        <v>45942</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8671,7 +8701,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8708,14 +8738,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 58251-2025</t>
+          <t>A 50626-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45985.39645833334</v>
+        <v>45945.63623842593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8727,8 +8757,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1.7</v>
+        <v>14</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8765,14 +8800,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 33559-2025</t>
+          <t>A 50432-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45841.57549768518</v>
+        <v>45944.69248842593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8785,7 +8820,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8822,14 +8857,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 33560-2025</t>
+          <t>A 50579-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45841.57739583333</v>
+        <v>45945.58449074074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8842,7 +8877,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8879,14 +8914,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 9590-2021</t>
+          <t>A 50589-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44251</v>
+        <v>45945.600625</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8899,7 +8934,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8936,14 +8971,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 33555-2025</t>
+          <t>A 50606-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45841.57423611111</v>
+        <v>45945.6171412037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8956,7 +8991,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>6.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8993,14 +9028,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 33566-2025</t>
+          <t>A 50607-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45841.58208333333</v>
+        <v>45945.61997685185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9013,7 +9048,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.3</v>
+        <v>14.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9050,14 +9085,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 33564-2025</t>
+          <t>A 20888-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45841.57973379629</v>
+        <v>44701</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9070,7 +9105,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9107,14 +9142,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 33569-2025</t>
+          <t>A 50578-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45841.58334490741</v>
+        <v>45945.58215277778</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9127,7 +9162,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9164,14 +9199,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 33586-2025</t>
+          <t>A 18043-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45841.59465277778</v>
+        <v>44301</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9184,7 +9219,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>6.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9221,14 +9256,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 33580-2025</t>
+          <t>A 50797-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45841.59407407408</v>
+        <v>45946.48350694445</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9241,7 +9276,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9278,14 +9313,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 26277-2025</t>
+          <t>A 51427-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45805.60436342593</v>
+        <v>45949</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9298,7 +9333,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9335,14 +9370,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 33536-2025</t>
+          <t>A 51432-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45841.55890046297</v>
+        <v>45949</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9355,7 +9390,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>6.3</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9392,14 +9427,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 1608-2026</t>
+          <t>A 51429-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46034.46770833333</v>
+        <v>45949</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9412,7 +9447,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9449,14 +9484,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 2322-2026</t>
+          <t>A 45617-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46036.60327546296</v>
+        <v>45579.45523148148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9469,7 +9504,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9506,14 +9541,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 2324-2026</t>
+          <t>A 52833-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46036.60572916667</v>
+        <v>45957.47081018519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9526,7 +9561,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9563,14 +9598,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 1945-2026</t>
+          <t>A 9983-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46035.59709490741</v>
+        <v>44621.43550925926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9583,7 +9618,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9620,14 +9655,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 59902-2025</t>
+          <t>A 33131-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45993.34480324074</v>
+        <v>45126</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9640,7 +9675,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9677,14 +9712,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 59383-2024</t>
+          <t>A 24514-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45638.35758101852</v>
+        <v>45458</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,13 +9731,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9739,14 +9769,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 52902-2024</t>
+          <t>A 31388-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45610.68715277778</v>
+        <v>44774.62195601852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9759,7 +9789,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9796,14 +9826,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 10457-2023</t>
+          <t>A 29195-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44987</v>
+        <v>45482</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9846,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>6.6</v>
+        <v>2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9853,14 +9883,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 61247-2024</t>
+          <t>A 54126-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45645.69128472222</v>
+        <v>45964.45715277778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9903,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9910,14 +9940,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 16223-2025</t>
+          <t>A 994-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45750.63945601852</v>
+        <v>45301.62427083333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9960,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>7.2</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9967,14 +9997,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 37311-2025</t>
+          <t>A 44408-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45876.59644675926</v>
+        <v>44435</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +10017,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10024,14 +10054,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 18043-2021</t>
+          <t>A 55830-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44301</v>
+        <v>45972</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10074,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>6.1</v>
+        <v>5.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10081,14 +10111,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 53761-2024</t>
+          <t>A 56196-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45615.50958333333</v>
+        <v>45974.45112268518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10131,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.3</v>
+        <v>6.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10138,14 +10168,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 16989-2023</t>
+          <t>A 56211-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45033</v>
+        <v>45974.47729166667</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10157,13 +10187,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10200,14 +10225,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 44529-2023</t>
+          <t>A 56208-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45189</v>
+        <v>45974.47333333334</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10220,7 +10245,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10257,14 +10282,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 57663-2025</t>
+          <t>A 10457-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45981.42303240741</v>
+        <v>44987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10277,7 +10302,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10314,14 +10339,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 33745-2023</t>
+          <t>A 58226-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45133.39075231482</v>
+        <v>45985.37508101852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10334,7 +10359,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10371,14 +10396,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 18043-2021</t>
+          <t>A 50034-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44301</v>
+        <v>44865.45782407407</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10391,7 +10416,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>6.1</v>
+        <v>2.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10428,14 +10453,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 61413-2025</t>
+          <t>A 58251-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46000</v>
+        <v>45985.39645833334</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10448,7 +10473,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10485,14 +10510,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 29329-2024</t>
+          <t>A 57768-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45483.44387731481</v>
+        <v>44892</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10505,7 +10530,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10542,14 +10567,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 16216-2025</t>
+          <t>A 1945-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45750.63079861111</v>
+        <v>46035.59709490741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10562,7 +10587,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10599,14 +10624,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 61898-2025</t>
+          <t>A 59902-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46003.46565972222</v>
+        <v>45993.34480324074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10619,7 +10644,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10656,14 +10681,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 2982-2025</t>
+          <t>A 1608-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45678.51011574074</v>
+        <v>46034.46770833333</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10676,7 +10701,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10713,14 +10738,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 20476-2023</t>
+          <t>A 2231-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45057.34075231481</v>
+        <v>44942</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10733,7 +10758,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10770,14 +10795,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 19134-2025</t>
+          <t>A 2322-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45764</v>
+        <v>46036.60327546296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10790,7 +10815,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10827,14 +10852,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 50261-2023</t>
+          <t>A 2324-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45216.37878472222</v>
+        <v>46036.60572916667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10847,7 +10872,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10884,14 +10909,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 50401-2021</t>
+          <t>A 16363-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44459</v>
+        <v>45407.59325231481</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10904,7 +10929,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10941,14 +10966,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 11897-2025</t>
+          <t>A 15704-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45728.46913194445</v>
+        <v>45748.4815162037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10986,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10998,14 +11023,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 22560-2023</t>
+          <t>A 72625-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45071.44758101852</v>
+        <v>44546.55005787037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11018,7 +11043,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11055,14 +11080,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 6128-2026</t>
+          <t>A 19134-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46054.29585648148</v>
+        <v>45764</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11100,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11112,14 +11137,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 6379-2026</t>
+          <t>A 33118-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46055</v>
+        <v>45126.59351851852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11157,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11169,14 +11194,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 50034-2022</t>
+          <t>A 38988-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44865.45782407407</v>
+        <v>45548.40613425926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11189,7 +11214,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11226,14 +11251,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 50234-2024</t>
+          <t>A 60220-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45600.55275462963</v>
+        <v>44903</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11246,7 +11271,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11283,14 +11308,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 12945-2024</t>
+          <t>A 61413-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45385.47545138889</v>
+        <v>46000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11303,7 +11328,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11340,14 +11365,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 7545-2026</t>
+          <t>A 11891-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46059.65075231482</v>
+        <v>45728.46309027778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11360,7 +11385,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11397,14 +11422,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 7466-2026</t>
+          <t>A 57663-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46059.48324074074</v>
+        <v>45981.42303240741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,13 +11441,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11459,14 +11479,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 994-2024</t>
+          <t>A 48071-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45301.62427083333</v>
+        <v>45589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11479,7 +11499,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11516,14 +11536,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 7448-2026</t>
+          <t>A 15559-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46059.46386574074</v>
+        <v>45019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11535,13 +11555,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11578,14 +11593,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 3187-2024</t>
+          <t>A 54007-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45316.65596064815</v>
+        <v>45615</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11597,13 +11612,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11640,14 +11650,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 8058-2026</t>
+          <t>A 61898-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46063</v>
+        <v>46003.46565972222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11670,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11697,14 +11707,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 8060-2026</t>
+          <t>A 33747-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46063</v>
+        <v>45133.39594907407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11754,14 +11764,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 8051-2026</t>
+          <t>A 44523-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46063</v>
+        <v>45189.4774537037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11774,7 +11784,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11811,14 +11821,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 39001-2024</t>
+          <t>A 6128-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45548.42012731481</v>
+        <v>46054.29585648148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11831,7 +11841,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11868,14 +11878,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 38983-2024</t>
+          <t>A 59396-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45548.39829861111</v>
+        <v>45638.37623842592</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11887,8 +11897,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1.9</v>
+        <v>5.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11925,14 +11940,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 13109-2023</t>
+          <t>A 6379-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45002</v>
+        <v>46055</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11945,7 +11960,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11982,14 +11997,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 56130-2022</t>
+          <t>A 7448-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44886</v>
+        <v>46059.46386574074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12001,8 +12016,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12039,14 +12059,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 33747-2023</t>
+          <t>A 7545-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45133.39594907407</v>
+        <v>46059.65075231482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12059,7 +12079,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12096,14 +12116,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 21333-2024</t>
+          <t>A 61247-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45440</v>
+        <v>45645.69128472222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12116,7 +12136,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12153,14 +12173,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 29195-2024</t>
+          <t>A 8047-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45482</v>
+        <v>45351.32293981482</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12173,7 +12193,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12210,14 +12230,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 880-2026</t>
+          <t>A 13109-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46029</v>
+        <v>45002</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12230,7 +12250,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12267,14 +12287,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 56602-2023</t>
+          <t>A 21333-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45243.6625</v>
+        <v>45440</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12287,7 +12307,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12324,14 +12344,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 7136-2022</t>
+          <t>A 8051-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44603</v>
+        <v>46063</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12344,7 +12364,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12381,14 +12401,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 50601-2024</t>
+          <t>A 8058-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45600</v>
+        <v>46063</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12401,7 +12421,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12438,14 +12458,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 67875-2021</t>
+          <t>A 8060-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44525</v>
+        <v>46063</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12458,7 +12478,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>15.5</v>
+        <v>0.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12495,14 +12515,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 16363-2024</t>
+          <t>A 29192-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45407.59325231481</v>
+        <v>45482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12515,7 +12535,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12552,14 +12572,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 41072-2023</t>
+          <t>A 67875-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45170</v>
+        <v>44525</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12572,7 +12592,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>7.8</v>
+        <v>15.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12609,14 +12629,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 10470-2024</t>
+          <t>A 880-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45366.38853009259</v>
+        <v>46029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12629,7 +12649,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12666,14 +12686,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 40369-2024</t>
+          <t>A 50261-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45555.39053240741</v>
+        <v>45216.37878472222</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12686,7 +12706,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>14.5</v>
+        <v>0.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12723,14 +12743,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 48071-2024</t>
+          <t>A 38983-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45589</v>
+        <v>45548.39829861111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12743,7 +12763,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12780,14 +12800,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 52262-2023</t>
+          <t>A 7466-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45217</v>
+        <v>46059.48324074074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12799,8 +12819,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>1.7</v>
+        <v>6.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12837,14 +12862,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 38818-2024</t>
+          <t>A 29327-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45547.55392361111</v>
+        <v>45483.43834490741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12857,7 +12882,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12894,14 +12919,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 8047-2024</t>
+          <t>A 56602-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45351.32293981482</v>
+        <v>45243.6625</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12914,7 +12939,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12951,14 +12976,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 33772-2023</t>
+          <t>A 12238-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45133</v>
+        <v>45729.58333333334</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12971,7 +12996,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.2</v>
+        <v>10.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13008,14 +13033,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 25884-2023</t>
+          <t>A 41072-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45085</v>
+        <v>45170</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13028,7 +13053,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>7.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13065,14 +13090,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 54007-2024</t>
+          <t>A 3391-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45615</v>
+        <v>45318</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13084,8 +13109,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13122,14 +13152,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 20888-2022</t>
+          <t>A 52902-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44701</v>
+        <v>45610.68715277778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13142,7 +13172,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13179,14 +13209,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 54792-2023</t>
+          <t>A 20968-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45236</v>
+        <v>45061</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13199,7 +13229,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13236,14 +13266,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 11891-2025</t>
+          <t>A 22560-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45728.46309027778</v>
+        <v>45071.44758101852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13293,14 +13323,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 3391-2024</t>
+          <t>A 54792-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45318</v>
+        <v>45236</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13312,13 +13342,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>1.8</v>
+        <v>5.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13355,14 +13380,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 21061-2022</t>
+          <t>A 45578-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44704</v>
+        <v>45578</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13375,7 +13400,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13412,14 +13437,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 55733-2023</t>
+          <t>A 61249-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45232</v>
+        <v>45645.69321759259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13432,7 +13457,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13469,14 +13494,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 28430-2024</t>
+          <t>A 38818-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45477</v>
+        <v>45547.55392361111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13489,7 +13514,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13526,14 +13551,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 64707-2023</t>
+          <t>A 45632-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45281</v>
+        <v>45579.47123842593</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13547,11 +13572,11 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>11.9</v>
+        <v>9.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13584,38 +13609,18 @@
         <v>0</v>
       </c>
       <c r="R216" s="2" t="inlineStr"/>
-      <c r="U216">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/knärot/A 64707-2023 karta knärot.png", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="V216">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomål/A 64707-2023 FSC-klagomål.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="W216">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/klagomålsmail/A 64707-2023 FSC-klagomål mail.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="X216">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsyn/A 64707-2023 tillsynsbegäran.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
-      <c r="Y216">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1486/tillsynsmail/A 64707-2023 tillsynsbegäran mail.docx", "A 64707-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 989-2024</t>
+          <t>A 7136-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45301</v>
+        <v>44603</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13628,7 +13633,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13665,14 +13670,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 50259-2023</t>
+          <t>A 24991-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45216.3775</v>
+        <v>45085</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13685,7 +13690,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13722,14 +13727,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 29192-2024</t>
+          <t>A 989-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45482</v>
+        <v>45301</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13742,7 +13747,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13779,14 +13784,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 57768-2022</t>
+          <t>A 61250-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44892</v>
+        <v>45645.69521990741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13799,7 +13804,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13836,14 +13841,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 19492-2021</t>
+          <t>A 13325-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44312</v>
+        <v>44645.34487268519</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13856,7 +13861,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13893,14 +13898,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 2231-2023</t>
+          <t>A 50234-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44942</v>
+        <v>45600.55275462963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13913,7 +13918,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13950,14 +13955,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 15559-2023</t>
+          <t>A 56677-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45019</v>
+        <v>45243.9177199074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13970,7 +13975,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14007,14 +14012,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 9983-2022</t>
+          <t>A 56130-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44621.43550925926</v>
+        <v>44886</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14027,7 +14032,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14064,14 +14069,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 20968-2023</t>
+          <t>A 21061-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45061</v>
+        <v>44704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14084,7 +14089,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14121,14 +14126,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 60220-2022</t>
+          <t>A 54374-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44903</v>
+        <v>44879</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14141,7 +14146,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>8.300000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14178,14 +14183,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 45617-2024</t>
+          <t>A 50259-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45579.45523148148</v>
+        <v>45216.3775</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14198,7 +14203,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14235,14 +14240,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 61252-2024</t>
+          <t>A 15695-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45645.69790509259</v>
+        <v>45748.46914351852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14255,7 +14260,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14292,14 +14297,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 56024-2023</t>
+          <t>A 49551-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45240</v>
+        <v>45596.4597337963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14312,7 +14317,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14349,14 +14354,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 5326-2024</t>
+          <t>A 46532-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45331.41356481481</v>
+        <v>45582.63861111111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14369,7 +14374,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14406,14 +14411,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 56677-2023</t>
+          <t>A 12779-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45243.9177199074</v>
+        <v>45733.59574074074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14426,7 +14431,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>10.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14463,14 +14468,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 35113-2021</t>
+          <t>A 11931-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44384.37240740741</v>
+        <v>45728.5212962963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14483,7 +14488,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14520,14 +14525,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 44883-2021</t>
+          <t>A 14087-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44438.61731481482</v>
+        <v>45739</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14540,7 +14545,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14577,14 +14582,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 60768-2022</t>
+          <t>A 9698-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44907</v>
+        <v>45716.37402777778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14597,7 +14602,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14634,14 +14639,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 52950-2022</t>
+          <t>A 9695-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44875.65717592592</v>
+        <v>45716.37232638889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14654,7 +14659,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14691,14 +14696,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 52852-2024</t>
+          <t>A 23012-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45610.60664351852</v>
+        <v>45790</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14711,7 +14716,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.9</v>
+        <v>6.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14748,14 +14753,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 15704-2025</t>
+          <t>A 14079-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45748.4815162037</v>
+        <v>45739</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14768,7 +14773,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14805,14 +14810,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 61626-2024</t>
+          <t>A 24348-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45646.66194444444</v>
+        <v>45797</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14825,7 +14830,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>7.3</v>
+        <v>2.4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14862,14 +14867,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 3178-2024</t>
+          <t>A 49554-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45316</v>
+        <v>45596.4672337963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14881,13 +14886,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>8.6</v>
+        <v>2.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14924,14 +14924,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 61249-2024</t>
+          <t>A 26233-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45645.69321759259</v>
+        <v>45805.5666087963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,8 +14943,13 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14981,14 +14986,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 38988-2024</t>
+          <t>A 26270-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45548.40613425926</v>
+        <v>45805.59357638889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15001,7 +15006,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15038,14 +15043,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 45632-2024</t>
+          <t>A 15552-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45579.47123842593</v>
+        <v>45018</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,13 +15062,8 @@
           <t>STRÖMSTAD</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15100,14 +15100,14 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 50603-2024</t>
+          <t>A 13890-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45600</v>
+        <v>44649</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>

--- a/Översikt STRÖMSTAD.xlsx
+++ b/Översikt STRÖMSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45135</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44327</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>44327</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45720.54828703704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44454</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>46006.48502314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45936.60298611111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>45944.71523148148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>44588</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45638.38912037037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44571</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44252</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45230</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>45974</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44252</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>45713</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>44651</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>44865.65704861111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44439</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>44533</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>44585</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>44740</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44865.43612268518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44256</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>44511.56693287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44499</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>44494</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>44457</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44606</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>44848.46362268519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44318</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44865</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44279</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44510</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44764.40619212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44526</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44851</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>44722</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>44384.73966435185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>44343.32159722222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44453</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>44298</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44256</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>44699</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>44533</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44494</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>44343.83640046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>44343</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>44588</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45615.50958333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>45316</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>45646.66194444444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>45385.47545138889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>45217</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>45133</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>45033</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44438.61731481482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>45366.38853009259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>44885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>45728.46913194445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>45483.44387731481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>45645.69790509259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>45548.42012731481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>44763</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44875.65717592592</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>45555.39053240741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>44312</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>45189</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44892</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>45750.63079861111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>45232</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>44384.37240740741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>45562.56358796296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44251</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>45819.5812037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44301</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>45610.60664351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>45824.46103009259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45824.45552083333</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>45895</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45600</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>45895</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>45539.49989583333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>45834</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>45057.34075231481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>45557</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>45841.57549768518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>45908.57429398148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>45841.58208333333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>45404</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>45841.57739583333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>45841.57973379629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>45841.58334490741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>45841.59465277778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>44459</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>45908</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45841.57423611111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>45240</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45841.55890046297</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45911.61836805556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>45841.59407407408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>45600</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45805.60436342593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>45916</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>44830.44231481481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>45281</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>45316.65596064815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>45922.61466435185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44848</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45638.35758101852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>45133.39075231482</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>45929.40480324074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>45477</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>45750.63945601852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>45331.41356481481</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>45369.56681712963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>45932.46203703704</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>45876.59644675926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>45936.60555555556</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>45757.5817824074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>45678.51011574074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44907</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>45942</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>45945.63623842593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>45944.69248842593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>45945.58449074074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>45945.600625</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>45945.6171412037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>45945.61997685185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>44701</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>45945.58215277778</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44301</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>45946.48350694445</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>45949</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>45949</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>45949</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>45579.45523148148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>45957.47081018519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>44621.43550925926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>45126</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>45458</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>44774.62195601852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>45482</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>45964.45715277778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>45301.62427083333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>44435</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>45972</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>45974.45112268518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>45974.47729166667</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>45974.47333333334</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>45985.37508101852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44865.45782407407</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>45985.39645833334</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44892</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>46035.59709490741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>45993.34480324074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>46034.46770833333</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>44942</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>46036.60327546296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>46036.60572916667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>45407.59325231481</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>45748.4815162037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44546.55005787037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>45764</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>45126.59351851852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45548.40613425926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>44903</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>46000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>45728.46309027778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>45981.42303240741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>45589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>45019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>45615</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>46003.46565972222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>45133.39594907407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>45189.4774537037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>46054.29585648148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>45638.37623842592</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>46055</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>46059.46386574074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>46059.65075231482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>45645.69128472222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>45351.32293981482</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>45002</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>45440</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>46063</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>46063</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>46063</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>45482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44525</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>46029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>45216.37878472222</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>45548.39829861111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>46059.48324074074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>45483.43834490741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>45243.6625</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>45729.58333333334</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>45170</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>45318</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>45610.68715277778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>45061</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>45071.44758101852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>45236</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>45578</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>45645.69321759259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>45547.55392361111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>45579.47123842593</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44603</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>45085</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>45301</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>45645.69521990741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>44645.34487268519</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>45600.55275462963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>45243.9177199074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>44886</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>44704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>44879</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>45216.3775</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>45748.46914351852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>45596.4597337963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45582.63861111111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>45733.59574074074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>45728.5212962963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>45739</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>45716.37402777778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>45716.37232638889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>45790</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>45739</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>45797</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>45596.4672337963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>45805.5666087963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>45805.59357638889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>45018</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>44649</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
